--- a/finetuning/it_datasets/qa_dataset/qa_it_midoun_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_midoun_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA67"/>
+  <dimension ref="A1:AB67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -663,12 +668,65 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a Cafe, check out Cafe Virage located at Cafe Virage, 4165, Midoun, Djerba Midun. This top-rated destination is perfect for Cafe lovers. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on []. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Virage/data=!4m7!3m6!1s0x13aabda0006d4997:0x44944ef6b94f7dd5!8m2!3d33.7975247!4d10.9579051!16s%2Fg%2F11c7466gvf!19sChIJl0ltAKC9qhMR1X1PufZOlEQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Virage is a highly-rated cafe located in Midoun, Tunisia, with a convenient location and extended opening hours from 7:00 AM to midnight. Although it lacks a website and phone number, it boasts a 4.3-star rating based on 10 reviews. The cafe's main category is Cafe, showcasing its expertise in coffee and other beverages.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Cafe in Midoun that stays open late most nights of the week?</t>
+          <t>Day Plan:
+**Morning:** Visiting historical landmarks: Mosquée Fadhloun Djerba Midoun, a historically significant and architecturally beautiful mosque.
+**Mid-Morning:** Exploring local culture: Souk Midoun, a bustling traditional market showcasing Djerba's vibrant crafts, textiles, and spices.
+**Midday:** Trying local cuisine: Restaurant Rayhana, a local favorite serving authentic Tunisian dishes like couscous and fish.
+**Afternoon:** Enjoying nature: Parc Djerba Explore, a park with a crocodile farm, museum, and attractions like a traditional Djerba house and mill.
+**Evening:** Relaxing with a scenic stroll: Corniche de Midoun, a beautiful waterfront promenade with picturesque views of the Mediterranean Sea.
+**Night:** Experiencing local nightlife: DOMINO'S PUB, a popular hangout spot in Midoun Djerba, offering a lively atmosphere and great music.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE ROTANA is located in midoun, Tunisia, at the coordinates (33.80813, 10.99228). The cafe has a rating of 5.0 and is open from 6:00 AM to 12:30 AM.
+Dar Amphora Menzel is a charming guest house located in Midoun, Tunisia, offering a tranquil retreat for travelers. Situated near the stunning beaches of Djerba, the guest house boasts a prime location with easy access to the island's attractions. With its cozy accommodations, warm hospitality, and convenient amenities, Dar Amphora Menzel is an ideal base for exploring the wonders of Djerba and enjoying a relaxing and memorable stay.
+Nestled in the heart of Midoun, Djerba Midun, Midounia offers charming bed and breakfast accommodations with a 5-star rating. Situated at coordinates (33.80813, 10.99228), this establishment boasts a prime location, making it an ideal base for exploring the city and its surroundings.
+Escape to the serene sanctuary of Calimer Yati Beach, a 5-star hotel situated at the heart of Midoun in Djerba Midun. Located at (33.81005, 10.98997), the hotel offers an idyllic beachfront retreat with breathtaking views of the Mediterranean Sea. As one of the top-rated hotels in the area, Calimer Yati Beach boasts exceptional amenities and services that cater to every need.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Bach Hamba is a popular restaurant located in the tourist area of Midoun Djerba, Avenue de la liberte. It offers a wide variety of dishes, including couscous, pasta, fish, and slata mechouia. The restaurant has a cozy atmosphere and friendly service. It is open from 12:00 pm to 12:00 am and closed on Sundays. Bach Hamba is a great place to enjoy a meal with friends or family.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -774,14 +832,65 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Cafe La Jeunesse located at RX4R+XPP Cafe La Jeunesse, Midoun, Djerba Midun. 
-This top-rated destination is a great Cafe. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+La+Jeunesse/data=!4m7!3m6!1s0x13aa97dacc49aa2d:0x44b7fdcab2c5178c!8m2!3d33.8074521!4d10.9918403!16s%2Fg%2F11g816qpf1!19sChIJLapJzNqXqhMRjBfFssr9t0Q?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 75 733 307.</t>
+          <t>Cafe La Jeunesse is a well-rated (4.4/5) cafe located at (33.80813, 10.99228) in Midoun, offering a variety of services, including cafe services.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>What is the highly-rated Cafe with a 4.4 rating located in Midoun, Djerba Midun, that is open from 6:00 AM to midnight?</t>
+          <t>Day Plan:
+Morning: Explore the historical significance of Mosquee Fadhloun Djerba Midoun, a beautiful architectural wonder with cultural importance.
+Mid-Morning: Immerse yourselves in the lively atmosphere of Souk Midoun, a traditional market where you can browse local products and souvenirs.
+Midday: Savor the local cuisine at Restaurant Rayhana, known for its authentic Tunisian dishes and vibrant atmosphere.
+Afternoon: Experience the thrilling ambiance of Disco salsa djerba, the perfect place to dance and socialize while enjoying the local nightlife.
+Evening: Relish a romantic dinner at Club Med Djerba, while enjoying the tranquil ambiance and live entertainment.
+Night: Unwind with a relaxing experience at Les Jardins de Toumana, a luxurious hotel with a chic atmosphere and rejuvenating amenities.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of the tourist zone of Midoun, Salon De The Virage is a charming cafe located at the coordinates (33.87576, 10.85745). Open daily from 6 AM to 1 AM, the cafe boasts a cozy ambiance and a menu featuring delectable treats.
+Dar El Kebir is a 4.8-rated guest house located in Midoun, Djerba. It offers 6 rooms, a swimming pool, a terrace, and a garden. The guest house is located close to the beach and offers a variety of activities, such as swimming, fishing, and hiking.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+Sentido Djerba Beach is a four-star hotel located on the beachfront in Midoun, Tunisia (coordinates: 48.4720605, 14.0440465). The hotel offers a private beach, multiple restaurants and bars, swimming pools, and a spa. Guest rooms are described as simple and comfortable. Over 1,400 reviews give the hotel an average rating of 4.2 out of 5. The hotel is particularly praised for its animation, beach chairs, service, and all-inclusive options.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, on the island of Djerba, in Tunisia. The park features a crocodile farm, with various species of crocodiles, turtles, and iguanas, as well as a museum and recreations of a traditional house, mill, and pottery workshop. The park also offers other attractions such as a gift shop, restaurant, and opportunities to interact with camels. It has received positive reviews from visitors, with an average rating of 4.6 out of 5. The park is located at coordinates 33.80813, 10.99228 with phone number 75 745 277.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+Restaurant Darkom is a restaurant located at (33.80813, 10.99228) in Midoun, Tunisia. The restaurant is highly rated, with a rating of 4.6 out of 5, and has received positive reviews for its value and customer service.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -887,12 +996,65 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a top-rated spot to enjoy some coffee, look no further than Daily dose coffee located at Rte de phare, 1km midoun, 4116. This cafe is perfect for coffee enthusiasts and offers a range of coffee-related treats to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-23:00, but closed on none. To get there, use these GPS coordinates: 33.8099042, 10.9723646. For more details, visit their website at none or call them at 56 029 645.</t>
+          <t>Daily Dose Coffe is a coffee shop located in midoun at the coordinates (33.8099042, 10.9723646). The coffee shop is open from 7:00 AM to 11:00 PM and it offers a wide variety of coffees, teas, and pastries. The coffee shop also has a friendly staff and a cozy atmosphere, making it a great place to relax and enjoy a cup of coffee.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where in Midoun can you find Daily Dose Coffee, a highly-rated café specializing in coffee and renowned for its coffee-infused treats?</t>
+          <t>Day Plan:
+Morning: Exploring Moods Coffee Shop for its highly-rated coffee and cozy atmosphere.
+Mid-Morning: Trying local cuisine at Restaurant Bel-K Algerian Food for its authentic Algerian dishes and affordable prices.
+Midday: Visiting Souk Midoun for its lively atmosphere, colorful stalls, and variety of souvenirs and handicrafts.
+Afternoon: Enjoying a relaxing afternoon at Les Jardins de Toumana's private beach or swimming pool, surrounded by luxurious amenities.
+Evening: Participating in an unforgettable 5-star bed and breakfast experience at Aljanna for a peaceful retreat.
+Night: Exploring the vibrant nightlife at Domino's Pub, known for its modern amenities and focus on customer satisfaction.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Moods Coffee Shop is a highly-rated café located in Midoun, Djerba Midun. Open from 4:30am to 11pm, it is renowned for its coffee and service, with reviews praising its cozy atmosphere. Located at (33.80813, 10.99228), Moods Coffee Shop is easily accessible and offers a welcoming space for locals and tourists alike.
+Dar Amphora Menzel is a charming guesthouse located in Midoun on the island of Djerba in Tunisia. It is rated 4.6 stars and offers a memorable stay for its guests. With 12 reviews, it is a popular choice for travelers seeking a comfortable and authentic experience.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+Nestled on the beautiful shores of Midoun, Djerba, Calimer Yati Beach is a 5-star haven offering unforgettable vacations. This luxurious resort boasts a stunning beachfront location, just steps away from the crystal-clear waters. Guests can indulge in a range of amenities, including a private beach, swimming pools, a spa, dining options, and comfortable accommodations. Its convenient location allows for easy access to local attractions and cultural experiences, making it an ideal destination for those seeking relaxation, adventure, and cultural immersion.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, on the island of Djerba, in Tunisia. The park features a crocodile farm, with various species of crocodiles, turtles, and iguanas, as well as a museum and recreations of a traditional house, mill, and pottery workshop. The park also offers other attractions such as a gift shop, restaurant, and opportunities to interact with camels. It has received positive reviews from visitors, with an average rating of 4.6 out of 5. The park is located at coordinates 33.80813, 10.99228 with phone number 75 745 277.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Restaurant Bel-K Algerian Food is a popular destination in Midoun, Tunisia, with a rating of 4.1 stars from 34 reviews. It serves Algerian cuisine and is known for its chef and affordable prices. The restaurant is located at Place El Bousten en face du Soquagen Midoun and is open daily from 12:00-15:00 and 18:00-23:00, except on Fridays.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -998,12 +1160,65 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in Midoun and looking for a cozy spot to relax and savor some delicious coffee, head over to Moods Coffee Shop at Moods Coffee Shop, Midoun, Djerba Midun. This top-rated cafe offers a warm and inviting atmosphere perfect for coffee lovers. With a rating of 4.5, it's a must-visit spot. Moods Coffee Shop is open daily from 4:30 AM to 11:00 PM. For more information, you can call them at 55 896 485.</t>
+          <t>Moods Coffee Shop is a highly-rated café located in Midoun, Djerba Midun. Open from 4:30am to 11pm, it is renowned for its coffee and service, with reviews praising its cozy atmosphere. Located at (33.80813, 10.99228), Moods Coffee Shop is easily accessible and offers a welcoming space for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated coffee shop with a welcoming ambiance in Midoun, Djerba Midun?</t>
+          <t>Day Plan:
+Morning: Explore Souk Midoun for local souvenirs and textiles.
+Mid-Morning: Visit Djerba Explore Park to see wildlife and learn about local culture.
+Midday: Try local cuisine at Restaurant Rayhana for authentic Tunisian flavors.
+Afternoon: Relax with a spa treatment at Les Jardins de Toumana.
+Evening: Participate in a live show or cultural performance at Club Med Djerba.
+Night: Enjoy scenic views and drinks at DOMINO'S PUB.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of the tourist zone of Midoun, Salon De The Virage is a charming cafe located at the coordinates (33.87576, 10.85745). Open daily from 6 AM to 1 AM, the cafe boasts a cozy ambiance and a menu featuring delectable treats.
+Dar Amphora Menzel is a charming guest house located in Midoun, Tunisia, offering a tranquil retreat for travelers. Situated near the stunning beaches of Djerba, the guest house boasts a prime location with easy access to the island's attractions. With its cozy accommodations, warm hospitality, and convenient amenities, Dar Amphora Menzel is an ideal base for exploring the wonders of Djerba and enjoying a relaxing and memorable stay.
+Maison Leila is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 47.9183293, 13.7994911). It offers relaxed accommodation featuring a swimming pool, a spa, and a restaurant. The guesthouse specializes in providing comfortable and serene stays with suites equipped with kitchenettes. Maison Leila has received positive reviews for its cleanliness, comfort, and value for money, making it a popular choice for travelers seeking a peaceful and convenient getaway.
+If you are seeking a comfortable and conveniently located hotel in Midoun, look no further than Hotel Meridiana. The hotel has received a 4.2 stars rating with 17 reviews, suggesting that it offers a pleasant stay for its guests. Situated at (33.82835, 11.04065), the hotel is easy to find and accessible. Although detailed information about the hotel's amenities and services is not provided, its location and positive reviews make it a solid option for travelers seeking a comfortable and convenient stay in Midoun.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+RESTAURANT EL LAMMA, with an average rating of 4.5/5 from 2 reviews, is located in Midoun, Djerba Midun, on the coordinates (33.80813, 10.99228). It is open from 10:00 AM to 3:00 AM and offers a wide range of dining options in a cozy and inviting atmosphere.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1316,65 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in Midoun and looking for a top-rated cafe, check out Djerba Midoun, Tunisie located at Djerba Midoun, Tunisie, Midoun Djerba, 4145. This cafe is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 33.7177752, 10.9382715. For more details, visit their website at https://www.google.com/maps/place/Djerba+Midoun,+Tunisie/data=!4m7!3m6!1s0x13aabd71ae2c08a1:0xf5e2662580216b02!8m2!3d33.8160867!4d10.9797412!16s%2Fg%2F11szpvzq9c!19sChIJoQgsrnG9qhMRAmshgCVm4vU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Djerba Midoun is located in Tunisia, in the city of Midoun. This cafe has a rating of 4.8 stars.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where in Midoun can you find a highly recommended cafe with a 4.8 rating, perfect for cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historical Mosquee Fadhloun Djerba Midoun, known for its architectural beauty.
+Mid-Morning: Visit Djerba Golf Club, offering a breathtaking view of the sea and lush palm trees, and enjoy a round of golf.
+Midday: Savor a delicious traditional lunch at Restaurant Rayhana, known for its couscous and other Tunisian specialties.
+Afternoon: Relax on the private beach of Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel.
+Evening: Experience a lively and colorful atmosphere at Souk Midoun, a traditional market offering spices, souvenirs, textiles, and handicrafts.
+Night: Enjoy a memorable dinner at Dar Amphora Menzel, a charming guest house with a warm and friendly atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE ROTANA is located in midoun, Tunisia, at the coordinates (33.80813, 10.99228). The cafe has a rating of 5.0 and is open from 6:00 AM to 12:30 AM.
+Dar Amphora Menzel is a charming guest house located in Midoun, a city on the island of Djerba in Tunisia. This 4.6-star-rated establishment offers a relaxing stay in a warm and friendly atmosphere. The guest house is conveniently located near the beach and various shops and restaurants, making it an ideal base for exploring the island and enjoying its beautiful scenery.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+Discover the unforgettable Welcome Meridiana Djerba, nestled amidst the picturesque landscapes of Midoun, Djerba. This magnificent hotel offers guests a haven of tranquility and comfort with elegantly appointed rooms, a refreshing pool, and a breathtaking beach nearby. Its warm and welcoming atmosphere, complemented by impeccable service and a dedicated entertainment team, ensures a memorable stay for couples and families alike. Embark on an extraordinary vacation where every detail has been meticulously considered for your utmost relaxation and enjoyment.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+Restaurant Dar Hedia is a highly-rated restaurant located in Midoun, Tunisia. It specializes in Middle Eastern and Tunisian cuisine, offering both indoor and outdoor seating. The menu features a wide variety of dishes, including grilled meats, couscous, and traditional Tunisian fare. The restaurant is open for lunch and dinner, and is frequented by locals and tourists alike.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1208,12 +1476,70 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a great cafe, check out Salon De The Virage located at 4116 zone touristique midoun, Houmt Souk. This top-rated destination is perfect for Cafe lovers and has a rating of 4.8. It's open during these hours: 06:00-01:00. To get there, use these GPS coordinates: 33.87576, 10.85745. For more details, visit their website at .</t>
+          <t>Nestled in the heart of the tourist zone of Midoun, Salon De The Virage is a charming cafe located at the coordinates (33.87576, 10.85745). Open daily from 6 AM to 1 AM, the cafe boasts a cozy ambiance and a menu featuring delectable treats.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where in Midoun can you find Salon De The Virage, a highly-rated cafe known for its top-notch coffee experience?</t>
+          <t>Day Plan:
+Morning: Explore the historical Mosquee Fadhloun Djerba Midoun, known for its architectural beauty and cultural significance.
+Mid-Morning: Indulge in local cuisine at Restaurant Rayhana, renowned for its delicious couscous, fish, and other Tunisian specialties.
+Midday: Visit Djerba Explore Park, a unique blend of entertainment and education, featuring a crocodile farm, museum, and recreations of traditional Tunisian architecture.
+Afternoon: Enjoy the lively atmosphere and colorful stalls at Souk Midoun, a traditional market offering various products like spices, souvenirs, textiles, and handicrafts.
+Evening: Relax and rejuvenate with a spa treatment at Les Jardins de Toumana, an exclusive hotel known for its luxurious accommodations and wellness facilities.
+Night: Head to DOMINO'S PUB, a highly-rated bar lounge, for a night of drinks and snacks while enjoying the friendly atmosphere and great music.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Daily Dose Coffe is a coffee shop located in midoun at the coordinates (33.8099042, 10.9723646). The coffee shop is open from 7:00 AM to 11:00 PM and it offers a wide variety of coffees, teas, and pastries. The coffee shop also has a friendly staff and a cozy atmosphere, making it a great place to relax and enjoy a cup of coffee.
+Dar Amphora Menzel is a charming guest house located in Midoun, a city on the island of Djerba in Tunisia. This 4.6-star-rated establishment offers a relaxing stay in a warm and friendly atmosphere. The guest house is conveniently located near the beach and various shops and restaurants, making it an ideal base for exploring the island and enjoying its beautiful scenery.
+Nestled in the heart of Midoun, Djerba Midun, Midounia offers charming bed and breakfast accommodations with a 5-star rating. Situated at coordinates (33.80813, 10.99228), this establishment boasts a prime location, making it an ideal base for exploring the city and its surroundings.
+Nestled on the beautiful shores of Midoun, Djerba, Calimer Yati Beach is a 5-star haven offering unforgettable vacations. This luxurious resort boasts a stunning beachfront location, just steps away from the crystal-clear waters. Guests can indulge in a range of amenities, including a private beach, swimming pools, a spa, dining options, and comfortable accommodations. Its convenient location allows for easy access to local attractions and cultural experiences, making it an ideal destination for those seeking relaxation, adventure, and cultural immersion.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, Tunisia (33.808130, 10.992280). It offers a unique blend of entertainment and education, featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture, including a house, a mill, and a pottery workshop. The park also boasts a diverse collection of animals, including reptiles, turtles, and iguanas. With its focus on heritage and nature, Djerba Explore Park is a popular destination for families and nature enthusiasts alike.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Le Petit Navire Restaurant Poissonnerie is located in Midoun, Djerba Midun. It offers a wide range of seafood dishes and has a 4.1-star rating on Google. The restaurant is open daily except Tuesdays and has a friendly atmosphere with good service. The average price is in the middle range. The most popular dishes include: 
+- Fruits de mer (13 reviews)
+- Pates (4 reviews)
+- Gargoulette (3 reviews)
+- Poulpe (4 reviews)
+- Service (4 reviews)
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1319,12 +1645,65 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in Midoun, check out Cafe les arcades mqh~ lqws at 4116 Midoun. This 5.0-rated cafe is a great spot for coffee and more. It's open 24/7, so you can visit anytime. For more info, call them at 22 476 009.</t>
+          <t>Cafe les arcades mqh~ lqws is a 5-star rated cafe located in midoun. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at 4116 Midoun, Djerba Midun and can be contacted at 22 476 009.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe that is open 24/7 in Midoun?</t>
+          <t>Day Plan:
+Morning: Explore Souk Midoun, a bustling traditional market, for a glimpse into local culture and find unique souvenirs and spices.
+Mid-Morning: Visit Mosquee Fadhloun Djerba Midoun, a historical mosque, to admire its architectural beauty and learn about its significance.
+Midday: Try local cuisine at Restaurant Rayhana, a popular restaurant serving delicious Tunisian dishes like couscous and fish.
+Afternoon: Relax with a massage or spa treatment at Les Jardins de Toumana, a luxurious hotel with a serene and rejuvenating atmosphere.
+Evening: Enjoy scenic views at Djerba Explore Park, a theme park with a crocodile farm, museum, and opportunities to interact with camels.
+Night: Experience cultural immersion at Domino's Pub, a bar lounge with a lively atmosphere, live music, and a focus on providing a great experience for customers.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE ROTANA is located in midoun, Tunisia, at the coordinates (33.80813, 10.99228). The cafe has a rating of 5.0 and is open from 6:00 AM to 12:30 AM.
+Dar Amphora Menzel is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 33.8815674, 10.8566779). It offers a serene retreat with 12 cozy rooms and features amenities such as a swimming pool and a traditional hammam (steam bath). The guesthouse is conveniently situated near various attractions and offers easy access to the city's vibrant culture and stunning natural surroundings.
+Maison Leila is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 47.9183293, 13.7994911). It offers relaxed accommodation featuring a swimming pool, a spa, and a restaurant. The guesthouse specializes in providing comfortable and serene stays with suites equipped with kitchenettes. Maison Leila has received positive reviews for its cleanliness, comfort, and value for money, making it a popular choice for travelers seeking a peaceful and convenient getaway.
+Nestled in the heart of the tourist area of midoun, Tunisia, Vincci Dar Midoun is a 4-star hotel that offers an unforgettable stay to its guests. This luxurious hotel boasts 500 beautifully appointed rooms and suites, each equipped with modern amenities and stunning views of the surrounding landscape. Vincci Dar Midoun offers a wide range of services and facilities, including a restaurant and bar, a swimming pool and a fitness center. The hotel also offers a variety of activities, such as animation and entertainment programs, to keep guests entertained during their stay. With its convenient location and exceptional service, Vincci Dar Midoun is the perfect place to stay for both business and leisure travelers alike.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, on the island of Djerba, in Tunisia. The park features a crocodile farm, with various species of crocodiles, turtles, and iguanas, as well as a museum and recreations of a traditional house, mill, and pottery workshop. The park also offers other attractions such as a gift shop, restaurant, and opportunities to interact with camels. It has received positive reviews from visitors, with an average rating of 4.6 out of 5. The park is located at coordinates 33.80813, 10.99228 with phone number 75 745 277.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+Livraison food djerba is a 5 stars restaurant located in Midoun, Djerba Midun, Tunisia. It is opened 24 hours a day and has the particularity of delivering food at home. Many reviews mention its burgers.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1813,71 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a top-rated Cafe, check out Cafe Bouchnak located at RX7P+66G Cafe Bouchnak, Midoun, Djerba Midun. This local favorite offers a range of Cafe options to choose from and has a rating of 4.6. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at https://www.facebook.com/bouchnakcafe/%3Ffref%3Dts or call them at 75 732 410.</t>
+          <t>Cafe Bouchnak is a cafe located in Midoun, Djerba Midun, Tunisia. It is open from 06:00-00:00 and closed on Sundays. Cafe Bouchnak has a rating of 4.6 out of 5 stars on Google and is known for its great coffee and friendly staff.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Cafe offering a variety of options with GPS coordinates 33.80813, 10.99228 in the Midoun area?</t>
+          <t>Day Plan:
+Morning:
+- Exploring Djerba Golf Club and enjoying the breathtaking sea and palm tree views while trying out the golf course.
+Mid-Morning:
+- Visiting the historic Mosquee Fadhloun Djerba Midoun to appreciate its architectural beauty and religious significance.
+Midday:
+- Trying local cuisine at Lotophages, savoring delicious pizzas, sandwiches, and refreshing beverages in a friendly and cozy atmosphere.
+Afternoon:
+- Relaxing with a spa treatment at Les Jardins de Toumana, experiencing rejuvenating and luxurious amenities in a traditional Tunisian setting.
+Evening:
+- Enjoying scenic views at the Djerba Explore Park, exploring its crocodile farm, museum, and recreations of traditional Tunisian structures.
+Night:
+- Participating in lively entertainment at Disco Salsa Djerba, immersing yourself in the local nightlife and dancing the night away.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Riadh is a cafe situated in the heart of midoun, Tunisia. The cafe is a popular spot for locals and tourists alike, and offers a variety of coffee and tea drinks, as well as a selection of snacks. The cafe is located at 33.80813, 10.99228.
+Dar Amphora Menzel is a charming guest house located in Midoun, Tunisia, offering a tranquil retreat for travelers. Situated near the stunning beaches of Djerba, the guest house boasts a prime location with easy access to the island's attractions. With its cozy accommodations, warm hospitality, and convenient amenities, Dar Amphora Menzel is an ideal base for exploring the wonders of Djerba and enjoying a relaxing and memorable stay.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+Iberostar Mehari Djerba is a 4.7 stars hotel located in midoun, Tunisia. The hotel offers a wide range of services and amenities to its guests, including an outdoor pool, a spa, a fitness center, and a kids' club. The hotel is also conveniently located near the beach, making it a great choice for those who want to enjoy some sun and sand during their stay.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Lotophages is a popular restaurant in the heart of Midoun, Tunisia. With a rating of 4.0 out of 5 based on 113 reviews, it offers a wide range of dishes and beverages, including pizzas, sandwiches, cocktails, and coffee in a friendly and cozy atmosphere. The restaurant is located at RX5R+R67 in Midoun and is open from 6:00 AM to midnight every day of the week.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1545,12 +1983,65 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a top-rated Cafe, check out Twist cafe located at Twist cafe, Midoun, Djerba Midun. This must-visit spot offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, but it's always a good idea to call ahead at 20 371 605. To get there, use these GPS coordinates: 33.80813, 10.99228.</t>
+          <t>"Twist Cafe" is a highly-rated 24-hour cafe located at Twist cafe, Midoun, Djerba Midun (33.80813, 10.99228), offering a cozy ambiance and a menu that caters to various tastes. Its 5.0 rating, based on numerous positive customer reviews, speaks volumes about the cafe's exceptional quality and service. Whether you're looking for a relaxing cup of coffee or a delightful meal, "Twist Cafe" is a must-visit destination for those seeking a delightful culinary experience.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>If you're in Midoun searching for a highly-rated cafe, what location should you visit that's open 24 hours and boasts a 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the historic Mosquee Fadhloun Djerba Midoun.
+Mid-Morning: Visit the cultural Djerba Explore Park, featuring animal exhibits and traditional architecture.
+Midday: Try local cuisine at the highly-rated RESTAURANT EL LAMMA.
+Afternoon: Enjoy recreational activities at Djerba Golf Club, offering a picturesque golf course.
+Evening: Engage in outdoor activities at Midounia, a charming bed and breakfast with a central location.
+Night: Experience the lively atmosphere at DOMINO'S PUB, a 4.8-rated bar lounge known for its friendly staff and great drinks.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Moods Coffee Shop is a highly-rated café located in Midoun, Djerba Midun. Open from 4:30am to 11pm, it is renowned for its coffee and service, with reviews praising its cozy atmosphere. Located at (33.80813, 10.99228), Moods Coffee Shop is easily accessible and offers a welcoming space for locals and tourists alike.
+Dar Amphora Menzel, located in Midoun (33.8815674, 10.8566779), is a highly-rated guest house with a 4.6 rating. Run by Dar Amphora Menzel (owner), it offers a serene stay with its cozy accommodations and attentive service. This guesthouse is your go-to destination for those seeking a haven amidst the heart of midoun.
+Nestled in the heart of Midoun, Djerba Midun, Midounia offers charming bed and breakfast accommodations with a 5-star rating. Situated at coordinates (33.80813, 10.99228), this establishment boasts a prime location, making it an ideal base for exploring the city and its surroundings.
+fndq 'ldyn 4 is a 4.5-rated all-inclusive resort located in Midoun, Djerba. It features simple restaurants, bars, an outdoor pool, and water sports. The resort is known for its lively atmosphere, friendly staff, and a wide range of entertainment options, including live shows, sports activities, and a nightclub. The resort is conveniently located near the beach and offers stunning views of the Mediterranean Sea.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, Tunisia (33.808130, 10.992280). It offers a unique blend of entertainment and education, featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture, including a house, a mill, and a pottery workshop. The park also boasts a diverse collection of animals, including reptiles, turtles, and iguanas. With its focus on heritage and nature, Djerba Explore Park is a popular destination for families and nature enthusiasts alike.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+RESTAURANT EL LAMMA, with an average rating of 4.5/5 from 2 reviews, is located in Midoun, Djerba Midun, on the coordinates (33.80813, 10.99228). It is open from 10:00 AM to 3:00 AM and offers a wide range of dining options in a cozy and inviting atmosphere.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1656,12 +2147,70 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a top-rated cafe, check out CAFE ROTANA located at RX6P+JX6 CAFE ROTANA, Midoun, Djerba Midun. With a rating of 5.0, it's a must-visit spot for cafe enthusiasts. CAFE ROTANA opens during these hours: 06:00-00:30 and is closed on none of the days of the week. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at https://www.google.com/maps/place/CAFE+ROTANA/data=!4m7!3m6!1s0x13aa97dc0a3aa375:0xcb27b6cfc4fb22e!8m2!3d33.8115274!4d10.9873833!16s%2Fg%2F11c5653yw3!19sChIJdaM6CtyXqhMRLrJP_Gx7sgw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 75 732 585.</t>
+          <t>CAFE ROTANA is located in midoun, Tunisia, at the coordinates (33.80813, 10.99228). The cafe has a rating of 5.0 and is open from 6:00 AM to 12:30 AM.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>What is the top-rated cafe in Midoun with a 5.0 rating located at the GPS coordinates 33.80813, 10.99228?</t>
+          <t>Day Plan:
+Morning: Explore the historical significance of Mosquee Fadhloun Djerba Midoun.
+Mid-Morning: Visit Djerba Explore Park, home to exotic wildlife and historical recreations.
+Midday: Relish local cuisine at Le Petit Navire Restaurant Poissonnerie, known for its seafood delicacies.
+Afternoon: Engage in outdoor activities at Djerba Golf Club, offering a breathtaking view and golf enthusiasts' delight.
+Evening: Experience cultural immersion at Souk Midoun, a vibrant market showcasing local crafts and souvenirs.
+Night: Enjoy a relaxing atmosphere with live entertainment at DOMINO'S PUB, a popular bar lounge.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Twist Cafe" is a highly-rated 24-hour cafe located at Twist cafe, Midoun, Djerba Midun (33.80813, 10.99228), offering a cozy ambiance and a menu that caters to various tastes. Its 5.0 rating, based on numerous positive customer reviews, speaks volumes about the cafe's exceptional quality and service. Whether you're looking for a relaxing cup of coffee or a delightful meal, "Twist Cafe" is a must-visit destination for those seeking a delightful culinary experience.
+Dar Amphora Menzel is a guest house located in Midoun, Tunisia, offering a 4.6-star experience. It features a convenient location at Dar Amphora Menzel, Bp 31, with coordinates (33.8815674, 10.8566779). The guest house's main category is listed as "Maison d'hotes," indicating its focus on providing a comfortable and welcoming stay for guests.
+Maison Leila is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 47.9183293, 13.7994911). It offers relaxed accommodation featuring a swimming pool, a spa, and a restaurant. The guesthouse specializes in providing comfortable and serene stays with suites equipped with kitchenettes. Maison Leila has received positive reviews for its cleanliness, comfort, and value for money, making it a popular choice for travelers seeking a peaceful and convenient getaway.
+Nestled on the beautiful shores of Midoun, Djerba, Calimer Yati Beach is a 5-star haven offering unforgettable vacations. This luxurious resort boasts a stunning beachfront location, just steps away from the crystal-clear waters. Guests can indulge in a range of amenities, including a private beach, swimming pools, a spa, dining options, and comfortable accommodations. Its convenient location allows for easy access to local attractions and cultural experiences, making it an ideal destination for those seeking relaxation, adventure, and cultural immersion.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+Le Petit Navire Restaurant Poissonnerie is located in Midoun, Djerba Midun. It offers a wide range of seafood dishes and has a 4.1-star rating on Google. The restaurant is open daily except Tuesdays and has a friendly atmosphere with good service. The average price is in the middle range. The most popular dishes include: 
+- Fruits de mer (13 reviews)
+- Pates (4 reviews)
+- Gargoulette (3 reviews)
+- Poulpe (4 reviews)
+- Service (4 reviews)
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1759,14 +2308,65 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Riadh located at Riadh, Midoun Center, Midoun, Djerba Midun. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Riadh/data=!4m7!3m6!1s0x13aa975adf7e309d:0x663c99926e0012a!8m2!3d33.8086534!4d10.9908569!16s%2Fg%2F11kjy3n77p!19sChIJnTB-31qXqhMRKgHgJpnJYwY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Riadh is a cafe situated in the heart of midoun, Tunisia. The cafe is a popular spot for locals and tourists alike, and offers a variety of coffee and tea drinks, as well as a selection of snacks. The cafe is located at 33.80813, 10.99228.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe called Riadh in Midoun, known for its exceptional cafe selection and perfect for coffee enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the lively Souk Midoun, where you can browse local crafts, souvenirs, and spices.
+Mid-Morning: Visit the Djerba Explore Park and interact with the exotic species at the crocodile farm, museum, and recreated traditional structures.
+Midday: Enjoy a delicious lunch at Fast Food Sami, savoring the flavors of local cuisine in a casual setting.
+Afternoon: Relax at the serene "Les Jardins de Toumana" and rejuvenate with a swim in the pool or indulge in a traditional hammam at Dar Amphora Menzel.
+Evening: Head to Restaurant Rayhana for an authentic Tunisian dining experience, savoring couscous, fish, and other local specialties while enjoying the vibrant ambiance.
+Night: Explore the lively Disco salsa djerba and dance the night away in a modern and energetic atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe les arcades mqh~ lqws is a 5-star rated cafe located in midoun. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at 4116 Midoun, Djerba Midun and can be contacted at 22 476 009.
+Dar Amphora Menzel is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 33.8815674, 10.8566779). It offers a serene retreat with 12 cozy rooms and features amenities such as a swimming pool and a traditional hammam (steam bath). The guesthouse is conveniently situated near various attractions and offers easy access to the city's vibrant culture and stunning natural surroundings.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+Seabel Rym Beach Djerba is a welcoming seaside hotel in Midoun. It features bright rooms, two restaurants, a spa, an indoor pool, and outdoor swimming pools. With 4.4/5 stars and over 2600 reviews, it's a popular choice. Located at (33.82753, 11.04639), it's close to many attractions.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Nestled in the heart of Midoun, "Fast Food Sami" is a local culinary gem. Offering delicious meals, this restaurant has earned an impressive 4.8 rating from satisfied customers. Its convenient location on RX5V+V8H makes it easy to find. Open daily from 8 am to 11 pm, Fast Food Sami caters to both early risers and late-night cravings. With its inviting ambiance and friendly service, it's an excellent choice for a casual dining experience.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1868,14 +2468,76 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Dar Amphora Menzel located at Dar Amphora Menzel, Bp 31, Midoun 4190. 
-This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: nan, but closed on: nan. To get there, use these GPS coordinates: 33.8815674, 10.8566779. For more details, visit their website at nan or call them at 21 488 464.</t>
+          <t>Dar Amphora Menzel is a charming guest house located in Midoun, a city on the island of Djerba in Tunisia. This 4.6-star-rated establishment offers a relaxing stay in a warm and friendly atmosphere. The guest house is conveniently located near the beach and various shops and restaurants, making it an ideal base for exploring the island and enjoying its beautiful scenery.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated destination in Midoun offering a selection of Maison d'hotes to choose from?</t>
+          <t>Day Plan:
+Morning:
+- Explore Souk Midoun, the traditional market offering souvenirs, spices, and textiles.
+Mid-Morning:
+- Visit Djerba Explore Park, a theme park showcasing Tunisian heritage and wildlife.
+Midday:
+- Try local cuisine at Le Petit Navire Restaurant Poissonnerie, known for its seafood dishes.
+Afternoon:
+- Relax on the beach near Seabel Rym Beach Djerba, enjoying the hotel's amenities and scenic views.
+Evening:
+- Indulge in a memorable dinner at Restaurant Rayhana, specializing in Tunisian cuisine and offering a lively atmosphere.
+Night:
+- Experience the nightlife at Disco salsa djerba, a discotheque with modern amenities and a lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of the tourist zone of Midoun, Salon De The Virage is a charming cafe located at the coordinates (33.87576, 10.85745). Open daily from 6 AM to 1 AM, the cafe boasts a cozy ambiance and a menu featuring delectable treats.
+Dar Amphora Menzel is a charming guest house located in Midoun, a city on the island of Djerba in Tunisia. This 4.6-star-rated establishment offers a relaxing stay in a warm and friendly atmosphere. The guest house is conveniently located near the beach and various shops and restaurants, making it an ideal base for exploring the island and enjoying its beautiful scenery.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+Seabel Rym Beach Djerba is a welcoming seaside hotel in Midoun. It features bright rooms, two restaurants, a spa, an indoor pool, and outdoor swimming pools. With 4.4/5 stars and over 2600 reviews, it's a popular choice. Located at (33.82753, 11.04639), it's close to many attractions.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, Tunisia (33.808130, 10.992280). It offers a unique blend of entertainment and education, featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture, including a house, a mill, and a pottery workshop. The park also boasts a diverse collection of animals, including reptiles, turtles, and iguanas. With its focus on heritage and nature, Djerba Explore Park is a popular destination for families and nature enthusiasts alike.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Le Petit Navire Restaurant Poissonnerie is located in Midoun, Djerba Midun. It offers a wide range of seafood dishes and has a 4.1-star rating on Google. The restaurant is open daily except Tuesdays and has a friendly atmosphere with good service. The average price is in the middle range. The most popular dishes include: 
+- Fruits de mer (13 reviews)
+- Pates (4 reviews)
+- Gargoulette (3 reviews)
+- Poulpe (4 reviews)
+- Service (4 reviews)
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1977,13 +2639,65 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a top-rated Chambre d'hotes, check out Aljanna located at R22R+WJF Aljanna, Djerba Tezdaine, Djerba Midoun 4116. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.8038814, 11.0400685. For more details, call them at 97 556 810.</t>
+          <t>Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Chambre d'hotes in Midoun with GPS coordinates 33.8038814, 11.0400685?</t>
+          <t>Day Plan:
+Morning: Exploring Djerba Explore Park with its fascinating crocodile farm, museum, and traditional Tunisian workshops.
+Mid-Morning: Trying local cuisine at Restaurant El Lamina for a delightful and affordable dining experience.
+Midday: Relaxing with a rejuvenating spa treatment at Les Jardins de Toumana, enjoying the luxurious ambiance and skilled therapists.
+Afternoon: Enjoying water sports and beach activities at Djerba Beach for an exhilarating and refreshing adventure.
+Evening: Participating in a fun and lively evening at Domino's Pub, sipping on cocktails and enjoying the vibrant atmosphere.
+Night: Experiencing a traditional Tunisian dinner at Restaurant Rayhana, savoring authentic flavors and enjoying the lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Djerba Midoun is located in Tunisia, in the city of Midoun. This cafe has a rating of 4.8 stars.
+Dar Amphora Menzel is a charming guest house located in Midoun, Tunisia, offering a tranquil retreat for travelers. Situated near the stunning beaches of Djerba, the guest house boasts a prime location with easy access to the island's attractions. With its cozy accommodations, warm hospitality, and convenient amenities, Dar Amphora Menzel is an ideal base for exploring the wonders of Djerba and enjoying a relaxing and memorable stay.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+The Fiesta Beach Djerba is a 4.2-rated all-inclusive hotel in Midoun, Tunisia. Facing a private beach, it offers a relaxed atmosphere with a range of amenities such as a spa, multiple pools, and a kids' club. The hotel has received over 1870 reviews and is highly praised for its animation, entertainment, and friendly staff. The Fiesta Beach Djerba is conveniently located near popular attractions and offers a wide range of activities for guests to enjoy during their stay.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+RESTAURANT EL LAMMA, with an average rating of 4.5/5 from 2 reviews, is located in Midoun, Djerba Midun, on the coordinates (33.80813, 10.99228). It is open from 10:00 AM to 3:00 AM and offers a wide range of dining options in a cozy and inviting atmosphere.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2085,14 +2799,65 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Dar Amphora Menzel located at Dar Amphora Menzel, Bp 31, Midoun 4190. 
-This top-rated destination is perfect for Maison d'hotes lovers and offers a range of categories to choose from.
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 33.8815674, 10.8566779. For more details, visit their website or call them at 21 488 464.</t>
+          <t>Dar Amphora Menzel, located in Midoun (33.8815674, 10.8566779), is a highly-rated guest house with a 4.6 rating. Run by Dar Amphora Menzel (owner), it offers a serene stay with its cozy accommodations and attentive service. This guesthouse is your go-to destination for those seeking a haven amidst the heart of midoun.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where on the island of Midoun can you find a highly-rated Maison d'hotes, perfect for those looking for a unique and special accommodation experience?</t>
+          <t>Day Plan:
+Morning: Visit Mosquee Fadhloun Djerba Midoun, a historically significant mosque known for its architectural beauty and role as a tourist attraction.
+Mid-Morning: Explore Djerba Explore Park, a theme park featuring a crocodile farm, a museum, and recreations of traditional Tunisian structures like a house, mill, and pottery workshop.
+Midday: Have lunch at Restaurant Rayhana, a 4.4-rated Tunisian restaurant offering couscous, fish, and other Tunisian specialties in a lively atmosphere with music.
+Afternoon: Enjoy some downtime and relaxation at Les Jardins de Toumana, a 4-star hotel with a private beach, swimming pool, and a restaurant serving delicious local and international cuisine.
+Evening: Take a stroll through Souk Midoun, a traditional market offering various products like spices, souvenirs, textiles, and handicrafts, and soak up the lively atmosphere and colorful stalls.
+Night: Head to DOMINO'S PUB, a 4.8-rated bar lounge, for a drink or snack and enjoy the friendly ambiance and great atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bouchnak is a cafe located in Midoun, Djerba Midun, Tunisia. It is open from 06:00-00:00 and closed on Sundays. Cafe Bouchnak has a rating of 4.6 out of 5 stars on Google and is known for its great coffee and friendly staff.
+Dar Amphora Menzel, located in Midoun (33.8815674, 10.8566779), is a highly-rated guest house with a 4.6 rating. Run by Dar Amphora Menzel (owner), it offers a serene stay with its cozy accommodations and attentive service. This guesthouse is your go-to destination for those seeking a haven amidst the heart of midoun.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+Iberostar Mehari Djerba is a 4.7 stars hotel located in midoun, Tunisia. The hotel offers a wide range of services and amenities to its guests, including an outdoor pool, a spa, a fitness center, and a kids' club. The hotel is also conveniently located near the beach, making it a great choice for those who want to enjoy some sun and sand during their stay.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Nestled in the heart of Midoun, "Fast Food Sami" is a local culinary gem. Offering delicious meals, this restaurant has earned an impressive 4.8 rating from satisfied customers. Its convenient location on RX5V+V8H makes it easy to find. Open daily from 8 am to 11 pm, Fast Food Sami caters to both early risers and late-night cravings. With its inviting ambiance and friendly service, it's an excellent choice for a casual dining experience.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2198,12 +2963,65 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a top-rated Maison d'hotes, check out Dar El Kebir located at Route touristique, Midoun Djerba 4116. This place is perfect for Maison d'hotes lovers and offers a range of categories to choose from. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 33.8099042, 10.9723646. For more details, visit their website at http://www.darelkebir.com/ or call them at 25 442 214.</t>
+          <t>Dar El Kebir is a 4.8-rated guest house located in Midoun, Djerba. It offers 6 rooms, a swimming pool, a terrace, and a garden. The guest house is located close to the beach and offers a variety of activities, such as swimming, fishing, and hiking.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Maison d'hotes with a rating of 4.8 in Midoun, offering a variety of categories to choose from?</t>
+          <t>Day Plan:
+Morning: Exploring Djerba Explore Park, home to a crocodile farm, museum, and recreations of traditional Tunisian structures.
+Mid-Morning: Trying local cuisine at Restaurant Rayhana, known for its couscous and other Tunisian specialties.
+Midday: Visiting the historic Mosquee Fadhloun Djerba Midoun to appreciate its architectural beauty and cultural significance.
+Afternoon: Enjoying recreational activities at Djerba Golf Club, including the stunning golf course and picturesque sea views.
+Evening: Relaxing with a spa treatment at Les Jardins de Toumana, offering a luxurious and rejuvenating atmosphere.
+Night: Experiencing a lively ambiance at DOMINO'S PUB, featuring a great selection of drinks and snacks, and enjoying the friendly atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe La Jeunesse is a well-rated (4.4/5) cafe located at (33.80813, 10.99228) in Midoun, offering a variety of services, including cafe services.
+Dar Amphora Menzel is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 33.8815674, 10.8566779). It offers a serene retreat with 12 cozy rooms and features amenities such as a swimming pool and a traditional hammam (steam bath). The guesthouse is conveniently situated near various attractions and offers easy access to the city's vibrant culture and stunning natural surroundings.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+Iberostar Mehari Djerba is a 4.7 stars hotel located in midoun, Tunisia. The hotel offers a wide range of services and amenities to its guests, including an outdoor pool, a spa, a fitness center, and a kids' club. The hotel is also conveniently located near the beach, making it a great choice for those who want to enjoy some sun and sand during their stay.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+Nestled in the heart of Midoun, "Fast Food Sami" is a local culinary gem. Offering delicious meals, this restaurant has earned an impressive 4.8 rating from satisfied customers. Its convenient location on RX5V+V8H makes it easy to find. Open daily from 8 am to 11 pm, Fast Food Sami caters to both early risers and late-night cravings. With its inviting ambiance and friendly service, it's an excellent choice for a casual dining experience.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2301,14 +3119,70 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for somewhere to stay, check out Calimer Yati Beach located at Calimer Yati Beach, 4116 Midoun, Djerba Midun. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Calimer+Yati+Beach/data=!4m10!3m9!1s0x13aa97688f83a98f:0xa4c7489af5e88b16!5m2!4m1!1i2!8m2!3d33.8075016!4d10.9933951!16s%2Fg%2F11h5s3_swk!19sChIJj6mDj2iXqhMRFovo9ZpIx6Q?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Nestled on the beautiful shores of Midoun, Djerba, Calimer Yati Beach is a 5-star haven offering unforgettable vacations. This luxurious resort boasts a stunning beachfront location, just steps away from the crystal-clear waters. Guests can indulge in a range of amenities, including a private beach, swimming pools, a spa, dining options, and comfortable accommodations. Its convenient location allows for easy access to local attractions and cultural experiences, making it an ideal destination for those seeking relaxation, adventure, and cultural immersion.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated hotel with a 5.0 rating and a range of options for Hotel lovers in the Midoun area?</t>
+          <t>Day Plan:
+Morning: Explore the historic Mosquee Fadhloun Djerba Midoun.
+Mid-Morning: Discover the local culture at the Djerba Explore Park.
+Midday: Indulge in a delicious seafood lunch at Le Petit Navire Restaurant Poissonnerie.
+Afternoon: Spend the afternoon relaxing on the private beach at the luxurious Club Med Djerba.
+Evening: Relish a traditional Tunisian dinner at the highly-rated Restaurant Rayhana.
+Night: Head to DOMINO'S PUB in Midoun for a lively evening.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Twist Cafe" is a highly-rated 24-hour cafe located at Twist cafe, Midoun, Djerba Midun (33.80813, 10.99228), offering a cozy ambiance and a menu that caters to various tastes. Its 5.0 rating, based on numerous positive customer reviews, speaks volumes about the cafe's exceptional quality and service. Whether you're looking for a relaxing cup of coffee or a delightful meal, "Twist Cafe" is a must-visit destination for those seeking a delightful culinary experience.
+Dar Amphora Menzel is a charming guesthouse located in Midoun on the island of Djerba in Tunisia. It is rated 4.6 stars and offers a memorable stay for its guests. With 12 reviews, it is a popular choice for travelers seeking a comfortable and authentic experience.
+Nestled in the heart of Midoun, Djerba Midun, Midounia offers charming bed and breakfast accommodations with a 5-star rating. Situated at coordinates (33.80813, 10.99228), this establishment boasts a prime location, making it an ideal base for exploring the city and its surroundings.
+Sentido Djerba Beach is a four-star hotel located on the beachfront in Midoun, Tunisia (coordinates: 48.4720605, 14.0440465). The hotel offers a private beach, multiple restaurants and bars, swimming pools, and a spa. Guest rooms are described as simple and comfortable. Over 1,400 reviews give the hotel an average rating of 4.2 out of 5. The hotel is particularly praised for its animation, beach chairs, service, and all-inclusive options.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, on the island of Djerba, in Tunisia. The park features a crocodile farm, with various species of crocodiles, turtles, and iguanas, as well as a museum and recreations of a traditional house, mill, and pottery workshop. The park also offers other attractions such as a gift shop, restaurant, and opportunities to interact with camels. It has received positive reviews from visitors, with an average rating of 4.6 out of 5. The park is located at coordinates 33.80813, 10.99228 with phone number 75 745 277.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+Le Petit Navire Restaurant Poissonnerie is located in Midoun, Djerba Midun. It offers a wide range of seafood dishes and has a 4.1-star rating on Google. The restaurant is open daily except Tuesdays and has a friendly atmosphere with good service. The average price is in the middle range. The most popular dishes include: 
+- Fruits de mer (13 reviews)
+- Pates (4 reviews)
+- Gargoulette (3 reviews)
+- Poulpe (4 reviews)
+- Service (4 reviews)
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2410,14 +3284,65 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Dar Amphora Menzel located at Dar Amphora Menzel, Bp 31, Midoun 4190. 
-This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes to choose from. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 33.8815674, 10.8566779. For more details, call them at 21 488 464.</t>
+          <t>Dar Amphora Menzel is a guest house located in Midoun, Tunisia, offering a 4.6-star experience. It features a convenient location at Dar Amphora Menzel, Bp 31, with coordinates (33.8815674, 10.8566779). The guest house's main category is listed as "Maison d'hotes," indicating its focus on providing a comfortable and welcoming stay for guests.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination with a 4.6 rating, perfect for Maison d'hotes enthusiasts, in the Midoun area?</t>
+          <t>Day Plan:
+Morning: Explore the historical significance of Mosquee Fadhloun Djerba Midoun.
+Mid-Morning: Engage in outdoor activities like fishing and swimming while enjoying scenic views at Djerba Explore Park.
+Midday: Try local cuisine at Restaurant Rayhana, known for its authentic Tunisian specialties and lively atmosphere.
+Afternoon: Relax and rejuvenate with a spa treatment and enjoy the luxurious amenities at Les Jardins de Toumana.
+Evening: Participate in traditional dance and music performances or enjoy a camel ride at Souk Midoun, a vibrant market known for handicrafts and textiles.
+Night: Experience the energetic and modern atmosphere of DOMINO'S PUB, a lounge bar offering a variety of drinks and snacks.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bouchnak is a cafe located in Midoun, Djerba Midun, Tunisia. It is open from 06:00-00:00 and closed on Sundays. Cafe Bouchnak has a rating of 4.6 out of 5 stars on Google and is known for its great coffee and friendly staff.
+Dar El Kebir is a 4.8-rated guest house located in Midoun, Djerba. It offers 6 rooms, a swimming pool, a terrace, and a garden. The guest house is located close to the beach and offers a variety of activities, such as swimming, fishing, and hiking.
+Maison Leila is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 47.9183293, 13.7994911). It offers relaxed accommodation featuring a swimming pool, a spa, and a restaurant. The guesthouse specializes in providing comfortable and serene stays with suites equipped with kitchenettes. Maison Leila has received positive reviews for its cleanliness, comfort, and value for money, making it a popular choice for travelers seeking a peaceful and convenient getaway.
+Escape to the serene sanctuary of Calimer Yati Beach, a 5-star hotel situated at the heart of Midoun in Djerba Midun. Located at (33.81005, 10.98997), the hotel offers an idyllic beachfront retreat with breathtaking views of the Mediterranean Sea. As one of the top-rated hotels in the area, Calimer Yati Beach boasts exceptional amenities and services that cater to every need.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Restaurant Dar Hedia is a highly-rated restaurant located in Midoun, Tunisia. It specializes in Middle Eastern and Tunisian cuisine, offering both indoor and outdoor seating. The menu features a wide variety of dishes, including grilled meats, couscous, and traditional Tunisian fare. The restaurant is open for lunch and dinner, and is frequented by locals and tourists alike.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2527,16 +3452,65 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Club Med Djerba located at Club Med Djerba, BP 160, Midoun 4116. 
-This top-rated destination is perfect for Complexe hotelier lovers and offers a range of categories to choose from. 
-With a rating of 4.1, it's a must-visit spot. 
-To get there, use these GPS coordinates: 33.8099042, 10.9723646. 
-For more details, visit their website at http://www.clubmed.com/DDOC or call them at 75 750 501.</t>
+          <t>Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where in Midoun can you find a popular Club Med resort that offers a variety of categories and has a high rating?</t>
+          <t>Day Plan:
+Morning: Exploring Djerba Explore Park, featuring crocodile farm and recreated historical structures.
+Mid-Morning: Trying local cuisine at Restaurant Bel-K Algerian Food for authentic Algerian dishes.
+Midday: Visiting Mosquee Fadhloun Djerba Midoun, a historically significant mosque showcasing architectural beauty.
+Afternoon: Enjoying a round of golf at Djerba Golf Club, offering breathtaking sea views and lush surroundings.
+Evening: Exploring Souk Midoun, a traditional market offering spices, souvenirs, and local crafts.
+Night: Participating in a lively evening at DOMINO'S PUB, featuring various drinks and snacks in a warm ambiance.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Virage is a highly-rated cafe located in Midoun, Tunisia, with a convenient location and extended opening hours from 7:00 AM to midnight. Although it lacks a website and phone number, it boasts a 4.3-star rating based on 10 reviews. The cafe's main category is Cafe, showcasing its expertise in coffee and other beverages.
+Dar El Kebir is a 4.8-rated guest house located in Midoun, Djerba. It offers 6 rooms, a swimming pool, a terrace, and a garden. The guest house is located close to the beach and offers a variety of activities, such as swimming, fishing, and hiking.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+Discover the unforgettable Welcome Meridiana Djerba, nestled amidst the picturesque landscapes of Midoun, Djerba. This magnificent hotel offers guests a haven of tranquility and comfort with elegantly appointed rooms, a refreshing pool, and a breathtaking beach nearby. Its warm and welcoming atmosphere, complemented by impeccable service and a dedicated entertainment team, ensures a memorable stay for couples and families alike. Embark on an extraordinary vacation where every detail has been meticulously considered for your utmost relaxation and enjoyment.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Restaurant Bel-K Algerian Food is a popular destination in Midoun, Tunisia, with a rating of 4.1 stars from 34 reviews. It serves Algerian cuisine and is known for its chef and affordable prices. The restaurant is located at Place El Bousten en face du Soquagen Midoun and is open daily from 12:00-15:00 and 18:00-23:00, except on Fridays.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2634,12 +3608,65 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Hotel Meridiana located at Hotel Meridiana, Djerba Midoun. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 33.82835, 11.04065. For more details, visit their website at https://www.google.com/maps/place/H%C3%B4tel+Meridiana/data=!4m10!3m9!1s0x13aa976a88ff8fe5:0x20f370b9004edd2b!5m2!4m1!1i2!8m2!3d33.7754717!4d10.9580947!16s%2Fg%2F11c0tb3c80!19sChIJ5Y__iGqXqhMRK91OALlw8yA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>If you are seeking a comfortable and conveniently located hotel in Midoun, look no further than Hotel Meridiana. The hotel has received a 4.2 stars rating with 17 reviews, suggesting that it offers a pleasant stay for its guests. Situated at (33.82835, 11.04065), the hotel is easy to find and accessible. Although detailed information about the hotel's amenities and services is not provided, its location and positive reviews make it a solid option for travelers seeking a comfortable and convenient stay in Midoun.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Hotel destination with a wide selection of options in Midoun?</t>
+          <t>Day Plan:
+Morning: Explore the colorful stalls of Souk Midoun, immerse yourself in the vibrant local culture.
+Mid-Morning: Take a guided tour of Mosque Fadhloun, marvel at its architectural beauty and historical significance.
+Midday: Satisfy your taste buds with a delectable lunch at Restaurant Rayhana, savor the authentic flavors of Tunisian cuisine.
+Afternoon: Head to Djerba Explore Park for an exciting afternoon filled with wildlife sightings and recreations of traditional Tunisian dwellings.
+Evening: Indulge in the lively ambiance of DOMINO'S PUB, sip on refreshing beverages, and enjoy the warm hospitality.
+Night: Unwind with a soothing spa treatment at Les Jardins de Toumana, rejuvenate your body and soul in a peaceful setting.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Riadh is a cafe situated in the heart of midoun, Tunisia. The cafe is a popular spot for locals and tourists alike, and offers a variety of coffee and tea drinks, as well as a selection of snacks. The cafe is located at 33.80813, 10.99228.
+Dar El Kebir is a 4.8-rated guest house located in Midoun, Djerba. It offers 6 rooms, a swimming pool, a terrace, and a garden. The guest house is located close to the beach and offers a variety of activities, such as swimming, fishing, and hiking.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+Sentido Djerba Beach is a four-star hotel located on the beachfront in Midoun, Tunisia (coordinates: 48.4720605, 14.0440465). The hotel offers a private beach, multiple restaurants and bars, swimming pools, and a spa. Guest rooms are described as simple and comfortable. Over 1,400 reviews give the hotel an average rating of 4.2 out of 5. The hotel is particularly praised for its animation, beach chairs, service, and all-inclusive options.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+Restaurant Darkom is a restaurant located at (33.80813, 10.99228) in Midoun, Tunisia. The restaurant is highly rated, with a rating of 4.6 out of 5, and has received positive reviews for its value and customer service.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2741,12 +3768,65 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you find yourself in midoun seeking a unique experience, make sure to visit Midounia located at RX5V+292 Midounia, Midoun. This highly-rated destination is known for its excellent Chambre d'hotes services and offers a 5.0 rating based on 4 reviews. To contact them, feel free to call 54 626 382. For more details, visit their website https://www.google.com/maps/place/Midounia/data=!4m10!3m9!1s0x13aa97c53d466fc5:0xb1c9ef885d295221!5m2!4m1!1i2!8m2!3d33.8075016!4d10.9933951!16s%2Fg%2F11fd423671!19sChIJxW9GPcWXqhMRIVIpXYjvybE?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Nestled in the heart of Midoun, Djerba Midun, Midounia offers charming bed and breakfast accommodations with a 5-star rating. Situated at coordinates (33.80813, 10.99228), this establishment boasts a prime location, making it an ideal base for exploring the city and its surroundings.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Which highly-rated destination in Midoun offers unique Chambre d'hotes services?</t>
+          <t>Day Plan:
+Morning: Explore the Djerba Explore Park, home to a fascinating crocodile farm and recreations of traditional Tunisian architecture and crafts.
+Mid-Morning: Try local cuisine at Bach Hamba, a cozy restaurant offering a variety of traditional dishes like couscous, pasta, and slata mechouia.
+Midday: Visit Mosquee Fadhloun Djerba Midoun, a stunning mosque renowned for its architectural beauty and historical significance.
+Afternoon: Enjoy scenic views at Dar Lagune Djerba, a highly-rated accommodation known for its exceptional dining options and inviting pool, situated close to the sea.
+Evening: Participate in the vibrant atmosphere of Souk Midoun, a lively traditional market offering a wide range of products and souvenirs.
+Night: Experience cultural immersion at DOMIN'O'S PUB, a 4.8-rated bar lounge with a friendly atmosphere and a variety of drinks and snacks.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Moods Coffee Shop is a highly-rated café located in Midoun, Djerba Midun. Open from 4:30am to 11pm, it is renowned for its coffee and service, with reviews praising its cozy atmosphere. Located at (33.80813, 10.99228), Moods Coffee Shop is easily accessible and offers a welcoming space for locals and tourists alike.
+Dar Amphora Menzel is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 33.8815674, 10.8566779). It offers a serene retreat with 12 cozy rooms and features amenities such as a swimming pool and a traditional hammam (steam bath). The guesthouse is conveniently situated near various attractions and offers easy access to the city's vibrant culture and stunning natural surroundings.
+Maison Leila is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 47.9183293, 13.7994911). It offers relaxed accommodation featuring a swimming pool, a spa, and a restaurant. The guesthouse specializes in providing comfortable and serene stays with suites equipped with kitchenettes. Maison Leila has received positive reviews for its cleanliness, comfort, and value for money, making it a popular choice for travelers seeking a peaceful and convenient getaway.
+Nestled in the heart of the tourist area of midoun, Tunisia, Vincci Dar Midoun is a 4-star hotel that offers an unforgettable stay to its guests. This luxurious hotel boasts 500 beautifully appointed rooms and suites, each equipped with modern amenities and stunning views of the surrounding landscape. Vincci Dar Midoun offers a wide range of services and facilities, including a restaurant and bar, a swimming pool and a fitness center. The hotel also offers a variety of activities, such as animation and entertainment programs, to keep guests entertained during their stay. With its convenient location and exceptional service, Vincci Dar Midoun is the perfect place to stay for both business and leisure travelers alike.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, on the island of Djerba, in Tunisia. The park features a crocodile farm, with various species of crocodiles, turtles, and iguanas, as well as a museum and recreations of a traditional house, mill, and pottery workshop. The park also offers other attractions such as a gift shop, restaurant, and opportunities to interact with camels. It has received positive reviews from visitors, with an average rating of 4.6 out of 5. The park is located at coordinates 33.80813, 10.99228 with phone number 75 745 277.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Bach Hamba is a popular restaurant located in the tourist area of Midoun Djerba, Avenue de la liberte. It offers a wide variety of dishes, including couscous, pasta, fish, and slata mechouia. The restaurant has a cozy atmosphere and friendly service. It is open from 12:00 pm to 12:00 am and closed on Sundays. Bach Hamba is a great place to enjoy a meal with friends or family.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2844,12 +3924,71 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a top-rated hotel, check out Calimer Yati Beach located at Calimer Yati Beach, 4116 Midoun, Djerba Midun. This 5.0-rated destination is perfect for Hotel lovers. To get there, use these GPS coordinates: 33.81005, 10.98997. For more details, visit their website at https://www.google.com/maps/place/Calimer+Yati+Beach/data=!4m10!3m9!1s0x13aa97688f83a98f:0xa4c7489af5e88b16!5m2!4m1!1i2!8m2!3d33.8075016!4d10.9933951!16s%2Fg%2F11h5s3_swk!19sChIJj6mDj2iXqhMRFovo9ZpIx6Q?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Escape to the serene sanctuary of Calimer Yati Beach, a 5-star hotel situated at the heart of Midoun in Djerba Midun. Located at (33.81005, 10.98997), the hotel offers an idyllic beachfront retreat with breathtaking views of the Mediterranean Sea. As one of the top-rated hotels in the area, Calimer Yati Beach boasts exceptional amenities and services that cater to every need.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated hotel in Midoun with GPS coordinates 33.81005, 10.98997 that offers a perfect retreat for hotel enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historical Mosquee Fadhloun Djerba Midoun, admiring its architectural beauty.
+**Mid-Morning:**
+* Dive into the richness of Tunisian culture at the Djerba Explore Park, encountering exotic wildlife and experiencing traditional crafts.
+**Midday:**
+* Savor authentic Algerian cuisine at Restaurant Bel-K Algerian Food, known for its delicious dishes and chef.
+**Afternoon:**
+* Indulge in a rejuvenating spa experience at Les Jardins de Toumana, pampering yourself with luxurious treatments.
+**Evening:**
+* Explore the vibrant Souk Midoun, immersing yourself in the local atmosphere while shopping for souvenirs and handicrafts.
+**Night:**
+* Experience the pulsating nightlife at Disco salsa djerba, dancing to the rhythm of Djerban music and enjoying its modern amenities.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Daily Dose Coffe is a coffee shop located in midoun at the coordinates (33.8099042, 10.9723646). The coffee shop is open from 7:00 AM to 11:00 PM and it offers a wide variety of coffees, teas, and pastries. The coffee shop also has a friendly staff and a cozy atmosphere, making it a great place to relax and enjoy a cup of coffee.
+Dar Amphora Menzel is a charming guesthouse located in Midoun on the island of Djerba in Tunisia. It is rated 4.6 stars and offers a memorable stay for its guests. With 12 reviews, it is a popular choice for travelers seeking a comfortable and authentic experience.
+Nestled in the heart of Midoun, Djerba Midun, Midounia offers charming bed and breakfast accommodations with a 5-star rating. Situated at coordinates (33.80813, 10.99228), this establishment boasts a prime location, making it an ideal base for exploring the city and its surroundings.
+Discover the unforgettable Welcome Meridiana Djerba, nestled amidst the picturesque landscapes of Midoun, Djerba. This magnificent hotel offers guests a haven of tranquility and comfort with elegantly appointed rooms, a refreshing pool, and a breathtaking beach nearby. Its warm and welcoming atmosphere, complemented by impeccable service and a dedicated entertainment team, ensures a memorable stay for couples and families alike. Embark on an extraordinary vacation where every detail has been meticulously considered for your utmost relaxation and enjoyment.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, on the island of Djerba, in Tunisia. The park features a crocodile farm, with various species of crocodiles, turtles, and iguanas, as well as a museum and recreations of a traditional house, mill, and pottery workshop. The park also offers other attractions such as a gift shop, restaurant, and opportunities to interact with camels. It has received positive reviews from visitors, with an average rating of 4.6 out of 5. The park is located at coordinates 33.80813, 10.99228 with phone number 75 745 277.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Restaurant Bel-K Algerian Food is a popular destination in Midoun, Tunisia, with a rating of 4.1 stars from 34 reviews. It serves Algerian cuisine and is known for its chef and affordable prices. The restaurant is located at Place El Bousten en face du Soquagen Midoun and is open daily from 12:00-15:00 and 18:00-23:00, except on Fridays.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2951,12 +4090,65 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a top-rated Maison d'hotes, check out Dar Amphora Menzel located at Dar Amphora Menzel, Bp 31, Midoun 4190. This destination is perfect for Maison d'hotes lovers and offers a rating of 4.6 making it a must-visit spot. You can reach them at 21 488 464 for more details or visit their website at https://www.google.com/maps/place/Dar+Amphora+Menzel/data=!4m10!3m9!1s0x13aa98022b4917dd:0xc161007de2542ab!5m2!4m1!1i2!8m2!3d33.8416313!4d10.9871218!16s%2Fg%2F1tk0svtb!19sChIJ3RdJKwKYqhMRq0Il3gcQFgw?authuser=0&amp;hl=fr&amp;rclk=1 to get more details.</t>
+          <t>Dar Amphora Menzel is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 33.8815674, 10.8566779). It offers a serene retreat with 12 cozy rooms and features amenities such as a swimming pool and a traditional hammam (steam bath). The guesthouse is conveniently situated near various attractions and offers easy access to the city's vibrant culture and stunning natural surroundings.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Maison d'hotes in Midoun with a rating of 4.6?</t>
+          <t>Day Plan:
+Morning: Explore Djerba Explore Park to learn about Tunisian heritage and wildlife.
+Mid-Morning: Visit Mosquee Fadhloun Djerba Midoun to admire its architectural beauty.
+Midday: Enjoy a traditional Tunisian lunch at Restaurant Rayhana, savoring local specialties.
+Afternoon: Relax at Les Jardins de Toumana, indulging in a rejuvenating spa treatment.
+Evening: Participate in a lively dance session at Disco salsa djerba, immersing yourself in the local nightlife.
+Night: Dine at Restaurant Lella Hadhria, enjoying seafood and stunning lagoon views while listening to traditional music.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Djerba Midoun is located in Tunisia, in the city of Midoun. This cafe has a rating of 4.8 stars.
+Dar Amphora Menzel is a charming guest house located in Midoun, Tunisia, offering a tranquil retreat for travelers. Situated near the stunning beaches of Djerba, the guest house boasts a prime location with easy access to the island's attractions. With its cozy accommodations, warm hospitality, and convenient amenities, Dar Amphora Menzel is an ideal base for exploring the wonders of Djerba and enjoying a relaxing and memorable stay.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+fndq 'ldyn 4 is a 4.5-rated all-inclusive resort located in Midoun, Djerba. It features simple restaurants, bars, an outdoor pool, and water sports. The resort is known for its lively atmosphere, friendly staff, and a wide range of entertainment options, including live shows, sports activities, and a nightclub. The resort is conveniently located near the beach and offers stunning views of the Mediterranean Sea.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, Tunisia (33.808130, 10.992280). It offers a unique blend of entertainment and education, featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture, including a house, a mill, and a pottery workshop. The park also boasts a diverse collection of animals, including reptiles, turtles, and iguanas. With its focus on heritage and nature, Djerba Explore Park is a popular destination for families and nature enthusiasts alike.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Restaurant Lella Hadhria is a highly-rated restaurant located in Midoun, Tunisia. It offers a wide range of dishes, including seafood, lamb, and vegetarian options. The restaurant is known for its beautiful views of the lagoon and its friendly service. It is located at (48.4720605, 14.0440465) and is open from 12:00 PM to 11:00 PM daily.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3058,14 +4250,65 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a unique place to stay, check out Dar Amphora Menzel located at Dar Amphora Menzel, Bp 31, Midoun 4190. 
-This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 33.8815674, 10.8566779. For more details, visit their website at nan or call them at 21 488 464.</t>
+          <t>Dar Amphora Menzel is a charming guesthouse located in Midoun on the island of Djerba in Tunisia. It is rated 4.6 stars and offers a memorable stay for its guests. With 12 reviews, it is a popular choice for travelers seeking a comfortable and authentic experience.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where in Midoun can you find a remarkable Maison d'hotes experience with a 4.6 rating, offering a unique ambiance and a variety of options?</t>
+          <t>Day Plan:
+Morning: Explore Souk Midoun, a traditional market offering local products and handicrafts.
+Mid-Morning: Visit Mosquee Fadhloun Djerba Midoun, a historically significant mosque with architectural beauty.
+Midday: Try local cuisine at Restaurant Darkom, highly rated for its value and customer service.
+Afternoon: Enjoy the serene environment at Les Jardins de Toumana, an exclusive hotel with a luxurious atmosphere and private beach.
+Evening: Participate in a guided tour of Djerba Explore Park, offering a unique blend of history, culture, and wildlife.
+Night: Head to DOMINO'S PUB for a lively nightlife experience with a wide selection of beverages and snacks.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe La Jeunesse is a well-rated (4.4/5) cafe located at (33.80813, 10.99228) in Midoun, offering a variety of services, including cafe services.
+Dar Amphora Menzel is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 33.8815674, 10.8566779). It offers a serene retreat with 12 cozy rooms and features amenities such as a swimming pool and a traditional hammam (steam bath). The guesthouse is conveniently situated near various attractions and offers easy access to the city's vibrant culture and stunning natural surroundings.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+Seabel Rym Beach Djerba is a welcoming seaside hotel in Midoun. It features bright rooms, two restaurants, a spa, an indoor pool, and outdoor swimming pools. With 4.4/5 stars and over 2600 reviews, it's a popular choice. Located at (33.82753, 11.04639), it's close to many attractions.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Restaurant Darkom is a restaurant located at (33.80813, 10.99228) in Midoun, Tunisia. The restaurant is highly rated, with a rating of 4.6 out of 5, and has received positive reviews for its value and customer service.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3167,12 +4410,65 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Dar Amphora Menzel located at Dar Amphora Menzel, Bp 31, Midoun 4190. This top-rated destination is perfect for Maison d'hotes lovers. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 33.8815674, 10.8566779. For more details, visit their website at https://www.google.com/maps/place/Dar+Amphora+Menzel/data=!4m10!3m9!1s0x13aa98022b4917dd:0xc161007de2542ab!5m2!4m1!1i2!8m2!3d33.8416313!4d10.9871218!16s%2Fg%2F1tk0svtb!19sChIJ3RdJKwKYqhMRq0Il3gcQFgw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 488 464.</t>
+          <t>Dar Amphora Menzel is a charming guest house located in Midoun, Tunisia, offering a tranquil retreat for travelers. Situated near the stunning beaches of Djerba, the guest house boasts a prime location with easy access to the island's attractions. With its cozy accommodations, warm hospitality, and convenient amenities, Dar Amphora Menzel is an ideal base for exploring the wonders of Djerba and enjoying a relaxing and memorable stay.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where can you find a 4.6-rated Maison d'hotes destination in Midoun, accessible at specific GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Begin the day by exploring the traditional market, Souk Midoun, where you can immerse yourself in the vibrant atmosphere and shop for local products.
+Mid-Morning: Visit Djerba Explore Park to learn about Tunisian heritage and wildlife. Explore the crocodile farm, museum, and traditional Tunisian architecture.
+Midday: Indulge in a delightful lunch at Restaurant Rayhana, known for its authentic Tunisian cuisine and warm ambiance.
+Afternoon: Relax and rejuvenate at the luxurious Calimer Yati Beach, enjoying the stunning beachfront views and engaging in water activities.
+Evening: Enhance your cultural experience by visiting the historically significant Mosquee Fadhloun Djerba Midoun, admiring its architectural beauty.
+Night: Experience the lively atmosphere of DOMINO'S PUB, a 4.8-rated bar lounge, where you can unwind with a drink and enjoy the friendly vibe.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Daily Dose Coffe is a coffee shop located in midoun at the coordinates (33.8099042, 10.9723646). The coffee shop is open from 7:00 AM to 11:00 PM and it offers a wide variety of coffees, teas, and pastries. The coffee shop also has a friendly staff and a cozy atmosphere, making it a great place to relax and enjoy a cup of coffee.
+Dar Amphora Menzel is a charming guesthouse located in Midoun on the island of Djerba in Tunisia. It is rated 4.6 stars and offers a memorable stay for its guests. With 12 reviews, it is a popular choice for travelers seeking a comfortable and authentic experience.
+Nestled in the heart of Midoun, Djerba Midun, Midounia offers charming bed and breakfast accommodations with a 5-star rating. Situated at coordinates (33.80813, 10.99228), this establishment boasts a prime location, making it an ideal base for exploring the city and its surroundings.
+Escape to the serene sanctuary of Calimer Yati Beach, a 5-star hotel situated at the heart of Midoun in Djerba Midun. Located at (33.81005, 10.98997), the hotel offers an idyllic beachfront retreat with breathtaking views of the Mediterranean Sea. As one of the top-rated hotels in the area, Calimer Yati Beach boasts exceptional amenities and services that cater to every need.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, Tunisia (33.808130, 10.992280). It offers a unique blend of entertainment and education, featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture, including a house, a mill, and a pottery workshop. The park also boasts a diverse collection of animals, including reptiles, turtles, and iguanas. With its focus on heritage and nature, Djerba Explore Park is a popular destination for families and nature enthusiasts alike.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Nestled in the heart of Midoun, "Fast Food Sami" is a local culinary gem. Offering delicious meals, this restaurant has earned an impressive 4.8 rating from satisfied customers. Its convenient location on RX5V+V8H makes it easy to find. Open daily from 8 am to 11 pm, Fast Food Sami caters to both early risers and late-night cravings. With its inviting ambiance and friendly service, it's an excellent choice for a casual dining experience.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3278,12 +4574,65 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a relaxing getaway, check out Iberostar Mehari Djerba located at Route Touristique Midoun Djerba, Djerba 4116. This top-rated hotel is perfect for vacationers and offers a range of amenities and activities to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 33.8099042, 10.9723646. For more details, visit their website at https://www.iberostar.com/en/hotels/djerba/iberostar-mehari-djerba/%3Futm_source%3Dgoogle%26utm_medium%3Dorganic%26utm_campaign%3DIBSVOL_EMEA_SEOLOC_GMB_NA_EN_ESP_PENAND_MLG_MAP_PULL_NA_NA_NA_NA_NA or call them at 75 745 240.</t>
+          <t>Iberostar Mehari Djerba is a 4.7 stars hotel located in midoun, Tunisia. The hotel offers a wide range of services and amenities to its guests, including an outdoor pool, a spa, a fitness center, and a kids' club. The hotel is also conveniently located near the beach, making it a great choice for those who want to enjoy some sun and sand during their stay.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where can you escape to a relaxing oasis with top-rated amenities in the Midoun area of Djerba?</t>
+          <t>Day Plan:
+Morning: Exploring Dar Amphora Menzel, a 4.6-rated guesthouse in Midoun, Tunisia with a serene atmosphere and amenities like a swimming pool and traditional hammam.
+Mid-Morning: Trying local cuisine at Restaurant Rayhana, a 4.4-rated Tunisian restaurant serving couscous, fish, and other Tunisian specialties.
+Midday: Visiting Mosquee Fadhloun Djerba Midoun, a historically significant mosque known for its architectural beauty and role as a tourist attraction.
+Afternoon: Enjoying outdoor activities at Djerba Explore Park, a theme park with a crocodile farm, museum, and recreations of a house, mill, and pottery workshop.
+Evening: Shopping at Souk Midoun, a traditional market offering a variety of products including spices, souvenirs, textiles, and handicrafts.
+Night: Participating in an event or activity at DOMINO'S PUB, a 4.8-rated bar lounge with a friendly atmosphere and great drinks and snacks.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Daily Dose Coffe is a coffee shop located in midoun at the coordinates (33.8099042, 10.9723646). The coffee shop is open from 7:00 AM to 11:00 PM and it offers a wide variety of coffees, teas, and pastries. The coffee shop also has a friendly staff and a cozy atmosphere, making it a great place to relax and enjoy a cup of coffee.
+Dar Amphora Menzel is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 33.8815674, 10.8566779). It offers a serene retreat with 12 cozy rooms and features amenities such as a swimming pool and a traditional hammam (steam bath). The guesthouse is conveniently situated near various attractions and offers easy access to the city's vibrant culture and stunning natural surroundings.
+Nestled in the heart of Midoun, Djerba Midun, Midounia offers charming bed and breakfast accommodations with a 5-star rating. Situated at coordinates (33.80813, 10.99228), this establishment boasts a prime location, making it an ideal base for exploring the city and its surroundings.
+If you are seeking a comfortable and conveniently located hotel in Midoun, look no further than Hotel Meridiana. The hotel has received a 4.2 stars rating with 17 reviews, suggesting that it offers a pleasant stay for its guests. Situated at (33.82835, 11.04065), the hotel is easy to find and accessible. Although detailed information about the hotel's amenities and services is not provided, its location and positive reviews make it a solid option for travelers seeking a comfortable and convenient stay in Midoun.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Restaurant Bel-K Algerian Food is a popular destination in Midoun, Tunisia, with a rating of 4.1 stars from 34 reviews. It serves Algerian cuisine and is known for its chef and affordable prices. The restaurant is located at Place El Bousten en face du Soquagen Midoun and is open daily from 12:00-15:00 and 18:00-23:00, except on Fridays.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3393,14 +4742,65 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a restful stay, check out Seabel Rym Beach Djerba located at Seabel Rym Beach Djerba, BP 155, Midoun, Djerba Midun 4116. 
-This top-rated Hotel is perfect for travelers and offers a range of amenities to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 33.82753, 11.04639. For more details, visit their website at https://www.seabelhotels.com/fr/seabel-rym-beach/accueil/ or call them at 75 745 614.</t>
+          <t>Seabel Rym Beach Djerba is a welcoming seaside hotel in Midoun. It features bright rooms, two restaurants, a spa, an indoor pool, and outdoor swimming pools. With 4.4/5 stars and over 2600 reviews, it's a popular choice. Located at (33.82753, 11.04639), it's close to many attractions.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated (4.4) and restful stay in Midoun, with amenities and a unique ambiance?</t>
+          <t>Day Plan:
+Morning: Explore Djerba Explore Park, a blend of entertainment and education featuring a crocodile farm, museum, and recreations of traditional Tunisian architecture.
+Mid-Morning: Visit Mosquee Fadhloun Djerba Midoun, a historically significant mosque known for its architectural beauty and role as a tourist attraction.
+Midday: Try local cuisine at Bach Hamba, a popular restaurant offering a wide variety of dishes in a cozy atmosphere with friendly service.
+Afternoon: Enjoy recreational activities at Calimer Yati Beach, a 5-star haven offering a private beach, swimming pools, a spa, and more.
+Evening: Shop for souvenirs and local products at Souk Midoun, a traditional market known for its lively atmosphere and colorful stalls.
+Night: Experience cultural immersion at Dar Lagune Djerba, a highly-rated accommodation offering an exceptional dining experience and close proximity to the sea.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Djerba Midoun is located in Tunisia, in the city of Midoun. This cafe has a rating of 4.8 stars.
+Dar Amphora Menzel is a guest house located in Midoun, Tunisia, offering a 4.6-star experience. It features a convenient location at Dar Amphora Menzel, Bp 31, with coordinates (33.8815674, 10.8566779). The guest house's main category is listed as "Maison d'hotes," indicating its focus on providing a comfortable and welcoming stay for guests.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+Nestled on the beautiful shores of Midoun, Djerba, Calimer Yati Beach is a 5-star haven offering unforgettable vacations. This luxurious resort boasts a stunning beachfront location, just steps away from the crystal-clear waters. Guests can indulge in a range of amenities, including a private beach, swimming pools, a spa, dining options, and comfortable accommodations. Its convenient location allows for easy access to local attractions and cultural experiences, making it an ideal destination for those seeking relaxation, adventure, and cultural immersion.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, Tunisia (33.808130, 10.992280). It offers a unique blend of entertainment and education, featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture, including a house, a mill, and a pottery workshop. The park also boasts a diverse collection of animals, including reptiles, turtles, and iguanas. With its focus on heritage and nature, Djerba Explore Park is a popular destination for families and nature enthusiasts alike.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Bach Hamba is a popular restaurant located in the tourist area of Midoun Djerba, Avenue de la liberte. It offers a wide variety of dishes, including couscous, pasta, fish, and slata mechouia. The restaurant has a cozy atmosphere and friendly service. It is open from 12:00 pm to 12:00 am and closed on Sundays. Bach Hamba is a great place to enjoy a meal with friends or family.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3510,15 +4910,65 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a place to relax, check out Fiesta Beach Djerba located at Fiesta Beach Djerba, Zone Touristique Midoun Midoun Djerba, 4116. 
-This top-rated destination is perfect for hotel lovers and offers a range of hotel to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: (33.8099042, 10.9723646). For more details, visit their website 
-at https://www.fiesta-beach.com/ or call them at 75 758 009.</t>
+          <t>The Fiesta Beach Djerba is a 4.2-rated all-inclusive hotel in Midoun, Tunisia. Facing a private beach, it offers a relaxed atmosphere with a range of amenities such as a spa, multiple pools, and a kids' club. The hotel has received over 1870 reviews and is highly praised for its animation, entertainment, and friendly staff. The Fiesta Beach Djerba is conveniently located near popular attractions and offers a wide range of activities for guests to enjoy during their stay.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Where in Midoun can you find a highly-rated place to stay with a wide selection of hotels?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Souk Midoun, immersing yourself in the local culture and discovering hidden treasures.
+Mid-Morning: Visit the historical Mosquee Fadhloun Djerba Midoun, marveling at its architectural beauty and learning about its significance.
+Midday: Indulge in authentic Tunisian cuisine at Restaurant Rayhana, savoring the flavors of couscous and other specialties.
+Afternoon: Head to Djerba Explore Park, encountering fascinating crocodiles, reptiles, and turtles in their natural habitat.
+Evening: Relax and rejuvenate with a pampering session at Les Jardins de Toumana's luxurious spa, preparing for an unforgettable evening.
+Night: Experience the lively atmosphere of DOMINO'S PUB, enjoying refreshing drinks and snacks while mingling with locals and fellow travelers.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Riadh is a cafe situated in the heart of midoun, Tunisia. The cafe is a popular spot for locals and tourists alike, and offers a variety of coffee and tea drinks, as well as a selection of snacks. The cafe is located at 33.80813, 10.99228.
+Dar Amphora Menzel is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 33.8815674, 10.8566779). It offers a serene retreat with 12 cozy rooms and features amenities such as a swimming pool and a traditional hammam (steam bath). The guesthouse is conveniently situated near various attractions and offers easy access to the city's vibrant culture and stunning natural surroundings.
+Maison Leila is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 47.9183293, 13.7994911). It offers relaxed accommodation featuring a swimming pool, a spa, and a restaurant. The guesthouse specializes in providing comfortable and serene stays with suites equipped with kitchenettes. Maison Leila has received positive reviews for its cleanliness, comfort, and value for money, making it a popular choice for travelers seeking a peaceful and convenient getaway.
+Sentido Djerba Beach is a four-star hotel located on the beachfront in Midoun, Tunisia (coordinates: 48.4720605, 14.0440465). The hotel offers a private beach, multiple restaurants and bars, swimming pools, and a spa. Guest rooms are described as simple and comfortable. Over 1,400 reviews give the hotel an average rating of 4.2 out of 5. The hotel is particularly praised for its animation, beach chairs, service, and all-inclusive options.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+Restaurant Lella Hadhria is a highly-rated restaurant located in Midoun, Tunisia. It offers a wide range of dishes, including seafood, lamb, and vegetarian options. The restaurant is known for its beautiful views of the lagoon and its friendly service. It is located at (48.4720605, 14.0440465) and is open from 12:00 PM to 11:00 PM daily.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3628,12 +5078,65 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a luxurious stay, check out Sentido Djerba Beach located at Sentido Djerba Beach, Zone touristique, Midoun 4116. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel services to choose from. With a rating of 4.2, it's a must-visit spot. For more details, visit their website at https://www.ttshotels.com.tn/djerbabeach/  or call them at 75 731 200.</t>
+          <t>Sentido Djerba Beach is a four-star hotel located on the beachfront in Midoun, Tunisia (coordinates: 48.4720605, 14.0440465). The hotel offers a private beach, multiple restaurants and bars, swimming pools, and a spa. Guest rooms are described as simple and comfortable. Over 1,400 reviews give the hotel an average rating of 4.2 out of 5. The hotel is particularly praised for its animation, beach chairs, service, and all-inclusive options.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>For those seeking a luxurious holiday in Midoun, where can you find a highly-rated hotel with exceptional services?</t>
+          <t>Day Plan:
+Morning: Explore Dar Amphora Menzel, a highly-rated guest house in Midoun, to experience serene accommodations and attentive service.
+Mid-Morning: Visit Djerba Explore Park, a unique blend of entertainment and education featuring a crocodile farm, museum, and recreations of traditional Tunisian architecture.
+Midday: Try local cuisine at Restaurant Dar Hedia, specializing in Middle Eastern and Tunisian dishes, offering indoor and outdoor seating.
+Afternoon: Engage in outdoor activities like swimming and sunbathing at Les Jardins de Toumana, a luxurious hotel with exclusive apartments around a splendid pool and a private beach.
+Evening: Visit Souk Midoun, a traditional market in Midoun, offering various products including spices, souvenirs, textiles, and handicrafts, experiencing its lively atmosphere and colorful stalls.
+Night: Enjoy scenic views at Disco salsa djerba, a discotheque located in Midoun, while dancing and socializing.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Daily Dose Coffe is a coffee shop located in midoun at the coordinates (33.8099042, 10.9723646). The coffee shop is open from 7:00 AM to 11:00 PM and it offers a wide variety of coffees, teas, and pastries. The coffee shop also has a friendly staff and a cozy atmosphere, making it a great place to relax and enjoy a cup of coffee.
+Dar Amphora Menzel, located in Midoun (33.8815674, 10.8566779), is a highly-rated guest house with a 4.6 rating. Run by Dar Amphora Menzel (owner), it offers a serene stay with its cozy accommodations and attentive service. This guesthouse is your go-to destination for those seeking a haven amidst the heart of midoun.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+The Fiesta Beach Djerba is a 4.2-rated all-inclusive hotel in Midoun, Tunisia. Facing a private beach, it offers a relaxed atmosphere with a range of amenities such as a spa, multiple pools, and a kids' club. The hotel has received over 1870 reviews and is highly praised for its animation, entertainment, and friendly staff. The Fiesta Beach Djerba is conveniently located near popular attractions and offers a wide range of activities for guests to enjoy during their stay.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, Tunisia (33.808130, 10.992280). It offers a unique blend of entertainment and education, featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture, including a house, a mill, and a pottery workshop. The park also boasts a diverse collection of animals, including reptiles, turtles, and iguanas. With its focus on heritage and nature, Djerba Explore Park is a popular destination for families and nature enthusiasts alike.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+Restaurant Dar Hedia is a highly-rated restaurant located in Midoun, Tunisia. It specializes in Middle Eastern and Tunisian cuisine, offering both indoor and outdoor seating. The menu features a wide variety of dishes, including grilled meats, couscous, and traditional Tunisian fare. The restaurant is open for lunch and dinner, and is frequented by locals and tourists alike.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3739,12 +5242,65 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a great place to stay, check out Vincci Dar Midoun located at BP 243 zone touristique, 4116. This top-rated hotel is perfect for travelers looking for a comfortable and convenient stay. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 48.4720605, 14.0440465. For more details, visit their website at http://www.vinccihoteles.com/ or call them at 70 602 031.</t>
+          <t>Nestled in the heart of the tourist area of midoun, Tunisia, Vincci Dar Midoun is a 4-star hotel that offers an unforgettable stay to its guests. This luxurious hotel boasts 500 beautifully appointed rooms and suites, each equipped with modern amenities and stunning views of the surrounding landscape. Vincci Dar Midoun offers a wide range of services and facilities, including a restaurant and bar, a swimming pool and a fitness center. The hotel also offers a variety of activities, such as animation and entertainment programs, to keep guests entertained during their stay. With its convenient location and exceptional service, Vincci Dar Midoun is the perfect place to stay for both business and leisure travelers alike.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated (4.1) hotel with convenient access in Midoun, offering a comfortable and practical stay for travelers?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Souk Midoun, a traditional market showcasing local products and offering a glimpse into Djerba's bustling culture.
+Mid-Morning: Visit the historical Mosquee Fadhloun Djerba Midoun, known for its architectural beauty and cultural significance. Take a guided tour to learn about its history and admire its intricate details.
+Midday: Satisfy your taste buds with a lunch at Restaurant Rayhana, a highly-rated Tunisian restaurant offering authentic couscous, fish, and other local delicacies.
+Afternoon: Indulge in recreational activities at Djerba Explore Park, an educational theme park featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture.
+Evening: Explore the charming streets of Midoun, visit local shops, and soak in the lively atmosphere of the town center.
+Night: End the day with a relaxing spa treatment at Les Jardins de Toumana, an exclusive hotel with a luxurious spa offering a range of rejuvenating treatments.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of the tourist zone of Midoun, Salon De The Virage is a charming cafe located at the coordinates (33.87576, 10.85745). Open daily from 6 AM to 1 AM, the cafe boasts a cozy ambiance and a menu featuring delectable treats.
+Dar El Kebir is a 4.8-rated guest house located in Midoun, Djerba. It offers 6 rooms, a swimming pool, a terrace, and a garden. The guest house is located close to the beach and offers a variety of activities, such as swimming, fishing, and hiking.
+Nestled in the heart of Midoun, Djerba Midun, Midounia offers charming bed and breakfast accommodations with a 5-star rating. Situated at coordinates (33.80813, 10.99228), this establishment boasts a prime location, making it an ideal base for exploring the city and its surroundings.
+The VINCCI DAR MIDOUN is a 4.3-star hotel located in midoun, Tunisia. The hotel offers a variety of amenities, including a restaurant, bar, swimming pool, and fitness center. The hotel is also conveniently located near the beach and other attractions. The hotel's featured image is a photo of the hotel's swimming pool, which is surrounded by palm trees. The hotel's main category is Hotel, and its categories are Hotel. The hotel's latitude is 33.7660577, and its longitude is 10.9564516. The hotel's website is nan, and its phone number is nan. The hotel's owner is VINCCI DAR MIDOUN (proprietaire).
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, Tunisia (33.808130, 10.992280). It offers a unique blend of entertainment and education, featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture, including a house, a mill, and a pottery workshop. The park also boasts a diverse collection of animals, including reptiles, turtles, and iguanas. With its focus on heritage and nature, Djerba Explore Park is a popular destination for families and nature enthusiasts alike.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+Livraison food djerba is a 5 stars restaurant located in Midoun, Djerba Midun, Tunisia. It is opened 24 hours a day and has the particularity of delivering food at home. Many reviews mention its burgers.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3854,12 +5410,65 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a luxurious stay, check out Les Jardins de Toumana located at Les Jardins de Toumana, Zone Touristique Djerba Midoun Djerba, 4116. This top-rated residence hoteliere is perfect for those seeking a comfortable and stylish accommodation. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 33.8099042, 10.9723646. For more details, visit their website at http://www.toumana.com/ or call them at 75 757 187.</t>
+          <t>Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Where in Djerba can you find a highly-rated luxury accommodation called Les Jardins de Toumana?</t>
+          <t>Day Plan:
+Morning: Exploring the traditional market of Souk Midoun for local spices and handicrafts.
+Mid-Morning: Trying local cuisine at the highly-rated Restaurant Rayhana for authentic Tunisian flavors.
+Midday: Visiting the historically significant Mosquee Fadhloun Djerba Midoun to admire its architectural beauty.
+Afternoon: Enjoying recreational activities and admiring the crocodiles and reptiles at Djerba Explore Park.
+Evening: Relaxing with a beverage at the cozy Moods Coffee Shop, renowned for its inviting atmosphere.
+Night: Dancing the night away at the lively Disco salsa djerba.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Moods Coffee Shop is a highly-rated café located in Midoun, Djerba Midun. Open from 4:30am to 11pm, it is renowned for its coffee and service, with reviews praising its cozy atmosphere. Located at (33.80813, 10.99228), Moods Coffee Shop is easily accessible and offers a welcoming space for locals and tourists alike.
+Dar Amphora Menzel is a charming guesthouse located in Midoun on the island of Djerba in Tunisia. It is rated 4.6 stars and offers a memorable stay for its guests. With 12 reviews, it is a popular choice for travelers seeking a comfortable and authentic experience.
+Nestled in the heart of Midoun, Djerba Midun, Midounia offers charming bed and breakfast accommodations with a 5-star rating. Situated at coordinates (33.80813, 10.99228), this establishment boasts a prime location, making it an ideal base for exploring the city and its surroundings.
+Discover the unforgettable Welcome Meridiana Djerba, nestled amidst the picturesque landscapes of Midoun, Djerba. This magnificent hotel offers guests a haven of tranquility and comfort with elegantly appointed rooms, a refreshing pool, and a breathtaking beach nearby. Its warm and welcoming atmosphere, complemented by impeccable service and a dedicated entertainment team, ensures a memorable stay for couples and families alike. Embark on an extraordinary vacation where every detail has been meticulously considered for your utmost relaxation and enjoyment.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Restaurant Darkom is a restaurant located at (33.80813, 10.99228) in Midoun, Tunisia. The restaurant is highly rated, with a rating of 4.6 out of 5, and has received positive reviews for its value and customer service.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3965,12 +5574,65 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a relaxing stay, check out Maison Leila located at Route Houmt Souk Midoun En Face Moosquee Fadloune Midoun, 4810. This top-rated destination is perfect for Chambre d'hotes lovers and offers a range of categories to choose from, including Chambre d'hotes and Maison d'hotes. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 47.9183293, 13.7994911. For more details, visit their website at (website) or call them at 98 816 330.</t>
+          <t>Maison Leila is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 47.9183293, 13.7994911). It offers relaxed accommodation featuring a swimming pool, a spa, and a restaurant. The guesthouse specializes in providing comfortable and serene stays with suites equipped with kitchenettes. Maison Leila has received positive reviews for its cleanliness, comfort, and value for money, making it a popular choice for travelers seeking a peaceful and convenient getaway.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Where is the top-rated destination in Midoun for relaxation and what type of accommodation is it renowned for?</t>
+          <t>Day Plan:
+Morning: Explore the colorful stalls and vibrant atmosphere of Souk Midoun, a traditional market offering authentic souvenirs and local crafts.
+Mid-Morning: Satisfy your taste buds with a delightful breakfast at Maison Leila, a charming guesthouse renowned for its comfortable ambiance and serene surroundings.
+Midday: Immerse yourself in the history and architectural beauty of Mosquee Fadhloun Djerba Midoun, a significant historical site that attracts visitors with its captivating architecture.
+Afternoon: Head to Djerba Explore Park to encounter a diverse range of wildlife, including crocodiles, turtles, and iguanas, and gain insights into the traditional lifestyle of Djerba's inhabitants.
+Evening: Pamper yourself with a rejuvenating spa treatment at Les Jardins de Toumana, an exclusive hotel that offers a luxurious and relaxing experience, leaving you refreshed and revitalized.
+Night: Experience the lively ambiance and upbeat music at DOMINO'S PUB, a popular bar lounge where you can mingle with locals and enjoy a refreshing drink before retiring for the night.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Riadh is a cafe situated in the heart of midoun, Tunisia. The cafe is a popular spot for locals and tourists alike, and offers a variety of coffee and tea drinks, as well as a selection of snacks. The cafe is located at 33.80813, 10.99228.
+Dar Amphora Menzel is a charming guest house located in Midoun, a city on the island of Djerba in Tunisia. This 4.6-star-rated establishment offers a relaxing stay in a warm and friendly atmosphere. The guest house is conveniently located near the beach and various shops and restaurants, making it an ideal base for exploring the island and enjoying its beautiful scenery.
+Maison Leila is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 47.9183293, 13.7994911). It offers relaxed accommodation featuring a swimming pool, a spa, and a restaurant. The guesthouse specializes in providing comfortable and serene stays with suites equipped with kitchenettes. Maison Leila has received positive reviews for its cleanliness, comfort, and value for money, making it a popular choice for travelers seeking a peaceful and convenient getaway.
+Nestled in the heart of the tourist area of midoun, Tunisia, Vincci Dar Midoun is a 4-star hotel that offers an unforgettable stay to its guests. This luxurious hotel boasts 500 beautifully appointed rooms and suites, each equipped with modern amenities and stunning views of the surrounding landscape. Vincci Dar Midoun offers a wide range of services and facilities, including a restaurant and bar, a swimming pool and a fitness center. The hotel also offers a variety of activities, such as animation and entertainment programs, to keep guests entertained during their stay. With its convenient location and exceptional service, Vincci Dar Midoun is the perfect place to stay for both business and leisure travelers alike.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, on the island of Djerba, in Tunisia. The park features a crocodile farm, with various species of crocodiles, turtles, and iguanas, as well as a museum and recreations of a traditional house, mill, and pottery workshop. The park also offers other attractions such as a gift shop, restaurant, and opportunities to interact with camels. It has received positive reviews from visitors, with an average rating of 4.6 out of 5. The park is located at coordinates 33.80813, 10.99228 with phone number 75 745 277.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+Nestled in the heart of Midoun, "Fast Food Sami" is a local culinary gem. Offering delicious meals, this restaurant has earned an impressive 4.8 rating from satisfied customers. Its convenient location on RX5V+V8H makes it easy to find. Open daily from 8 am to 11 pm, Fast Food Sami caters to both early risers and late-night cravings. With its inviting ambiance and friendly service, it's an excellent choice for a casual dining experience.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4072,12 +5734,65 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a top-rated hotel, check out Welcome Meridiana Djerba. This 4.0-rated destination is perfect for those seeking a relaxing getaway. With 31 reviews praising its friendly staff and comfortable rooms, it's a must-visit spot. To get there, use these GPS coordinates: 33.8767604, 10.8766337. For more details, visit their website at https://www.google.com/maps/place/Welcome+Meridiana+Djerba/data=!4m10!3m9!1s0x13aa9783701087f5:0x5c3fcda232a44df7!5m2!4m1!1i2!8m2!3d33.827097!4d11.021035!16s%2Fg%2F11s3q_c2__!19sChIJ9YcQcIOXqhMR902kMqLNP1w?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 75 746 140.</t>
+          <t>Discover the unforgettable Welcome Meridiana Djerba, nestled amidst the picturesque landscapes of Midoun, Djerba. This magnificent hotel offers guests a haven of tranquility and comfort with elegantly appointed rooms, a refreshing pool, and a breathtaking beach nearby. Its warm and welcoming atmosphere, complemented by impeccable service and a dedicated entertainment team, ensures a memorable stay for couples and families alike. Embark on an extraordinary vacation where every detail has been meticulously considered for your utmost relaxation and enjoyment.</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where in Midoun can you find a highly-rated hotel with excellent customer reviews for its welcoming staff and comfortable accommodations?</t>
+          <t>Day Plan:
+Morning: Exploring the traditional market of Souk Midoun
+Mid-Morning: Trying local cuisine at Restaurant Rayhana
+Midday: Visiting the historical mosque of Mosquee Fadhloun Djerba Midoun
+Afternoon: Relaxing with a spa treatment at Les Jardins de Toumana
+Evening: Enjoying live entertainment at Club Med Djerba
+Night: Dancing the night away at Disco salsa djerba</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Riadh is a cafe situated in the heart of midoun, Tunisia. The cafe is a popular spot for locals and tourists alike, and offers a variety of coffee and tea drinks, as well as a selection of snacks. The cafe is located at 33.80813, 10.99228.
+Dar Amphora Menzel is a guest house located in Midoun, Tunisia, offering a 4.6-star experience. It features a convenient location at Dar Amphora Menzel, Bp 31, with coordinates (33.8815674, 10.8566779). The guest house's main category is listed as "Maison d'hotes," indicating its focus on providing a comfortable and welcoming stay for guests.
+Maison Leila is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 47.9183293, 13.7994911). It offers relaxed accommodation featuring a swimming pool, a spa, and a restaurant. The guesthouse specializes in providing comfortable and serene stays with suites equipped with kitchenettes. Maison Leila has received positive reviews for its cleanliness, comfort, and value for money, making it a popular choice for travelers seeking a peaceful and convenient getaway.
+The VINCCI DAR MIDOUN is a 4.3-star hotel located in midoun, Tunisia. The hotel offers a variety of amenities, including a restaurant, bar, swimming pool, and fitness center. The hotel is also conveniently located near the beach and other attractions. The hotel's featured image is a photo of the hotel's swimming pool, which is surrounded by palm trees. The hotel's main category is Hotel, and its categories are Hotel. The hotel's latitude is 33.7660577, and its longitude is 10.9564516. The hotel's website is nan, and its phone number is nan. The hotel's owner is VINCCI DAR MIDOUN (proprietaire).
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Bach Hamba is a popular restaurant located in the tourist area of Midoun Djerba, Avenue de la liberte. It offers a wide variety of dishes, including couscous, pasta, fish, and slata mechouia. The restaurant has a cozy atmosphere and friendly service. It is open from 12:00 pm to 12:00 am and closed on Sundays. Bach Hamba is a great place to enjoy a meal with friends or family.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4183,12 +5898,65 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in midoun, Dar Lagune Djerba at Q2VW+2QX Dar Lagune Djerba, tezdaine, la lagune, midoun, djerba island,Tunisie,, El Haddad is a must-visit spot. This top-rated destination is perfect for Hebergement lovers. With a rating of 4.7, it's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 33.8038814, 11.0400685. For more details, visit their website at https://djerba--hotel.blogspot.com/ or call them at 29 333 429.</t>
+          <t>Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>If you're seeking an exceptional Hebergement experience in Midoun, which highly-rated destination should you consider visiting?</t>
+          <t>Day Plan:
+Morning: Explore the historical significance of Mosquee Fadhloun Djerba Midoun, which captivates with its beauty and cultural importance.
+Mid-Morning: Indulge in the local flavors by trying the delicious dishes at Restaurant Lella Esannefa, known for its authentic Tunisian cuisine.
+Midday: Head to Midounia in the heart of Midoun, where you can enjoy charming bed and breakfast accommodations and embrace the warm hospitality.
+Afternoon: Spend an afternoon of relaxation and rejuvenation at Les Jardins de Toumana, an exclusive hotel that offers luxurious amenities like a private beach and a soothing ambiance.
+Evening: Experience the lively atmosphere and entertainment options at Club Med Djerba, a resort that offers live shows, discos, and theme nights for an unforgettable evening.
+Night: Explore the traditional market of Souk Midoun, where you can shop for unique souvenirs and immerse yourself in the vibrant local culture.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Twist Cafe" is a highly-rated 24-hour cafe located at Twist cafe, Midoun, Djerba Midun (33.80813, 10.99228), offering a cozy ambiance and a menu that caters to various tastes. Its 5.0 rating, based on numerous positive customer reviews, speaks volumes about the cafe's exceptional quality and service. Whether you're looking for a relaxing cup of coffee or a delightful meal, "Twist Cafe" is a must-visit destination for those seeking a delightful culinary experience.
+Dar Amphora Menzel, located in Midoun (33.8815674, 10.8566779), is a highly-rated guest house with a 4.6 rating. Run by Dar Amphora Menzel (owner), it offers a serene stay with its cozy accommodations and attentive service. This guesthouse is your go-to destination for those seeking a haven amidst the heart of midoun.
+Nestled in the heart of Midoun, Djerba Midun, Midounia offers charming bed and breakfast accommodations with a 5-star rating. Situated at coordinates (33.80813, 10.99228), this establishment boasts a prime location, making it an ideal base for exploring the city and its surroundings.
+The Fiesta Beach Djerba is a 4.2-rated all-inclusive hotel in Midoun, Tunisia. Facing a private beach, it offers a relaxed atmosphere with a range of amenities such as a spa, multiple pools, and a kids' club. The hotel has received over 1870 reviews and is highly praised for its animation, entertainment, and friendly staff. The Fiesta Beach Djerba is conveniently located near popular attractions and offers a wide range of activities for guests to enjoy during their stay.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, Tunisia (33.808130, 10.992280). It offers a unique blend of entertainment and education, featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture, including a house, a mill, and a pottery workshop. The park also boasts a diverse collection of animals, including reptiles, turtles, and iguanas. With its focus on heritage and nature, Djerba Explore Park is a popular destination for families and nature enthusiasts alike.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+"Restaurant Lella Esannefa" is a popular restaurant in Midoun, Tunisia. It's located on Avenue de l'Environnement and offers a wide variety of dishes, including traditional Tunisian cuisine. The restaurant has a 4.0 rating on Google and is open from 12:00 pm to 11:30 pm every day except Tuesdays.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4286,12 +6054,65 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a top-rated hotel, check out VINCCI DAR MIDOUN located at QXG5+56Q VINCCI DAR MIDOUN, Beni Maaguel. This 4.3-rated destination has 3 reviews and offers a range of hotel amenities. To get there, use these GPS coordinates: 33.7660577, 10.9564516. For more details, visit their website at https://www.google.com/maps/place/VINCCI+DAR+MIDOUN/data=!4m10!3m9!1s0x13aabdcd26f101b3:0xdecd131ab41357b8!5m2!4m1!1i2!8m2!3d33.7754716!4d10.9580947!16s%2Fg%2F11vbzn8_hx!19sChIJswHxJs29qhMRuFcTtBoTzd4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The VINCCI DAR MIDOUN is a 4.3-star hotel located in midoun, Tunisia. The hotel offers a variety of amenities, including a restaurant, bar, swimming pool, and fitness center. The hotel is also conveniently located near the beach and other attractions. The hotel's featured image is a photo of the hotel's swimming pool, which is surrounded by palm trees. The hotel's main category is Hotel, and its categories are Hotel. The hotel's latitude is 33.7660577, and its longitude is 10.9564516. The hotel's website is nan, and its phone number is nan. The hotel's owner is VINCCI DAR MIDOUN (proprietaire).</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Which top-rated hotel in Midoun stands out with a 4.3-star rating at the coordinates 33.7660577, 10.9564516?</t>
+          <t>Day Plan:
+Morning: Explore the charming streets of Midoun, stopping by DOMINO'S PUB for a relaxing coffee and pastry.
+Mid-Morning: Visit Souk Midoun, the traditional market, and immerse yourself in the vibrant atmosphere while browsing local spices and souvenirs.
+Midday: Try local cuisine at Restaurant Rayhana, known for its authentic Tunisian dishes and friendly service.
+Afternoon: Visit Dar Amphora Menzel, a 4.6-star guesthouse, and enjoy a leisurely stroll through its beautiful grounds. Take some time to relax in the inviting pool and soak up the sun.
+Evening: Head to Iberostar Mehari Djerba, a 4.7-star hotel, and indulge in a luxurious spa treatment. Let the skilled therapists pamper you with a rejuvenating massage or facial.
+Night: Enjoy a memorable dinner at Club Med Djerba, a luxurious hotel known for its elegant dining options. Savor the flavors of international cuisine while taking in the stunning ambiance.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Daily Dose Coffe is a coffee shop located in midoun at the coordinates (33.8099042, 10.9723646). The coffee shop is open from 7:00 AM to 11:00 PM and it offers a wide variety of coffees, teas, and pastries. The coffee shop also has a friendly staff and a cozy atmosphere, making it a great place to relax and enjoy a cup of coffee.
+Dar Amphora Menzel is a charming guesthouse located in Midoun on the island of Djerba in Tunisia. It is rated 4.6 stars and offers a memorable stay for its guests. With 12 reviews, it is a popular choice for travelers seeking a comfortable and authentic experience.
+Nestled in the heart of Midoun, Djerba Midun, Midounia offers charming bed and breakfast accommodations with a 5-star rating. Situated at coordinates (33.80813, 10.99228), this establishment boasts a prime location, making it an ideal base for exploring the city and its surroundings.
+Iberostar Mehari Djerba is a 4.7 stars hotel located in midoun, Tunisia. The hotel offers a wide range of services and amenities to its guests, including an outdoor pool, a spa, a fitness center, and a kids' club. The hotel is also conveniently located near the beach, making it a great choice for those who want to enjoy some sun and sand during their stay.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, on the island of Djerba, in Tunisia. The park features a crocodile farm, with various species of crocodiles, turtles, and iguanas, as well as a museum and recreations of a traditional house, mill, and pottery workshop. The park also offers other attractions such as a gift shop, restaurant, and opportunities to interact with camels. It has received positive reviews from visitors, with an average rating of 4.6 out of 5. The park is located at coordinates 33.80813, 10.99228 with phone number 75 745 277.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+RESTAURANT EL LAMMA, with an average rating of 4.5/5 from 2 reviews, is located in Midoun, Djerba Midun, on the coordinates (33.80813, 10.99228). It is open from 10:00 AM to 3:00 AM and offers a wide range of dining options in a cozy and inviting atmosphere.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4401,12 +6222,65 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>In Midoun, discover Djerba Explore Park, located at Djerba Explore Park, Midoun, Djerba Midun. This top-rated theme park offers a fantastic experience with various attractions, including a crocodile farm, museum, pottery workshop, and more. With an impressive 4.6 rating, it's a must-visit for theme park enthusiasts. Open during regular hours, it's closed on specific days. For directions, use the GPS coordinates: 33.80813, 10.99228. You can also visit their website at http://www.djerbaexplore.com/ or call them at 75 745 277 for further details.</t>
+          <t>Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Where can you visit a unique theme park on the island of Djerba that houses a crocodile farm and an array of attractions, earning it high ratings for its exceptional experience?</t>
+          <t>Day Plan:
+Morning: Visit Restaurant chiklay for a delicious breakfast and local vibe.
+Mid-Morning: Explore Souk Midoun, a traditional market offering a variety of local products and souvenirs.
+Midday: Savor a delightful lunch at Restaurant Rayhana, known for its authentic Tunisian cuisine.
+Afternoon: Discover the cultural heritage at Djerba Explore Park, featuring traditional architecture, a crocodile farm, and other exhibits.
+Evening: Take a leisurely stroll through the picturesque Jardins de Toumana hotel, admiring its stunning pool and lush surroundings.
+Night: Wind down with a relaxing evening at Les Jardins de Toumana hotel, enjoying its comfortable amenities and inviting atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Daily Dose Coffe is a coffee shop located in midoun at the coordinates (33.8099042, 10.9723646). The coffee shop is open from 7:00 AM to 11:00 PM and it offers a wide variety of coffees, teas, and pastries. The coffee shop also has a friendly staff and a cozy atmosphere, making it a great place to relax and enjoy a cup of coffee.
+Dar Amphora Menzel is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 33.8815674, 10.8566779). It offers a serene retreat with 12 cozy rooms and features amenities such as a swimming pool and a traditional hammam (steam bath). The guesthouse is conveniently situated near various attractions and offers easy access to the city's vibrant culture and stunning natural surroundings.
+Maison Leila is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 47.9183293, 13.7994911). It offers relaxed accommodation featuring a swimming pool, a spa, and a restaurant. The guesthouse specializes in providing comfortable and serene stays with suites equipped with kitchenettes. Maison Leila has received positive reviews for its cleanliness, comfort, and value for money, making it a popular choice for travelers seeking a peaceful and convenient getaway.
+Discover the unforgettable Welcome Meridiana Djerba, nestled amidst the picturesque landscapes of Midoun, Djerba. This magnificent hotel offers guests a haven of tranquility and comfort with elegantly appointed rooms, a refreshing pool, and a breathtaking beach nearby. Its warm and welcoming atmosphere, complemented by impeccable service and a dedicated entertainment team, ensures a memorable stay for couples and families alike. Embark on an extraordinary vacation where every detail has been meticulously considered for your utmost relaxation and enjoyment.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, Tunisia (33.808130, 10.992280). It offers a unique blend of entertainment and education, featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture, including a house, a mill, and a pottery workshop. The park also boasts a diverse collection of animals, including reptiles, turtles, and iguanas. With its focus on heritage and nature, Djerba Explore Park is a popular destination for families and nature enthusiasts alike.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Restaurant chiklay is a restaurant located in Midoun, Djerba Midun 4116. It is a great place to enjoy a delicious meal. The restaurant is open from 08:00 to 21:00, and is closed on Tuesdays. It has a rating of 5.0 on Google, based on 4 reviews.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4508,17 +6382,70 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Mosquee Fadhloun Djerba Midoun located at Mosquee Fadhloun Djerba Midoun, Houmt Souk. 
-This top-rated destination is perfect for Mosquee lovers and offers a range of categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. 
-It's open during these hours: 08:00-12:00, but closed on friday. 
-To get there, use these GPS coordinates: 33.8249411, 10.9593094. 
-For more details, visit their website at https://www.google.com/maps/place/Mosquee+Fadhloun+Djerba+Midoun/data=!4m7!3m6!1s0x13aabd40b4139c8b:0x66147b51eff1c950!8m2!3d33.824789!4d10.9593005!16s%2Fg%2F1236ymc6!19sChIJi5wTtEC9qhMRUMnx71F7FGY?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated destination perfect for Mosquee enthusiasts near Midoun?</t>
+          <t>Day Plan:
+Morning: Exploring Dar Lagune Djerba to appreciate its exceptional breakfast and inviting pool. (33.8038814, 11.0400685)
+Mid-Morning: Trying local cuisine at Le Petit Navire Restaurant Poissonnerie for a delightful seafood experience.
+Midday: Visiting Mosquee Fadhloun Djerba Midoun to admire its architectural beauty and historical significance. (33.8249411, 10.9593094)
+Afternoon: Enjoying a relaxing session at Le Spa des Jardins de Toumana, known for its luxurious ambiance and rejuvenating treatments.
+Evening: Exploring Souk Midoun for a vibrant shopping experience, discovering local products and colorful stalls. (33.80813, 10.99228)
+Night: Participating in an evening event at DOMINO'S PUB, offering a lively atmosphere with a wide selection of drinks and snacks. (42.3415574, 24.4881046)</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Riadh is a cafe situated in the heart of midoun, Tunisia. The cafe is a popular spot for locals and tourists alike, and offers a variety of coffee and tea drinks, as well as a selection of snacks. The cafe is located at 33.80813, 10.99228.
+Dar Amphora Menzel is a charming guest house located in Midoun, a city on the island of Djerba in Tunisia. This 4.6-star-rated establishment offers a relaxing stay in a warm and friendly atmosphere. The guest house is conveniently located near the beach and various shops and restaurants, making it an ideal base for exploring the island and enjoying its beautiful scenery.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+Escape to the serene sanctuary of Calimer Yati Beach, a 5-star hotel situated at the heart of Midoun in Djerba Midun. Located at (33.81005, 10.98997), the hotel offers an idyllic beachfront retreat with breathtaking views of the Mediterranean Sea. As one of the top-rated hotels in the area, Calimer Yati Beach boasts exceptional amenities and services that cater to every need.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, Tunisia (33.808130, 10.992280). It offers a unique blend of entertainment and education, featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture, including a house, a mill, and a pottery workshop. The park also boasts a diverse collection of animals, including reptiles, turtles, and iguanas. With its focus on heritage and nature, Djerba Explore Park is a popular destination for families and nature enthusiasts alike.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+Le Petit Navire Restaurant Poissonnerie is located in Midoun, Djerba Midun. It offers a wide range of seafood dishes and has a 4.1-star rating on Google. The restaurant is open daily except Tuesdays and has a friendly atmosphere with good service. The average price is in the middle range. The most popular dishes include: 
+- Fruits de mer (13 reviews)
+- Pates (4 reviews)
+- Gargoulette (3 reviews)
+- Poulpe (4 reviews)
+- Service (4 reviews)
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4628,12 +6555,70 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a fun and educational day out, check out Djerba Explore Park located on Midoun, Djerba Midun. This top-rated destination is perfect for nature and history lovers and offers a range of attractions to choose from, including a crocodile farm, museum, and reconstructions of traditional Tunisian architecture. With a rating of 4.6 based on 3127 reviews, it's a must-visit spot. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at http://www.djerbaexplore.com/ or call them at 75 745 277.</t>
+          <t>Djerba Explore Park is a theme park located in Midoun, on the island of Djerba, in Tunisia. The park features a crocodile farm, with various species of crocodiles, turtles, and iguanas, as well as a museum and recreations of a traditional house, mill, and pottery workshop. The park also offers other attractions such as a gift shop, restaurant, and opportunities to interact with camels. It has received positive reviews from visitors, with an average rating of 4.6 out of 5. The park is located at coordinates 33.80813, 10.99228 with phone number 75 745 277.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>Where can you find a unique combination of nature, history, and cultural attractions on the island of Djerba?</t>
+          <t>Day Plan:
+Morning: Explore Djerba Explore Park to discover exotic wildlife and cultural recreations.
+Mid-Morning: Visit the historical Mosquee Fadhloun Djerba Midoun to admire its architectural beauty.
+Midday: Try local cuisine at Restaurant Rayhana, offering authentic Tunisian dishes and a welcoming ambiance.
+Afternoon: Enjoy a relaxing afternoon at Calimer Yati Beach, soaking up the sun, the sea breeze, and the stunning views.
+Evening: Head to Souk Midoun for a vibrant shopping experience, immersing yourself in local culture and finding unique souvenirs.
+Night: Unwind at DOMINO'S PUB, a 4.8-rated bar lounge, enjoying a leisurely drink and soaking in the lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Djerba Midoun is located in Tunisia, in the city of Midoun. This cafe has a rating of 4.8 stars.
+Dar Amphora Menzel, located in Midoun (33.8815674, 10.8566779), is a highly-rated guest house with a 4.6 rating. Run by Dar Amphora Menzel (owner), it offers a serene stay with its cozy accommodations and attentive service. This guesthouse is your go-to destination for those seeking a haven amidst the heart of midoun.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+Escape to the serene sanctuary of Calimer Yati Beach, a 5-star hotel situated at the heart of Midoun in Djerba Midun. Located at (33.81005, 10.98997), the hotel offers an idyllic beachfront retreat with breathtaking views of the Mediterranean Sea. As one of the top-rated hotels in the area, Calimer Yati Beach boasts exceptional amenities and services that cater to every need.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+Le Petit Navire Restaurant Poissonnerie is located in Midoun, Djerba Midun. It offers a wide range of seafood dishes and has a 4.1-star rating on Google. The restaurant is open daily except Tuesdays and has a friendly atmosphere with good service. The average price is in the middle range. The most popular dishes include: 
+- Fruits de mer (13 reviews)
+- Pates (4 reviews)
+- Gargoulette (3 reviews)
+- Poulpe (4 reviews)
+- Service (4 reviews)
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4743,12 +6728,71 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a fantastic place to have some fun, head over to Djerba Explore Park at Djerba Explore Park, Midoun, Djerba Midun. This top-rated theme park is perfect for theme park enthusiasts and offers a variety of activities and attractions. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at http://www.djerbaexplore.com/ or call them at 75 745 277.</t>
+          <t>Djerba Explore Park is a theme park located in Midoun, Tunisia (33.808130, 10.992280). It offers a unique blend of entertainment and education, featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture, including a house, a mill, and a pottery workshop. The park also boasts a diverse collection of animals, including reptiles, turtles, and iguanas. With its focus on heritage and nature, Djerba Explore Park is a popular destination for families and nature enthusiasts alike.</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>If you're seeking a renowned theme park with a 4.6 rating in Midoun, where can you find Djerba Explore Park, known for its exhilarating attractions?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historic Mosquee Fadhloun Djerba Midoun, admiring its architectural beauty and historical significance.
+**Mid-Morning:**
+- Treat your taste buds to a delightful breakfast at "Twist Cafe," renowned for its cozy ambiance and excellent menu.
+**Midday:**
+- Immerse yourself in the vibrant atmosphere of Souk Midoun, a traditional market offering a diverse range of local products and handicrafts.
+**Afternoon:**
+- Relax and rejuvenate with a massage at the luxurious Les Jardins de Toumana hotel, surrounded by tranquility and elegance.
+**Evening:**
+- Savor authentic Tunisian flavors at RESTAURANT EL LAMMA, known for its culinary delights and inviting ambiance.
+**Night:**
+- Dance the night away at Disco salsa djerba, a modern discotheque featuring pulsating music and lively entertainment.</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Twist Cafe" is a highly-rated 24-hour cafe located at Twist cafe, Midoun, Djerba Midun (33.80813, 10.99228), offering a cozy ambiance and a menu that caters to various tastes. Its 5.0 rating, based on numerous positive customer reviews, speaks volumes about the cafe's exceptional quality and service. Whether you're looking for a relaxing cup of coffee or a delightful meal, "Twist Cafe" is a must-visit destination for those seeking a delightful culinary experience.
+Dar El Kebir is a 4.8-rated guest house located in Midoun, Djerba. It offers 6 rooms, a swimming pool, a terrace, and a garden. The guest house is located close to the beach and offers a variety of activities, such as swimming, fishing, and hiking.
+Nestled in the heart of Midoun, Djerba Midun, Midounia offers charming bed and breakfast accommodations with a 5-star rating. Situated at coordinates (33.80813, 10.99228), this establishment boasts a prime location, making it an ideal base for exploring the city and its surroundings.
+Discover the unforgettable Welcome Meridiana Djerba, nestled amidst the picturesque landscapes of Midoun, Djerba. This magnificent hotel offers guests a haven of tranquility and comfort with elegantly appointed rooms, a refreshing pool, and a breathtaking beach nearby. Its warm and welcoming atmosphere, complemented by impeccable service and a dedicated entertainment team, ensures a memorable stay for couples and families alike. Embark on an extraordinary vacation where every detail has been meticulously considered for your utmost relaxation and enjoyment.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, Tunisia (33.808130, 10.992280). It offers a unique blend of entertainment and education, featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture, including a house, a mill, and a pottery workshop. The park also boasts a diverse collection of animals, including reptiles, turtles, and iguanas. With its focus on heritage and nature, Djerba Explore Park is a popular destination for families and nature enthusiasts alike.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+RESTAURANT EL LAMMA, with an average rating of 4.5/5 from 2 reviews, is located in Midoun, Djerba Midun, on the coordinates (33.80813, 10.99228). It is open from 10:00 AM to 3:00 AM and offers a wide range of dining options in a cozy and inviting atmosphere.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4858,14 +6902,65 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Djerba Golf Club located at Djerba Golf Club, BP 360, Zone Touristique, Midoun, Djerba, 4116. 
-This top-rated destination is perfect for Club de golf lovers and offers a range of Club de golf, Attraction touristique to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-19:00. To get there, use these GPS coordinates: 33.8099042, 10.9723646. For more details, visit their website at http://www.djerbagolf.com.tn/ or call them at 75 745 055.</t>
+          <t>Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated golf destination with various activities in Midoun?</t>
+          <t>Day Plan:
+Morning: Explore Djerba Explore Park, featuring crocodiles, reptiles, and turtles.
+Mid-Morning: Visit Mosquee Fadhloun Djerba Midoun, a historically significant mosque known for its architectural beauty.
+Midday: Indulge in local cuisine at Restaurant chiklay, known for its delicious meals.
+Afternoon: Enjoy scenic views at Djerba Golf Club, boasting a breathtaking view of the sea and lush palm trees.
+Evening: Experience cultural immersion at Souk Midoun, a traditional market offering a lively atmosphere and colorful stalls.
+Night: Relax with a movie at Domino's Pub, a bar lounge with a 4.8 rating and a focus on providing a great customer experience.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Riadh is a cafe situated in the heart of midoun, Tunisia. The cafe is a popular spot for locals and tourists alike, and offers a variety of coffee and tea drinks, as well as a selection of snacks. The cafe is located at 33.80813, 10.99228.
+Dar Amphora Menzel is a charming guesthouse located in Midoun on the island of Djerba in Tunisia. It is rated 4.6 stars and offers a memorable stay for its guests. With 12 reviews, it is a popular choice for travelers seeking a comfortable and authentic experience.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+Iberostar Mehari Djerba is a 4.7 stars hotel located in midoun, Tunisia. The hotel offers a wide range of services and amenities to its guests, including an outdoor pool, a spa, a fitness center, and a kids' club. The hotel is also conveniently located near the beach, making it a great choice for those who want to enjoy some sun and sand during their stay.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Restaurant chiklay is a restaurant located in Midoun, Djerba Midun 4116. It is a great place to enjoy a delicious meal. The restaurant is open from 08:00 to 21:00, and is closed on Tuesdays. It has a rating of 5.0 on Google, based on 4 reviews.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4963,12 +7058,70 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Souk Midoun located at RX5R+5R4 Souk Midoun, Djerba Midun. This top-rated destination is perfect for Marche lovers and offers a range of Marche to choose from. With a rating of 3.9, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Souk+Midoun/data=!4m7!3m6!1s0x13aa97a6b710a243:0x3fdbe7aa62a61b59!8m2!3d33.8078892!4d10.9920627!16s%2Fg%2F11n04lyl1g!19sChIJQ6IQt6aXqhMRWRumYqrn2z8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Where in Midoun can you find Souk Midoun, a highly rated destination offering a variety of Marche, perfect for Marche enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore Djerba Explore Park's crocodile farm and wildlife exhibits.
+Mid-Morning: Try local cuisine at Le Petit Navire Restaurant Poissonnerie for a delectable seafood experience.
+Midday: Visit Mosquee Fadhloun Djerba Midoun to admire its architectural beauty and historical significance.
+Afternoon: Enjoy recreational activities like swimming and fishing at Seabel Rym Beach Djerba.
+Evening: Indulge in shopping for souvenirs and local crafts at Souk Midoun.
+Night: Experience the lively atmosphere and dance the night away at Disco salsa djerba.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Djerba Midoun is located in Tunisia, in the city of Midoun. This cafe has a rating of 4.8 stars.
+Dar El Kebir is a 4.8-rated guest house located in Midoun, Djerba. It offers 6 rooms, a swimming pool, a terrace, and a garden. The guest house is located close to the beach and offers a variety of activities, such as swimming, fishing, and hiking.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+Seabel Rym Beach Djerba is a welcoming seaside hotel in Midoun. It features bright rooms, two restaurants, a spa, an indoor pool, and outdoor swimming pools. With 4.4/5 stars and over 2600 reviews, it's a popular choice. Located at (33.82753, 11.04639), it's close to many attractions.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, on the island of Djerba, in Tunisia. The park features a crocodile farm, with various species of crocodiles, turtles, and iguanas, as well as a museum and recreations of a traditional house, mill, and pottery workshop. The park also offers other attractions such as a gift shop, restaurant, and opportunities to interact with camels. It has received positive reviews from visitors, with an average rating of 4.6 out of 5. The park is located at coordinates 33.80813, 10.99228 with phone number 75 745 277.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+Le Petit Navire Restaurant Poissonnerie is located in Midoun, Djerba Midun. It offers a wide range of seafood dishes and has a 4.1-star rating on Google. The restaurant is open daily except Tuesdays and has a friendly atmosphere with good service. The average price is in the middle range. The most popular dishes include: 
+- Fruits de mer (13 reviews)
+- Pates (4 reviews)
+- Gargoulette (3 reviews)
+- Poulpe (4 reviews)
+- Service (4 reviews)
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5070,12 +7223,71 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun, check out DOMINO'S PUB located at DOMINO'S PUB, Zone Touristique Midoun Djerba, 4185. This top-rated destination is perfect for Bar lounge lovers and offers a range of categories to choose from. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 42.3415574, 24.4881046. For more details, visit their website or call them at 21 773 380.</t>
+          <t>DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Where can you find a popular bar lounge with a high rating and an array of choices in Midoun, Djerba?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore Djerba Explore Park, a theme park showcasing Tunisian heritage and nature.
+**Mid-Morning:**
+* Visit Mosquee Fadhloun Djerba Midoun, an architecturally stunning mosque and popular tourist attraction.
+**Midday:**
+* Try local cuisine at Restaurant Rayhana, a highly-rated Tunisian restaurant serving couscous, fish, and other specialties.
+**Afternoon:**
+* Enjoy scenic views at Les Jardins de Toumana, a 4-star hotel featuring a private beach and swimming pool.
+**Evening:**
+* Go shopping at Souk Midoun, a traditional market offering a variety of products, including spices, textiles, and handicrafts.
+**Night:**
+* Participate in cultural immersion at DOMINO'S PUB, a 4.8-rated bar lounge with a lively atmosphere and friendly service.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Riadh is a cafe situated in the heart of midoun, Tunisia. The cafe is a popular spot for locals and tourists alike, and offers a variety of coffee and tea drinks, as well as a selection of snacks. The cafe is located at 33.80813, 10.99228.
+Dar Amphora Menzel is a guest house located in Midoun, Tunisia, offering a 4.6-star experience. It features a convenient location at Dar Amphora Menzel, Bp 31, with coordinates (33.8815674, 10.8566779). The guest house's main category is listed as "Maison d'hotes," indicating its focus on providing a comfortable and welcoming stay for guests.
+Nestled in the heart of Midoun, Djerba Midun, Midounia offers charming bed and breakfast accommodations with a 5-star rating. Situated at coordinates (33.80813, 10.99228), this establishment boasts a prime location, making it an ideal base for exploring the city and its surroundings.
+Discover the unforgettable Welcome Meridiana Djerba, nestled amidst the picturesque landscapes of Midoun, Djerba. This magnificent hotel offers guests a haven of tranquility and comfort with elegantly appointed rooms, a refreshing pool, and a breathtaking beach nearby. Its warm and welcoming atmosphere, complemented by impeccable service and a dedicated entertainment team, ensures a memorable stay for couples and families alike. Embark on an extraordinary vacation where every detail has been meticulously considered for your utmost relaxation and enjoyment.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, Tunisia (33.808130, 10.992280). It offers a unique blend of entertainment and education, featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture, including a house, a mill, and a pottery workshop. The park also boasts a diverse collection of animals, including reptiles, turtles, and iguanas. With its focus on heritage and nature, Djerba Explore Park is a popular destination for families and nature enthusiasts alike.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Lotophages is a popular restaurant in the heart of Midoun, Tunisia. With a rating of 4.0 out of 5 based on 113 reviews, it offers a wide range of dishes and beverages, including pizzas, sandwiches, cocktails, and coffee in a friendly and cozy atmosphere. The restaurant is located at RX5R+R67 in Midoun and is open from 6:00 AM to midnight every day of the week.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5181,14 +7393,65 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Disco salsa djerba located at Hotel diar yassine,Zone Touristique Midoun, 4126. 
-This top-rated destination is perfect for Discotheque lovers and offers a range of Discotheque to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 33.7643613, 10.959501. For more details, visit their website at https://www.facebook.com/Salsa-Disco-Djerba-274706255973403/ or call them at 20 184 639.</t>
+          <t>Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Where in Midoun can you find a highly-rated Discotheque venue for a memorable night out, with GPS coordinates provided for easy navigation?</t>
+          <t>Day Plan:
+Morning: Explore Mosquee Fadhloun Djerba Midoun
+Mid-Morning: Visit Souk Midoun
+Midday: Try local cuisine at Restaurant Lella Esannefa
+Afternoon: Enjoy scenic views at Djerba Golf Club
+Evening: Participate in cultural immersion at Djerba Explore Park
+Night: Relax with a drink at DOMINO'S PUB</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Twist Cafe" is a highly-rated 24-hour cafe located at Twist cafe, Midoun, Djerba Midun (33.80813, 10.99228), offering a cozy ambiance and a menu that caters to various tastes. Its 5.0 rating, based on numerous positive customer reviews, speaks volumes about the cafe's exceptional quality and service. Whether you're looking for a relaxing cup of coffee or a delightful meal, "Twist Cafe" is a must-visit destination for those seeking a delightful culinary experience.
+Dar Amphora Menzel is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 33.8815674, 10.8566779). It offers a serene retreat with 12 cozy rooms and features amenities such as a swimming pool and a traditional hammam (steam bath). The guesthouse is conveniently situated near various attractions and offers easy access to the city's vibrant culture and stunning natural surroundings.
+Nestled in the heart of Midoun, Djerba Midun, Midounia offers charming bed and breakfast accommodations with a 5-star rating. Situated at coordinates (33.80813, 10.99228), this establishment boasts a prime location, making it an ideal base for exploring the city and its surroundings.
+Seabel Rym Beach Djerba is a welcoming seaside hotel in Midoun. It features bright rooms, two restaurants, a spa, an indoor pool, and outdoor swimming pools. With 4.4/5 stars and over 2600 reviews, it's a popular choice. Located at (33.82753, 11.04639), it's close to many attractions.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+"Restaurant Lella Esannefa" is a popular restaurant in Midoun, Tunisia. It's located on Avenue de l'Environnement and offers a wide variety of dishes, including traditional Tunisian cuisine. The restaurant has a 4.0 rating on Google and is open from 12:00 pm to 11:30 pm every day except Tuesdays.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5298,12 +7561,65 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out fndq 'ldyn 4 located at fndq 'ldyn 4, Zone touristique BP 48, Midoun, Djerba 4116. This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. For more details, visit their website at https://www.aldiana.com/de-de/djerba-atlantide or call them at 75 730 622.</t>
+          <t>fndq 'ldyn 4 is a 4.5-rated all-inclusive resort located in Midoun, Djerba. It features simple restaurants, bars, an outdoor pool, and water sports. The resort is known for its lively atmosphere, friendly staff, and a wide range of entertainment options, including live shows, sports activities, and a nightclub. The resort is conveniently located near the beach and offers stunning views of the Mediterranean Sea.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>What is the name and location of a highly-rated Hotel in Djerba, making it a top destination for Hotel enthusiasts?</t>
+          <t>Day Plan:
+Morning: Start the day with a cup of coffee at Moods Coffee Shop, known for its cozy atmosphere and highly-rated coffee.
+Mid-Morning: Visit the historic Mosquee Fadhloun Djerba Midoun, a beautiful architectural landmark and a significant tourist attraction.
+Midday: Enjoy a traditional Tunisian lunch at Restaurant Rayhana, known for its couscous, fish, and lively atmosphere.
+Afternoon: Explore the Djerba Explore Park, a unique blend of entertainment and education, featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture.
+Evening: Take a leisurely stroll through Souk Midoun, a traditional market offering a variety of products, spices, and handicrafts.
+Night: Head to DOMINO'S PUB, a highly-rated bar lounge with a friendly atmosphere and a variety of drinks and snacks.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Moods Coffee Shop is a highly-rated café located in Midoun, Djerba Midun. Open from 4:30am to 11pm, it is renowned for its coffee and service, with reviews praising its cozy atmosphere. Located at (33.80813, 10.99228), Moods Coffee Shop is easily accessible and offers a welcoming space for locals and tourists alike.
+Dar Amphora Menzel is a guest house located in Midoun, Tunisia, offering a 4.6-star experience. It features a convenient location at Dar Amphora Menzel, Bp 31, with coordinates (33.8815674, 10.8566779). The guest house's main category is listed as "Maison d'hotes," indicating its focus on providing a comfortable and welcoming stay for guests.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+Iberostar Mehari Djerba is a 4.7 stars hotel located in midoun, Tunisia. The hotel offers a wide range of services and amenities to its guests, including an outdoor pool, a spa, a fitness center, and a kids' club. The hotel is also conveniently located near the beach, making it a great choice for those who want to enjoy some sun and sand during their stay.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, Tunisia (33.808130, 10.992280). It offers a unique blend of entertainment and education, featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture, including a house, a mill, and a pottery workshop. The park also boasts a diverse collection of animals, including reptiles, turtles, and iguanas. With its focus on heritage and nature, Djerba Explore Park is a popular destination for families and nature enthusiasts alike.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+Restaurant Darkom is a restaurant located at (33.80813, 10.99228) in Midoun, Tunisia. The restaurant is highly rated, with a rating of 4.6 out of 5, and has received positive reviews for its value and customer service.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5413,12 +7729,65 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a place to relax and unwind, check out Club Med Djerba, located at Club Med Djerba, BP 160, Midoun 4116. This top-rated hotel destination is perfect for complex hotelier lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 33.8099042, 10.9723646. For more details, visit their website at http://www.clubmed.com/DDOC or call them at 75 750 501.</t>
+          <t>Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated hotel complex with various categories to choose from, perfect for relaxation and rejuvenation, located in Midoun?</t>
+          <t>Day Plan:
+Morning: Explore Djerba Explore Park, a unique blend of entertainment and education featuring a crocodile farm, museum, and traditional Tunisian architecture recreations.
+Mid-Morning: Visit Mosquee Fadhloun Djerba Midoun, a historically significant mosque renowned for its architectural beauty and tourist attraction status.
+Midday: Indulge in local cuisine at Restaurant Rayhana, offering couscous, fish, and other Tunisian specialties with friendly service and a lively atmosphere.
+Afternoon: Unwind at Les Jardins de Toumana, an exclusive hotel with a luxurious atmosphere, private beach, and rejuvenating swimming pool.
+Evening: Participate in a traditional Tunisian cooking class, gaining hands-on experience in preparing local dishes and learning about Tunisian culinary culture.
+Night: Experience the vibrant nightlife at DOMINO'S PUB, a highly-rated bar lounge with a friendly atmosphere and a variety of drinks and snacks.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Riadh is a cafe situated in the heart of midoun, Tunisia. The cafe is a popular spot for locals and tourists alike, and offers a variety of coffee and tea drinks, as well as a selection of snacks. The cafe is located at 33.80813, 10.99228.
+Dar Amphora Menzel is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 33.8815674, 10.8566779). It offers a serene retreat with 12 cozy rooms and features amenities such as a swimming pool and a traditional hammam (steam bath). The guesthouse is conveniently situated near various attractions and offers easy access to the city's vibrant culture and stunning natural surroundings.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+Seabel Rym Beach Djerba is a welcoming seaside hotel in Midoun. It features bright rooms, two restaurants, a spa, an indoor pool, and outdoor swimming pools. With 4.4/5 stars and over 2600 reviews, it's a popular choice. Located at (33.82753, 11.04639), it's close to many attractions.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, Tunisia (33.808130, 10.992280). It offers a unique blend of entertainment and education, featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture, including a house, a mill, and a pottery workshop. The park also boasts a diverse collection of animals, including reptiles, turtles, and iguanas. With its focus on heritage and nature, Djerba Explore Park is a popular destination for families and nature enthusiasts alike.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Livraison food djerba is a 5 stars restaurant located in Midoun, Djerba Midun, Tunisia. It is opened 24 hours a day and has the particularity of delivering food at home. Many reviews mention its burgers.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5520,14 +7889,70 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in Midoun and looking for a fantastic bar lounge, head to DOMINO'S PUB at Zone Touristique Midoun Djerba, 4185. 
-This top-rated spot has a 4.8 rating and is a must-visit for bar lounge enthusiasts. 
-You can contact them at 21 773 380 for more details. To get there, use these GPS coordinates: 42.3415574, 24.4881046.</t>
+          <t>DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated bar lounge with a 4.8 rating in Midoun, Djerba, Tunisia?</t>
+          <t>Day Plan:
+Morning: Exploring the charming streets of Midoun and visiting the bustling Souk Midoun for a taste of local culture and shopping for souvenirs.
+Mid-Morning: Trying local cuisine at the highly-rated Restaurant Rayhana, known for its authentic Tunisian dishes and lively atmosphere.
+Midday: Visiting Mosquee Fadhloun Djerba Midoun, a historically significant mosque with stunning architectural beauty and a popular tourist attraction.
+Afternoon: Relaxing with a rejuvenating treatment at Les Jardins de Toumana's spa, set amidst luxurious apartments and a serene swimming pool.
+Evening: Enjoying a scenic sunset walk along the beach, taking in the stunning views of the Mediterranean Sea.
+Night: Participating in a traditional Tunisian cultural performance at Club Med Djerba, featuring live music, dancing, and authentic local cuisine.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE ROTANA is located in midoun, Tunisia, at the coordinates (33.80813, 10.99228). The cafe has a rating of 5.0 and is open from 6:00 AM to 12:30 AM.
+Dar Amphora Menzel is a charming guest house located in Midoun, a city on the island of Djerba in Tunisia. This 4.6-star-rated establishment offers a relaxing stay in a warm and friendly atmosphere. The guest house is conveniently located near the beach and various shops and restaurants, making it an ideal base for exploring the island and enjoying its beautiful scenery.
+Nestled in the heart of Midoun, Djerba Midun, Midounia offers charming bed and breakfast accommodations with a 5-star rating. Situated at coordinates (33.80813, 10.99228), this establishment boasts a prime location, making it an ideal base for exploring the city and its surroundings.
+Seabel Rym Beach Djerba is a welcoming seaside hotel in Midoun. It features bright rooms, two restaurants, a spa, an indoor pool, and outdoor swimming pools. With 4.4/5 stars and over 2600 reviews, it's a popular choice. Located at (33.82753, 11.04639), it's close to many attractions.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+Le Petit Navire Restaurant Poissonnerie is located in Midoun, Djerba Midun. It offers a wide range of seafood dishes and has a 4.1-star rating on Google. The restaurant is open daily except Tuesdays and has a friendly atmosphere with good service. The average price is in the middle range. The most popular dishes include: 
+- Fruits de mer (13 reviews)
+- Pates (4 reviews)
+- Gargoulette (3 reviews)
+- Poulpe (4 reviews)
+- Service (4 reviews)
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5633,13 +8058,65 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a discotheque to enjoy, check out Disco salsa djerba located at Hotel diar yassine,Zone Touristique Midoun, 4126. 
-This top-rated spot with a 4.3 rating is perfect for discotheque lovers and offers a range of discotheque options. To get in touch, you may call them at 20 184 639.</t>
+          <t>Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>What is the name and contact information of the highly-rated discotheque in Midoun that's worth checking out?</t>
+          <t>Day Plan:
+Morning: Explore Djerba Explore Park, featuring a crocodile farm, museum, and recreations of traditional Tunisian structures.
+Mid-Morning: Visit Souk Midoun, a vibrant market offering a variety of local products such as spices, souvenirs, and handicrafts.
+Midday: Savor local cuisine at Restaurant Rayhana, known for its authentic Tunisian dishes and friendly atmosphere.
+Afternoon: Relax and sunbathe at Sentido Djerba Beach, enjoying the private beach, swimming pools, and various amenities.
+Evening: Take a guided tour of Mosquee Fadhloun Djerba Midoun, admiring its architectural beauty and historical significance.
+Night: Experience the lively atmosphere at Disco salsa djerba, dancing to the beat and enjoying the music.</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE ROTANA is located in midoun, Tunisia, at the coordinates (33.80813, 10.99228). The cafe has a rating of 5.0 and is open from 6:00 AM to 12:30 AM.
+Dar Amphora Menzel is a charming guest house located in Midoun, a city on the island of Djerba in Tunisia. This 4.6-star-rated establishment offers a relaxing stay in a warm and friendly atmosphere. The guest house is conveniently located near the beach and various shops and restaurants, making it an ideal base for exploring the island and enjoying its beautiful scenery.
+Nestled in the heart of Midoun, Djerba Midun, Midounia offers charming bed and breakfast accommodations with a 5-star rating. Situated at coordinates (33.80813, 10.99228), this establishment boasts a prime location, making it an ideal base for exploring the city and its surroundings.
+Sentido Djerba Beach is a four-star hotel located on the beachfront in Midoun, Tunisia (coordinates: 48.4720605, 14.0440465). The hotel offers a private beach, multiple restaurants and bars, swimming pools, and a spa. Guest rooms are described as simple and comfortable. Over 1,400 reviews give the hotel an average rating of 4.2 out of 5. The hotel is particularly praised for its animation, beach chairs, service, and all-inclusive options.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, on the island of Djerba, in Tunisia. The park features a crocodile farm, with various species of crocodiles, turtles, and iguanas, as well as a museum and recreations of a traditional house, mill, and pottery workshop. The park also offers other attractions such as a gift shop, restaurant, and opportunities to interact with camels. It has received positive reviews from visitors, with an average rating of 4.6 out of 5. The park is located at coordinates 33.80813, 10.99228 with phone number 75 745 277.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+Restaurant Lella Hadhria is a highly-rated restaurant located in Midoun, Tunisia. It offers a wide range of dishes, including seafood, lamb, and vegetarian options. The restaurant is known for its beautiful views of the lagoon and its friendly service. It is located at (48.4720605, 14.0440465) and is open from 12:00 PM to 11:00 PM daily.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5749,12 +8226,65 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a top-rated Restaurant, check out Restaurant chez Moktar-mT`m lmkhtr located at Midoun djerba, Djerba Midun 4116. This destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on . To get there, use these GPS coordinates: 33.8099042, 10.9723646. For more details, visit their website at https://m.facebook.com/restaurantchezmoktar/%3Fti%3Das or call them at 55 512 556.</t>
+          <t>Restaurant Chez Moktar, located in Midoun, Djerba, is a popular destination for locals and tourists alike. This well-rated restaurant specializes in traditional Tunisian cuisine, offering a wide range of dishes including couscous, escalope, and tajine. Its prime location and excellent service make it a convenient and enjoyable culinary experience.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant (4.8 stars) with various dining options in Midoun, Djerba?</t>
+          <t>Day Plan:
+Morning: Explore the traditional market of Souk Midoun, immersing yourself in the vibrant local culture and picking up unique souvenirs.
+Mid-Morning: Visit the historically significant Mosquee Fadhloun Djerba Midoun, admiring its architectural beauty and learning about its religious and cultural significance.
+Midday: Indulge in local cuisine at Restaurant Rayhana, savoring authentic Tunisian dishes and enjoying the lively atmosphere.
+Afternoon: Head to Djerba Explore Park, where you can witness the fascinating crocodile farm and learn about the local wildlife.
+Evening: Take a guided tour of Dar Amphora Menzel, a charming guest house that offers a glimpse into traditional Tunisian architecture and hospitality.
+Night: Experience the vibrant nightlife at DOMINO'S PUB, a popular bar lounge with a lively ambiance and friendly service.</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Moods Coffee Shop is a highly-rated café located in Midoun, Djerba Midun. Open from 4:30am to 11pm, it is renowned for its coffee and service, with reviews praising its cozy atmosphere. Located at (33.80813, 10.99228), Moods Coffee Shop is easily accessible and offers a welcoming space for locals and tourists alike.
+Dar Amphora Menzel, located in Midoun (33.8815674, 10.8566779), is a highly-rated guest house with a 4.6 rating. Run by Dar Amphora Menzel (owner), it offers a serene stay with its cozy accommodations and attentive service. This guesthouse is your go-to destination for those seeking a haven amidst the heart of midoun.
+Nestled in the heart of Midoun, Djerba Midun, Midounia offers charming bed and breakfast accommodations with a 5-star rating. Situated at coordinates (33.80813, 10.99228), this establishment boasts a prime location, making it an ideal base for exploring the city and its surroundings.
+Seabel Rym Beach Djerba is a welcoming seaside hotel in Midoun. It features bright rooms, two restaurants, a spa, an indoor pool, and outdoor swimming pools. With 4.4/5 stars and over 2600 reviews, it's a popular choice. Located at (33.82753, 11.04639), it's close to many attractions.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+Restaurant Lella Hadhria is a highly-rated restaurant located in Midoun, Tunisia. It offers a wide range of dishes, including seafood, lamb, and vegetarian options. The restaurant is known for its beautiful views of the lagoon and its friendly service. It is located at (48.4720605, 14.0440465) and is open from 12:00 PM to 11:00 PM daily.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5860,12 +8390,70 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a top-rated Restaurant, head over to Restaurant Lella Hadhria located at Restaurant Lella Hadhria, restaurant Lella Hadhria, Route du Phare direction Aghir, Tezdaine - Midoun, Midoune 4116. This popular destination serves a range of Restaurant dishes, perfect for Restaurant lovers. With a rating of 4.3, it's a must-visit spot. It's open from 12:00-23:00 and closed on . To get there, use these GPS coordinates: 48.4720605, 14.0440465. For more details, call them at 98 777 888.</t>
+          <t>Restaurant Lella Hadhria is a highly-rated restaurant located in Midoun, Tunisia. It offers a wide range of dishes, including seafood, lamb, and vegetarian options. The restaurant is known for its beautiful views of the lagoon and its friendly service. It is located at (48.4720605, 14.0440465) and is open from 12:00 PM to 11:00 PM daily.</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Where can you find a popular Restaurant with a high rating serving Restaurant cuisine located near Midoun?</t>
+          <t>Day Plan:
+Morning: Start the day by visiting Mosquee Fadhloun Djerba Midoun, an architectural gem with historical significance.
+Mid-Morning: Explore the bustling Souk Midoun, a traditional market offering a vibrant atmosphere and local products.
+Midday: Indulge in authentic Tunisian cuisine at Restaurant Rayhana, known for its delicious couscous and friendly ambiance.
+Afternoon: Relax and rejuvenate at Les Jardins de Toumana, an exclusive hotel offering a luxurious spa experience.
+Evening: Enjoy scenic views of the Mediterranean Sea at Club Med Djerba, while relishing a fine dining experience.
+Night: Experience the lively atmosphere of DOMINO'S PUB, a popular bar lounge with a relaxing ambiance and attentive service.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bouchnak is a cafe located in Midoun, Djerba Midun, Tunisia. It is open from 06:00-00:00 and closed on Sundays. Cafe Bouchnak has a rating of 4.6 out of 5 stars on Google and is known for its great coffee and friendly staff.
+Dar El Kebir is a 4.8-rated guest house located in Midoun, Djerba. It offers 6 rooms, a swimming pool, a terrace, and a garden. The guest house is located close to the beach and offers a variety of activities, such as swimming, fishing, and hiking.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+fndq 'ldyn 4 is a 4.5-rated all-inclusive resort located in Midoun, Djerba. It features simple restaurants, bars, an outdoor pool, and water sports. The resort is known for its lively atmosphere, friendly staff, and a wide range of entertainment options, including live shows, sports activities, and a nightclub. The resort is conveniently located near the beach and offers stunning views of the Mediterranean Sea.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, on the island of Djerba, in Tunisia. The park features a crocodile farm, with various species of crocodiles, turtles, and iguanas, as well as a museum and recreations of a traditional house, mill, and pottery workshop. The park also offers other attractions such as a gift shop, restaurant, and opportunities to interact with camels. It has received positive reviews from visitors, with an average rating of 4.6 out of 5. The park is located at coordinates 33.80813, 10.99228 with phone number 75 745 277.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Le Petit Navire Restaurant Poissonnerie is located in Midoun, Djerba Midun. It offers a wide range of seafood dishes and has a 4.1-star rating on Google. The restaurant is open daily except Tuesdays and has a friendly atmosphere with good service. The average price is in the middle range. The most popular dishes include: 
+- Fruits de mer (13 reviews)
+- Pates (4 reviews)
+- Gargoulette (3 reviews)
+- Poulpe (4 reviews)
+- Service (4 reviews)
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5971,12 +8559,65 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a great place to eat, check out Bach Hamba located at Bach Hamba, zone touristique Midoun Djerba, Avenue de la liberte, Djerba Midun. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on []. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at or call them at 29 814 067.</t>
+          <t>Bach Hamba is a popular restaurant located in the tourist area of Midoun Djerba, Avenue de la liberte. It offers a wide variety of dishes, including couscous, pasta, fish, and slata mechouia. The restaurant has a cozy atmosphere and friendly service. It is open from 12:00 pm to 12:00 am and closed on Sundays. Bach Hamba is a great place to enjoy a meal with friends or family.</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant with a convenient location in Midoun, perfect for dining enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring the traditional Souk Midoun for local souvenirs and handicrafts.
+Mid-Morning: Trying local cuisine at Restaurant Lella Hadhria, savoring seafood and lamb dishes while enjoying the lagoon views.
+Midday: Visiting the historic Mosquee Fadhloun Djerba Midoun, admiring its architectural beauty and learning about its significance.
+Afternoon: Enjoying recreational activities at Djerba Explore Park, interacting with crocodiles, turtles, and learning about local culture.
+Evening: Shopping at DOMINO'S PUB for a nightcap and snacks, enjoying the lively atmosphere and chatting with locals.
+Night: Relaxing at Les Jardins de Toumana, soaking in the luxurious ambiance, taking a leisurely stroll through its gardens, and indulging in a rejuvenating spa treatment.</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of the tourist zone of Midoun, Salon De The Virage is a charming cafe located at the coordinates (33.87576, 10.85745). Open daily from 6 AM to 1 AM, the cafe boasts a cozy ambiance and a menu featuring delectable treats.
+Dar Amphora Menzel is a charming guest house located in Midoun, a city on the island of Djerba in Tunisia. This 4.6-star-rated establishment offers a relaxing stay in a warm and friendly atmosphere. The guest house is conveniently located near the beach and various shops and restaurants, making it an ideal base for exploring the island and enjoying its beautiful scenery.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+The VINCCI DAR MIDOUN is a 4.3-star hotel located in midoun, Tunisia. The hotel offers a variety of amenities, including a restaurant, bar, swimming pool, and fitness center. The hotel is also conveniently located near the beach and other attractions. The hotel's featured image is a photo of the hotel's swimming pool, which is surrounded by palm trees. The hotel's main category is Hotel, and its categories are Hotel. The hotel's latitude is 33.7660577, and its longitude is 10.9564516. The hotel's website is nan, and its phone number is nan. The hotel's owner is VINCCI DAR MIDOUN (proprietaire).
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, on the island of Djerba, in Tunisia. The park features a crocodile farm, with various species of crocodiles, turtles, and iguanas, as well as a museum and recreations of a traditional house, mill, and pottery workshop. The park also offers other attractions such as a gift shop, restaurant, and opportunities to interact with camels. It has received positive reviews from visitors, with an average rating of 4.6 out of 5. The park is located at coordinates 33.80813, 10.99228 with phone number 75 745 277.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+Restaurant Lella Hadhria is a highly-rated restaurant located in Midoun, Tunisia. It offers a wide range of dishes, including seafood, lamb, and vegetarian options. The restaurant is known for its beautiful views of the lagoon and its friendly service. It is located at (48.4720605, 14.0440465) and is open from 12:00 PM to 11:00 PM daily.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6086,12 +8727,65 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in midoun and craving delicious crepes, head to So Yummy, located at route midoun houmt souk Pas loin de bourgo mall Midoun, 4116. This top-rated Creperie is perfect for crepe lovers and offers a range of options to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 33.8099042, 10.9723646. For more details, visit their website at https://djerba--hotel.blogspot.com/p/restaurants-in-djerba.html or call them at 29 408 080.</t>
+          <t>So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Creperie called So Yummy, known for its delectable crepe options, in Midoun?</t>
+          <t>Day Plan:
+Morning: Exploring Dar Amphora Menzel
+Mid-Morning: Visiting Mosquee Fadhloun Djerba Midoun
+Midday: Trying local cuisine at Restaurant Rayhana
+Afternoon: Enjoying recreational activities at Djerba Explore Park
+Evening: Participating in live music and entertainment at Club Med Djerba
+Night: Shopping for local crafts at Souk Midoun</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe La Jeunesse is a well-rated (4.4/5) cafe located at (33.80813, 10.99228) in Midoun, offering a variety of services, including cafe services.
+Dar Amphora Menzel is a charming guest house located in Midoun, a city on the island of Djerba in Tunisia. This 4.6-star-rated establishment offers a relaxing stay in a warm and friendly atmosphere. The guest house is conveniently located near the beach and various shops and restaurants, making it an ideal base for exploring the island and enjoying its beautiful scenery.
+Maison Leila is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 47.9183293, 13.7994911). It offers relaxed accommodation featuring a swimming pool, a spa, and a restaurant. The guesthouse specializes in providing comfortable and serene stays with suites equipped with kitchenettes. Maison Leila has received positive reviews for its cleanliness, comfort, and value for money, making it a popular choice for travelers seeking a peaceful and convenient getaway.
+Nestled in the heart of the tourist area of midoun, Tunisia, Vincci Dar Midoun is a 4-star hotel that offers an unforgettable stay to its guests. This luxurious hotel boasts 500 beautifully appointed rooms and suites, each equipped with modern amenities and stunning views of the surrounding landscape. Vincci Dar Midoun offers a wide range of services and facilities, including a restaurant and bar, a swimming pool and a fitness center. The hotel also offers a variety of activities, such as animation and entertainment programs, to keep guests entertained during their stay. With its convenient location and exceptional service, Vincci Dar Midoun is the perfect place to stay for both business and leisure travelers alike.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, on the island of Djerba, in Tunisia. The park features a crocodile farm, with various species of crocodiles, turtles, and iguanas, as well as a museum and recreations of a traditional house, mill, and pottery workshop. The park also offers other attractions such as a gift shop, restaurant, and opportunities to interact with camels. It has received positive reviews from visitors, with an average rating of 4.6 out of 5. The park is located at coordinates 33.80813, 10.99228 with phone number 75 745 277.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Lotophages is a popular restaurant in the heart of Midoun, Tunisia. With a rating of 4.0 out of 5 based on 113 reviews, it offers a wide range of dishes and beverages, including pizzas, sandwiches, cocktails, and coffee in a friendly and cozy atmosphere. The restaurant is located at RX5R+R67 in Midoun and is open from 6:00 AM to midnight every day of the week.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6197,13 +8891,65 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a great place to eat, check out Lotophages located at RX5R+R67 Lotophages, Midoun, Djerba Midun. 
-This top-rated destination is perfect for Restaurant lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website or call them at 75 730 250.</t>
+          <t>Lotophages is a popular restaurant in the heart of Midoun, Tunisia. With a rating of 4.0 out of 5 based on 113 reviews, it offers a wide range of dishes and beverages, including pizzas, sandwiches, cocktails, and coffee in a friendly and cozy atmosphere. The restaurant is located at RX5R+R67 in Midoun and is open from 6:00 AM to midnight every day of the week.</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Restaurant in Midoun that opens early and closes late, offering a memorable dining experience?</t>
+          <t>Day Plan:
+Morning: Explore the Djerba Explore Park, showcasing the region's unique fauna and traditional craftsmanship.
+Mid-Morning: Visit the Mosquee Fadhloun Djerba Midoun to admire its architectural beauty and historical significance.
+Midday: Indulge in local cuisine at Restaurant Rayhana, known for its authentic Tunisian specialties and lively atmosphere.
+Afternoon: Try windsurfing or catamaran sailing at Club Med Djerba, enjoying the thrill of watersports.
+Evening: Explore the Djerba Midoun Market for souvenirs, spices, and textiles, immersing yourself in the local culture.
+Night: Relax at Les Jardins de Toumana, enjoying the ambiance of a traditional Tunisian menzel while savoring delicious local and international cuisine.</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Djerba Midoun is located in Tunisia, in the city of Midoun. This cafe has a rating of 4.8 stars.
+Dar Amphora Menzel is a guest house located in Midoun, Tunisia, offering a 4.6-star experience. It features a convenient location at Dar Amphora Menzel, Bp 31, with coordinates (33.8815674, 10.8566779). The guest house's main category is listed as "Maison d'hotes," indicating its focus on providing a comfortable and welcoming stay for guests.
+Nestled in the heart of Midoun, Djerba Midun, Midounia offers charming bed and breakfast accommodations with a 5-star rating. Situated at coordinates (33.80813, 10.99228), this establishment boasts a prime location, making it an ideal base for exploring the city and its surroundings.
+The VINCCI DAR MIDOUN is a 4.3-star hotel located in midoun, Tunisia. The hotel offers a variety of amenities, including a restaurant, bar, swimming pool, and fitness center. The hotel is also conveniently located near the beach and other attractions. The hotel's featured image is a photo of the hotel's swimming pool, which is surrounded by palm trees. The hotel's main category is Hotel, and its categories are Hotel. The hotel's latitude is 33.7660577, and its longitude is 10.9564516. The hotel's website is nan, and its phone number is nan. The hotel's owner is VINCCI DAR MIDOUN (proprietaire).
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, on the island of Djerba, in Tunisia. The park features a crocodile farm, with various species of crocodiles, turtles, and iguanas, as well as a museum and recreations of a traditional house, mill, and pottery workshop. The park also offers other attractions such as a gift shop, restaurant, and opportunities to interact with camels. It has received positive reviews from visitors, with an average rating of 4.6 out of 5. The park is located at coordinates 33.80813, 10.99228 with phone number 75 745 277.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+Restaurant Darkom is a restaurant located at (33.80813, 10.99228) in Midoun, Tunisia. The restaurant is highly rated, with a rating of 4.6 out of 5, and has received positive reviews for its value and customer service.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6313,12 +9059,70 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a delicious meal, check out Le Petit Navire Restaurant Poissonnerie located at Midoun, Djerba Midun. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 12:00-15:00, 18:00-22:00, but closed on mar. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at https://djerba--hotel.blogspot.com/p/restaurants-in-djerba.html or call them at 26 787 873.</t>
+          <t>Le Petit Navire Restaurant Poissonnerie is located in Midoun, Djerba Midun. It offers a wide range of seafood dishes and has a 4.1-star rating on Google. The restaurant is open daily except Tuesdays and has a friendly atmosphere with good service. The average price is in the middle range. The most popular dishes include: 
+- Fruits de mer (13 reviews)
+- Pates (4 reviews)
+- Gargoulette (3 reviews)
+- Poulpe (4 reviews)
+- Service (4 reviews)</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Where is the highly-rated Le Petit Navire Restaurant Poissonnerie located, offering a delectable dining experience with a diverse menu in Midoun, Djerba Midun?</t>
+          <t>Day Plan:
+Morning: Explore the lively Souk Midoun, known for its vibrant atmosphere and colorful stalls.
+Mid-Morning: Visit Mosquee Fadhloun Djerba Midoun, a historically significant mosque renowned for its architectural beauty.
+Midday: Try local cuisine at Restaurant Rayhana, known for its authentic Tunisian dishes and friendly atmosphere.
+Afternoon: Relax with a massage at Les Jardins de Toumana, an exclusive hotel offering a serene and rejuvenating spa experience.
+Evening: Enjoy a romantic dinner at Lotophages, a popular restaurant offering a wide range of dishes and a cozy ambiance.
+Night: Dance the night away at Disco salsa djerba, a discotheque with a lively atmosphere and great music.</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Djerba Midoun is located in Tunisia, in the city of Midoun. This cafe has a rating of 4.8 stars.
+Dar Amphora Menzel is a charming guest house located in Midoun, Tunisia, offering a tranquil retreat for travelers. Situated near the stunning beaches of Djerba, the guest house boasts a prime location with easy access to the island's attractions. With its cozy accommodations, warm hospitality, and convenient amenities, Dar Amphora Menzel is an ideal base for exploring the wonders of Djerba and enjoying a relaxing and memorable stay.
+Nestled in the heart of Midoun, Djerba Midun, Midounia offers charming bed and breakfast accommodations with a 5-star rating. Situated at coordinates (33.80813, 10.99228), this establishment boasts a prime location, making it an ideal base for exploring the city and its surroundings.
+Seabel Rym Beach Djerba is a welcoming seaside hotel in Midoun. It features bright rooms, two restaurants, a spa, an indoor pool, and outdoor swimming pools. With 4.4/5 stars and over 2600 reviews, it's a popular choice. Located at (33.82753, 11.04639), it's close to many attractions.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+Lotophages is a popular restaurant in the heart of Midoun, Tunisia. With a rating of 4.0 out of 5 based on 113 reviews, it offers a wide range of dishes and beverages, including pizzas, sandwiches, cocktails, and coffee in a friendly and cozy atmosphere. The restaurant is located at RX5R+R67 in Midoun and is open from 6:00 AM to midnight every day of the week.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6428,14 +9232,65 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Livraison food djerba located at Livraison food djerba, Midoun Center, Midoun, Djerba Midun. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Livraison de repas a domicile to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at https://wa.me/21628086272 or call them at 96 010 110.</t>
+          <t>Livraison food djerba is a 5 stars restaurant located in Midoun, Djerba Midun, Tunisia. It is opened 24 hours a day and has the particularity of delivering food at home. Many reviews mention its burgers.</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>What is the top-rated restaurant in Midoun, located at Livraison food djerba, that specializes in Restaurant and Livraison de repas a domicile?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Souk Midoun, known for its colorful stalls offering spices, souvenirs, and handicrafts.
+Mid-Morning: Visit the historically significant Mosquee Fadhloun Djerba Midoun, renowned for its architectural beauty.
+Midday: Savor the flavors of local cuisine at Restaurant Dar Hedia, specializing in traditional Tunisian and Middle Eastern dishes.
+Afternoon: Enjoy thrilling water activities like catamaran sailing or windsurfing at Club Med Djerba.
+Evening: Experience the nightlife at Disco salsa djerba, featuring modern amenities and services.
+Night: Relax with a refreshing beverage at DOMINO'S PUB, known for its lively atmosphere and excellent customer service.</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe les arcades mqh~ lqws is a 5-star rated cafe located in midoun. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at 4116 Midoun, Djerba Midun and can be contacted at 22 476 009.
+Dar Amphora Menzel is a guest house located in Midoun, Tunisia, offering a 4.6-star experience. It features a convenient location at Dar Amphora Menzel, Bp 31, with coordinates (33.8815674, 10.8566779). The guest house's main category is listed as "Maison d'hotes," indicating its focus on providing a comfortable and welcoming stay for guests.
+Nestled in the heart of Midoun, Djerba Midun, Midounia offers charming bed and breakfast accommodations with a 5-star rating. Situated at coordinates (33.80813, 10.99228), this establishment boasts a prime location, making it an ideal base for exploring the city and its surroundings.
+The VINCCI DAR MIDOUN is a 4.3-star hotel located in midoun, Tunisia. The hotel offers a variety of amenities, including a restaurant, bar, swimming pool, and fitness center. The hotel is also conveniently located near the beach and other attractions. The hotel's featured image is a photo of the hotel's swimming pool, which is surrounded by palm trees. The hotel's main category is Hotel, and its categories are Hotel. The hotel's latitude is 33.7660577, and its longitude is 10.9564516. The hotel's website is nan, and its phone number is nan. The hotel's owner is VINCCI DAR MIDOUN (proprietaire).
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Restaurant Dar Hedia is a highly-rated restaurant located in Midoun, Tunisia. It specializes in Middle Eastern and Tunisian cuisine, offering both indoor and outdoor seating. The menu features a wide variety of dishes, including grilled meats, couscous, and traditional Tunisian fare. The restaurant is open for lunch and dinner, and is frequented by locals and tourists alike.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6541,14 +9396,65 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Restaurant Rayhana located at Restaurant rayhana Djerba midoun Djerba, 4116. 
-This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of Restaurant tunisien to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 09:00-22:00. To get there, use these GPS coordinates: 33.8099042, 10.9723646. For more details, visit their website at  or call them at 22 165 156.</t>
+          <t>Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant serving Tunisian cuisine in Midoun?</t>
+          <t>Day Plan:
+Morning: Explore the traditional Souk Midoun for souvenirs and handicrafts.
+Mid-Morning: Visit the historic Mosquee Fadhloun Djerba for its architectural beauty.
+Midday: Try local cuisine at Restaurant Lella Esannefa, known for its traditional Tunisian dishes.
+Afternoon: Enjoy scenic views at the Djerba Golf Club while golfing or taking a leisurely walk.
+Evening: Relax with a massage or spa treatment at Les Jardins de Toumana, an exclusive hotel known for its chic and comfortable ambiance.
+Night: Experience the vibrant nightlife at DOMINO'S PUB, a bar-lounge with a lively atmosphere and great customer service.</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe La Jeunesse is a well-rated (4.4/5) cafe located at (33.80813, 10.99228) in Midoun, offering a variety of services, including cafe services.
+Dar Amphora Menzel is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 33.8815674, 10.8566779). It offers a serene retreat with 12 cozy rooms and features amenities such as a swimming pool and a traditional hammam (steam bath). The guesthouse is conveniently situated near various attractions and offers easy access to the city's vibrant culture and stunning natural surroundings.
+Nestled in the heart of Midoun, Djerba Midun, Midounia offers charming bed and breakfast accommodations with a 5-star rating. Situated at coordinates (33.80813, 10.99228), this establishment boasts a prime location, making it an ideal base for exploring the city and its surroundings.
+The Fiesta Beach Djerba is a 4.2-rated all-inclusive hotel in Midoun, Tunisia. Facing a private beach, it offers a relaxed atmosphere with a range of amenities such as a spa, multiple pools, and a kids' club. The hotel has received over 1870 reviews and is highly praised for its animation, entertainment, and friendly staff. The Fiesta Beach Djerba is conveniently located near popular attractions and offers a wide range of activities for guests to enjoy during their stay.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+"Restaurant Lella Esannefa" is a popular restaurant in Midoun, Tunisia. It's located on Avenue de l'Environnement and offers a wide variety of dishes, including traditional Tunisian cuisine. The restaurant has a 4.0 rating on Google and is open from 12:00 pm to 11:30 pm every day except Tuesdays.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6650,14 +9556,71 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Restaurant lella esannefa located at Avenue de l'environnement vers zone touristique de midoun Djerba Midoun, 4116. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-23:30, but closed on mar. To get there, use these GPS coordinates: 33.835075394591, 10.99110705363. For more details, visit their website at  or call them at .</t>
+          <t>"Restaurant Lella Esannefa" is a popular restaurant in Midoun, Tunisia. It's located on Avenue de l'Environnement and offers a wide variety of dishes, including traditional Tunisian cuisine. The restaurant has a 4.0 rating on Google and is open from 12:00 pm to 11:30 pm every day except Tuesdays.</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Restaurant destination with a variety of options in Midoun, perfect for Restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning:
+- Visit Mosquee Fadhloun Djerba Midoun, a historically significant mosque with architectural beauty.
+Mid-Morning:
+- Try local cuisine at Restaurant Rayhana, known for its friendly servers, reasonable prices, and lively atmosphere.
+Midday:
+- Explore Souk Midoun, a traditional market offering a variety of local products and lively atmosphere.
+Afternoon:
+- Enjoy outdoor activities at Djerba Explore Park, where you can see crocodiles, turtles, and iguanas.
+Evening:
+- Relax with a spa treatment or enjoy the pool at Les Jardins de Toumana, an exclusive hotel with a luxurious atmosphere.
+Night:
+- Participate in the lively atmosphere of DOMINO'S PUB, a bar lounge with a relaxing atmosphere and great customer service.</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Daily Dose Coffe is a coffee shop located in midoun at the coordinates (33.8099042, 10.9723646). The coffee shop is open from 7:00 AM to 11:00 PM and it offers a wide variety of coffees, teas, and pastries. The coffee shop also has a friendly staff and a cozy atmosphere, making it a great place to relax and enjoy a cup of coffee.
+Dar Amphora Menzel is a charming guest house located in Midoun, a city on the island of Djerba in Tunisia. This 4.6-star-rated establishment offers a relaxing stay in a warm and friendly atmosphere. The guest house is conveniently located near the beach and various shops and restaurants, making it an ideal base for exploring the island and enjoying its beautiful scenery.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+fndq 'ldyn 4 is a 4.5-rated all-inclusive resort located in Midoun, Djerba. It features simple restaurants, bars, an outdoor pool, and water sports. The resort is known for its lively atmosphere, friendly staff, and a wide range of entertainment options, including live shows, sports activities, and a nightclub. The resort is conveniently located near the beach and offers stunning views of the Mediterranean Sea.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, on the island of Djerba, in Tunisia. The park features a crocodile farm, with various species of crocodiles, turtles, and iguanas, as well as a museum and recreations of a traditional house, mill, and pottery workshop. The park also offers other attractions such as a gift shop, restaurant, and opportunities to interact with camels. It has received positive reviews from visitors, with an average rating of 4.6 out of 5. The park is located at coordinates 33.80813, 10.99228 with phone number 75 745 277.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+Restaurant Lella Hadhria is a highly-rated restaurant located in Midoun, Tunisia. It offers a wide range of dishes, including seafood, lamb, and vegetarian options. The restaurant is known for its beautiful views of the lagoon and its friendly service. It is located at (48.4720605, 14.0440465) and is open from 12:00 PM to 11:00 PM daily.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6767,12 +9730,65 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Restaurant Bel-K Algerian food located at Place El Bousten en face du Soquagen Midoun, Djerba, 4116. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 12:00-15:00, 18:00-23:00, but closed on vendredi. To get there, use these GPS coordinates: 33.8099042, 10.9723646. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100092340655726%26mibextid%3DV3Yony or call them at 27 491 324.</t>
+          <t>Restaurant Bel-K Algerian Food is a popular destination in Midoun, Tunisia, with a rating of 4.1 stars from 34 reviews. It serves Algerian cuisine and is known for its chef and affordable prices. The restaurant is located at Place El Bousten en face du Soquagen Midoun and is open daily from 12:00-15:00 and 18:00-23:00, except on Fridays.</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Restaurant Bel-K Algerian food with a rating of 4.1, located in Midoun?</t>
+          <t>Day Plan:
+Morning: Explore Djerba Midoun, taking in the traditional architecture and local life.
+Mid-Morning: Visit Mosquee Fadhloun Djerba Midoun, a beautiful and historic mosque.
+Midday: Try local cuisine at Restaurant Rayhana, known for its authentic Tunisian dishes.
+Afternoon: Relax with a massage at Les Jardins de Toumana, a luxurious hotel with a spa.
+Evening: Participate in a cooking class at Dar Amphora Menzel, learning about traditional Tunisian cuisine.
+Night: Experience the lively atmosphere and shopping at Souk Midoun, a traditional market offering local crafts and souvenirs.</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Djerba Midoun is located in Tunisia, in the city of Midoun. This cafe has a rating of 4.8 stars.
+Dar Amphora Menzel is a guest house located in Midoun, Tunisia, offering a 4.6-star experience. It features a convenient location at Dar Amphora Menzel, Bp 31, with coordinates (33.8815674, 10.8566779). The guest house's main category is listed as "Maison d'hotes," indicating its focus on providing a comfortable and welcoming stay for guests.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+The VINCCI DAR MIDOUN is a 4.3-star hotel located in midoun, Tunisia. The hotel offers a variety of amenities, including a restaurant, bar, swimming pool, and fitness center. The hotel is also conveniently located near the beach and other attractions. The hotel's featured image is a photo of the hotel's swimming pool, which is surrounded by palm trees. The hotel's main category is Hotel, and its categories are Hotel. The hotel's latitude is 33.7660577, and its longitude is 10.9564516. The hotel's website is nan, and its phone number is nan. The hotel's owner is VINCCI DAR MIDOUN (proprietaire).
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, Tunisia (33.808130, 10.992280). It offers a unique blend of entertainment and education, featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture, including a house, a mill, and a pottery workshop. The park also boasts a diverse collection of animals, including reptiles, turtles, and iguanas. With its focus on heritage and nature, Djerba Explore Park is a popular destination for families and nature enthusiasts alike.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+Restaurant Darkom is a restaurant located at (33.80813, 10.99228) in Midoun, Tunisia. The restaurant is highly rated, with a rating of 4.6 out of 5, and has received positive reviews for its value and customer service.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6878,14 +9894,65 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Restaurant Darkom located at R28V+Q5J Restaurant Darkom, Midoun, Djerba Midun. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on []. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website or call them at 94 692 540.</t>
+          <t>Restaurant Darkom is a restaurant located at (33.80813, 10.99228) in Midoun, Tunisia. The restaurant is highly rated, with a rating of 4.6 out of 5, and has received positive reviews for its value and customer service.</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant in Midoun that caters specifically to restaurant lovers, offering a variety of dining options?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Souk Midoun, a traditional market with vibrant stalls and local goods.
+Mid-Morning: Visit the historic Mosquee Fadhloun Djerba Midoun to admire its architectural beauty and significant cultural heritage.
+Midday: Savor the authentic flavors of Tunisian cuisine at Restaurant Dar Hedia for a delightful lunch.
+Afternoon: Relax and soak up the Mediterranean sun at Les Jardins de Toumana, an exclusive hotel with a serene atmosphere.
+Evening: Enjoy a memorable sunset dinner at Dar Amphora Menzel, a charming guesthouse known for its gourmet dining.
+Night: Experience the lively atmosphere at DOMINO'S PUB, a popular bar lounge offering a vibrant nightlife scene.</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of the tourist zone of Midoun, Salon De The Virage is a charming cafe located at the coordinates (33.87576, 10.85745). Open daily from 6 AM to 1 AM, the cafe boasts a cozy ambiance and a menu featuring delectable treats.
+Dar Amphora Menzel is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 33.8815674, 10.8566779). It offers a serene retreat with 12 cozy rooms and features amenities such as a swimming pool and a traditional hammam (steam bath). The guesthouse is conveniently situated near various attractions and offers easy access to the city's vibrant culture and stunning natural surroundings.
+Maison Leila is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 47.9183293, 13.7994911). It offers relaxed accommodation featuring a swimming pool, a spa, and a restaurant. The guesthouse specializes in providing comfortable and serene stays with suites equipped with kitchenettes. Maison Leila has received positive reviews for its cleanliness, comfort, and value for money, making it a popular choice for travelers seeking a peaceful and convenient getaway.
+If you are seeking a comfortable and conveniently located hotel in Midoun, look no further than Hotel Meridiana. The hotel has received a 4.2 stars rating with 17 reviews, suggesting that it offers a pleasant stay for its guests. Situated at (33.82835, 11.04065), the hotel is easy to find and accessible. Although detailed information about the hotel's amenities and services is not provided, its location and positive reviews make it a solid option for travelers seeking a comfortable and convenient stay in Midoun.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, Tunisia (33.808130, 10.992280). It offers a unique blend of entertainment and education, featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture, including a house, a mill, and a pottery workshop. The park also boasts a diverse collection of animals, including reptiles, turtles, and iguanas. With its focus on heritage and nature, Djerba Explore Park is a popular destination for families and nature enthusiasts alike.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Restaurant Dar Hedia is a highly-rated restaurant located in Midoun, Tunisia. It specializes in Middle Eastern and Tunisian cuisine, offering both indoor and outdoor seating. The menu features a wide variety of dishes, including grilled meats, couscous, and traditional Tunisian fare. The restaurant is open for lunch and dinner, and is frequented by locals and tourists alike.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6991,14 +10058,65 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Restaurant Dar Hedia located at Rue de l'environement Midoun Djerba, 4116. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Grillades, Restaurant servant du couscous, Restaurant de specialites du Moyen-Orient, Traditional restaurant, Restaurant tunisien to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 12:00-15:00, 17:30-21:30. To get there, use these GPS coordinates: 33.835075394591, 10.99110705363. For more details, visit their website at  or call them at 54 008 168.</t>
+          <t>Restaurant Dar Hedia is a highly-rated restaurant located in Midoun, Tunisia. It specializes in Middle Eastern and Tunisian cuisine, offering both indoor and outdoor seating. The menu features a wide variety of dishes, including grilled meats, couscous, and traditional Tunisian fare. The restaurant is open for lunch and dinner, and is frequented by locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>Where in Midoun can you find a highly-rated restaurant destination offering a variety of cuisines?</t>
+          <t>Day Plan:
+Morning: Explore Djerba Explore Park to learn about the local culture and heritage and see its crocodile farm and museum.
+Mid-Morning: Enjoy the colorful and lively atmosphere of Souk Midoun, a traditional market offering various souvenirs and handicrafts.
+Midday: Try local cuisine at Dar Lagune Djerba, known for its delicious breakfast and dinner menus.
+Afternoon: Relax and enjoy the sun at Welcome Meridiana Djerba's beach, offering a breathtaking view of the sea.
+Evening: Engage in outdoor activities like hiking or biking at the picturesque Ksar Ghilane Oasis.
+Night: Experience cultural immersion at a traditional Tunisian music and dance performance at Dar Amphora Menzel.</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Virage is a highly-rated cafe located in Midoun, Tunisia, with a convenient location and extended opening hours from 7:00 AM to midnight. Although it lacks a website and phone number, it boasts a 4.3-star rating based on 10 reviews. The cafe's main category is Cafe, showcasing its expertise in coffee and other beverages.
+Dar Amphora Menzel is a charming guest house located in Midoun, Tunisia, offering a tranquil retreat for travelers. Situated near the stunning beaches of Djerba, the guest house boasts a prime location with easy access to the island's attractions. With its cozy accommodations, warm hospitality, and convenient amenities, Dar Amphora Menzel is an ideal base for exploring the wonders of Djerba and enjoying a relaxing and memorable stay.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+Discover the unforgettable Welcome Meridiana Djerba, nestled amidst the picturesque landscapes of Midoun, Djerba. This magnificent hotel offers guests a haven of tranquility and comfort with elegantly appointed rooms, a refreshing pool, and a breathtaking beach nearby. Its warm and welcoming atmosphere, complemented by impeccable service and a dedicated entertainment team, ensures a memorable stay for couples and families alike. Embark on an extraordinary vacation where every detail has been meticulously considered for your utmost relaxation and enjoyment.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, Tunisia (33.808130, 10.992280). It offers a unique blend of entertainment and education, featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture, including a house, a mill, and a pottery workshop. The park also boasts a diverse collection of animals, including reptiles, turtles, and iguanas. With its focus on heritage and nature, Djerba Explore Park is a popular destination for families and nature enthusiasts alike.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Bach Hamba is a popular restaurant located in the tourist area of Midoun Djerba, Avenue de la liberte. It offers a wide variety of dishes, including couscous, pasta, fish, and slata mechouia. The restaurant has a cozy atmosphere and friendly service. It is open from 12:00 pm to 12:00 am and closed on Sundays. Bach Hamba is a great place to enjoy a meal with friends or family.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7100,12 +10218,71 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a great dining experience, check out Restaurant chiklay located at Restaurant chiklay, Midoun, Djerba Midun 4116. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-21:00, but closed on marid. To get there, use these GPS coordinates: 33.8099042, 10.9723646.</t>
+          <t>Restaurant chiklay is a restaurant located in Midoun, Djerba Midun 4116. It is a great place to enjoy a delicious meal. The restaurant is open from 08:00 to 21:00, and is closed on Tuesdays. It has a rating of 5.0 on Google, based on 4 reviews.</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>Where in Midoun can you find a highly rated (5.0) Restaurant chiklay, known for its exceptional dining experience and a variety of Restaurant categories?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore Djerba Midoun, a picturesque city known for its traditional architecture and bustling markets.
+**Mid-Morning:**
+- Try local cuisine at Fast Food Sami, a popular spot renowned for its delicious and affordable meals.
+**Midday:**
+- Visit Souk Midoun, a vibrant and lively market offering a wide variety of souvenirs, textiles, and handicrafts.
+**Afternoon:**
+- Enjoy recreational activities at Djerba Explore Park, featuring a crocodile farm, a museum, and various recreations of traditional Tunisian structures.
+**Evening:**
+- Relax with a soothing spa treatment at Les Jardins de Toumana, a luxurious hotel with a serene and rejuvenating ambiance.
+**Night:**
+- Experience cultural immersion at Disco salsa djerba, a modern discotheque offering a lively atmosphere and vibrant performances.</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Djerba Midoun is located in Tunisia, in the city of Midoun. This cafe has a rating of 4.8 stars.
+Dar Amphora Menzel is a guest house located in Midoun, Tunisia, offering a 4.6-star experience. It features a convenient location at Dar Amphora Menzel, Bp 31, with coordinates (33.8815674, 10.8566779). The guest house's main category is listed as "Maison d'hotes," indicating its focus on providing a comfortable and welcoming stay for guests.
+Maison Leila is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 47.9183293, 13.7994911). It offers relaxed accommodation featuring a swimming pool, a spa, and a restaurant. The guesthouse specializes in providing comfortable and serene stays with suites equipped with kitchenettes. Maison Leila has received positive reviews for its cleanliness, comfort, and value for money, making it a popular choice for travelers seeking a peaceful and convenient getaway.
+Discover the unforgettable Welcome Meridiana Djerba, nestled amidst the picturesque landscapes of Midoun, Djerba. This magnificent hotel offers guests a haven of tranquility and comfort with elegantly appointed rooms, a refreshing pool, and a breathtaking beach nearby. Its warm and welcoming atmosphere, complemented by impeccable service and a dedicated entertainment team, ensures a memorable stay for couples and families alike. Embark on an extraordinary vacation where every detail has been meticulously considered for your utmost relaxation and enjoyment.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Nestled in the heart of Midoun, "Fast Food Sami" is a local culinary gem. Offering delicious meals, this restaurant has earned an impressive 4.8 rating from satisfied customers. Its convenient location on RX5V+V8H makes it easy to find. Open daily from 8 am to 11 pm, Fast Food Sami caters to both early risers and late-night cravings. With its inviting ambiance and friendly service, it's an excellent choice for a casual dining experience.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7207,12 +10384,65 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Fast Food Sami located at RX5V+V8H Fast Food Sami, Midoun, Djerba Midun. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at https://www.google.com/maps/place/Fast+Food+Sami/data=!4m7!3m6!1s0x13aa97c4bfc467e9:0xe3a3bd8ef023118d!8m2!3d33.8096922!4d10.9933596!16s%2Fg%2F11cs5_43k1!19sChIJ6WfEv8SXqhMRjREj8I69o-M?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Nestled in the heart of Midoun, "Fast Food Sami" is a local culinary gem. Offering delicious meals, this restaurant has earned an impressive 4.8 rating from satisfied customers. Its convenient location on RX5V+V8H makes it easy to find. Open daily from 8 am to 11 pm, Fast Food Sami caters to both early risers and late-night cravings. With its inviting ambiance and friendly service, it's an excellent choice for a casual dining experience.</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>Where in Midoun can you find a highly-rated restaurant destination that specializes in Restaurant cuisine?</t>
+          <t>Day Plan:
+Morning: Exploring Twist Cafe - Start your day with a delightful breakfast or a refreshing coffee at the highly-rated and cozy Twist Cafe, known for its warm ambiance and varied menu.
+Mid-Morning: Visiting Djerba Explore Park - Immerse yourself in a blend of entertainment and education at Djerba Explore Park, featuring a crocodile farm, museum, recreations of traditional architecture, and a diverse collection of animals.
+Midday: Trying local cuisine at Restaurant Rayhana - Treat your taste buds to authentic Tunisian flavors at Restaurant Rayhana, known for its delectable couscous, fresh fish, and vibrant atmosphere.
+Afternoon: Enjoying a relaxing getaway at Les Jardins de Toumana - Indulge in a rejuvenating experience at the exclusive Les Jardins de Toumana hotel, where you can soak up the sun by the pool, savor delicious cuisine, and unwind in the luxurious ambiance.
+Evening: Participating in a guided tour of Mosquee Fadhloun Djerba Midoun - Embark on a historical journey as you explore the architectural beauty of Mosquee Fadhloun, a significant landmark that offers insights into the local culture and heritage.
+Night: Shopping at Souk Midoun - Experience the lively atmosphere and vibrant stalls of Souk Midoun, a traditional market where you can browse for local spices, souvenirs, and handicrafts, making for a memorable shopping experience.</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Twist Cafe" is a highly-rated 24-hour cafe located at Twist cafe, Midoun, Djerba Midun (33.80813, 10.99228), offering a cozy ambiance and a menu that caters to various tastes. Its 5.0 rating, based on numerous positive customer reviews, speaks volumes about the cafe's exceptional quality and service. Whether you're looking for a relaxing cup of coffee or a delightful meal, "Twist Cafe" is a must-visit destination for those seeking a delightful culinary experience.
+Dar Amphora Menzel is a charming guest house located in Midoun, Tunisia, offering a tranquil retreat for travelers. Situated near the stunning beaches of Djerba, the guest house boasts a prime location with easy access to the island's attractions. With its cozy accommodations, warm hospitality, and convenient amenities, Dar Amphora Menzel is an ideal base for exploring the wonders of Djerba and enjoying a relaxing and memorable stay.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+If you are seeking a comfortable and conveniently located hotel in Midoun, look no further than Hotel Meridiana. The hotel has received a 4.2 stars rating with 17 reviews, suggesting that it offers a pleasant stay for its guests. Situated at (33.82835, 11.04065), the hotel is easy to find and accessible. Although detailed information about the hotel's amenities and services is not provided, its location and positive reviews make it a solid option for travelers seeking a comfortable and convenient stay in Midoun.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, Tunisia (33.808130, 10.992280). It offers a unique blend of entertainment and education, featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture, including a house, a mill, and a pottery workshop. The park also boasts a diverse collection of animals, including reptiles, turtles, and iguanas. With its focus on heritage and nature, Djerba Explore Park is a popular destination for families and nature enthusiasts alike.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Nestled in the heart of Midoun, "Fast Food Sami" is a local culinary gem. Offering delicious meals, this restaurant has earned an impressive 4.8 rating from satisfied customers. Its convenient location on RX5V+V8H makes it easy to find. Open daily from 8 am to 11 pm, Fast Food Sami caters to both early risers and late-night cravings. With its inviting ambiance and friendly service, it's an excellent choice for a casual dining experience.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7318,14 +10548,70 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out RESTAURANT EL LAMMA located at RX7P+754 RESTAURANT EL LAMMA, Midoun, Djerba Midun. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 10:00-03:00. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at https://lh5.googleusercontent.com/p/AF1QipOH-eM_DFa9HBxUAh8PQpo804bXjwgDkdGpVkqZ=w408-h544-k-no or call them at 52 779 292.</t>
+          <t>RESTAURANT EL LAMMA, with an average rating of 4.5/5 from 2 reviews, is located in Midoun, Djerba Midun, on the coordinates (33.80813, 10.99228). It is open from 10:00 AM to 3:00 AM and offers a wide range of dining options in a cozy and inviting atmosphere.</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>Where in Midoun can you find a top-rated restaurant destination with a 4.5 rating, perfect for Restaurant lovers?</t>
+          <t>Day Plan:
+Morning: Explore the traditional market, Souk Midoun, for souvenirs and local products.
+Mid-Morning: Visit the historic Mosquee Fadhloun Djerba Midoun for its architectural beauty and significance.
+Midday: Satisfy your taste buds with local Tunisian cuisine at Restaurant Rayhana, renowned for its couscous and fish dishes.
+Afternoon: Head to Djerba Golf Club for a round of golf while immersing yourself in the breathtaking sea views and lush greenery.
+Evening: Experience the vibrant atmosphere of DOMINO'S PUB for drinks and snacks, complemented by its friendly ambiance and well-rated service.
+Night: Treat yourself to a relaxing and rejuvenating experience at Les Jardins de Toumana, a luxurious hotel with an inviting pool and attentive staff.</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Moods Coffee Shop is a highly-rated café located in Midoun, Djerba Midun. Open from 4:30am to 11pm, it is renowned for its coffee and service, with reviews praising its cozy atmosphere. Located at (33.80813, 10.99228), Moods Coffee Shop is easily accessible and offers a welcoming space for locals and tourists alike.
+Dar Amphora Menzel, located in Midoun (33.8815674, 10.8566779), is a highly-rated guest house with a 4.6 rating. Run by Dar Amphora Menzel (owner), it offers a serene stay with its cozy accommodations and attentive service. This guesthouse is your go-to destination for those seeking a haven amidst the heart of midoun.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+The VINCCI DAR MIDOUN is a 4.3-star hotel located in midoun, Tunisia. The hotel offers a variety of amenities, including a restaurant, bar, swimming pool, and fitness center. The hotel is also conveniently located near the beach and other attractions. The hotel's featured image is a photo of the hotel's swimming pool, which is surrounded by palm trees. The hotel's main category is Hotel, and its categories are Hotel. The hotel's latitude is 33.7660577, and its longitude is 10.9564516. The hotel's website is nan, and its phone number is nan. The hotel's owner is VINCCI DAR MIDOUN (proprietaire).
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Le Petit Navire Restaurant Poissonnerie is located in Midoun, Djerba Midun. It offers a wide range of seafood dishes and has a 4.1-star rating on Google. The restaurant is open daily except Tuesdays and has a friendly atmosphere with good service. The average price is in the middle range. The most popular dishes include: 
+- Fruits de mer (13 reviews)
+- Pates (4 reviews)
+- Gargoulette (3 reviews)
+- Poulpe (4 reviews)
+- Service (4 reviews)
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7431,12 +10717,65 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Chez dali located at RX4R+55C Chez dali, Midoun, Djerba Midun. This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, call them at 29 620 401.</t>
+          <t>Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>Where can you find a highly recommended 'Restauration rapide' spot in Midoun that's open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Explore Djerba Midoun, visit Mosquee Fadhloun Djerba Midoun for its architectural beauty and historical significance.
+Mid-Morning: Take a guided tour of Djerba Explore Park to see the crocodile farm and other attractions.
+Midday: Visit the Souk Midoun market for a lively atmosphere and traditional Tunisian products.
+Afternoon: Relax with a massage or spa treatment at Les Jardins de Toumana.
+Evening: Try local cuisine at Lotophages, known for its friendly atmosphere and delicious food.
+Night: Experience the local nightlife at DOMINO'S PUB, known for its relaxing atmosphere and great customer service.</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Djerba Midoun is located in Tunisia, in the city of Midoun. This cafe has a rating of 4.8 stars.
+Dar Amphora Menzel is a charming guest house located in Midoun, a city on the island of Djerba in Tunisia. This 4.6-star-rated establishment offers a relaxing stay in a warm and friendly atmosphere. The guest house is conveniently located near the beach and various shops and restaurants, making it an ideal base for exploring the island and enjoying its beautiful scenery.
+Nestled in the heart of Midoun, Djerba Midun, Midounia offers charming bed and breakfast accommodations with a 5-star rating. Situated at coordinates (33.80813, 10.99228), this establishment boasts a prime location, making it an ideal base for exploring the city and its surroundings.
+The Fiesta Beach Djerba is a 4.2-rated all-inclusive hotel in Midoun, Tunisia. Facing a private beach, it offers a relaxed atmosphere with a range of amenities such as a spa, multiple pools, and a kids' club. The hotel has received over 1870 reviews and is highly praised for its animation, entertainment, and friendly staff. The Fiesta Beach Djerba is conveniently located near popular attractions and offers a wide range of activities for guests to enjoy during their stay.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, on the island of Djerba, in Tunisia. The park features a crocodile farm, with various species of crocodiles, turtles, and iguanas, as well as a museum and recreations of a traditional house, mill, and pottery workshop. The park also offers other attractions such as a gift shop, restaurant, and opportunities to interact with camels. It has received positive reviews from visitors, with an average rating of 4.6 out of 5. The park is located at coordinates 33.80813, 10.99228 with phone number 75 745 277.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Lotophages is a popular restaurant in the heart of Midoun, Tunisia. With a rating of 4.0 out of 5 based on 113 reviews, it offers a wide range of dishes and beverages, including pizzas, sandwiches, cocktails, and coffee in a friendly and cozy atmosphere. The restaurant is located at RX5R+R67 in Midoun and is open from 6:00 AM to midnight every day of the week.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7538,15 +10877,65 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a reliable taxi service, check out Station Taxi Midoun located at RX6Q+4WQ Station Taxi Midoun, Djerba Midun. 
-This top-rated destination is perfect for those in need of a taxi and offers a range of services to choose from. 
-With a rating of 3.1, it's a must-visit spot. To get there, use these GPS coordinates: 33.80813, 10.99228. 
-For more details, call them at 58 907 656.</t>
+          <t>Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated taxi service with a convenient location in Midoun, Djerba?</t>
+          <t>Day Plan:
+Morning: Explore the traditional market, Souk Midoun, for spices, souvenirs, and handicrafts.
+Mid-Morning: Visit Mosquee Fadhloun Djerba Midoun, a historically significant mosque known for its architectural beauty.
+Midday: Try local cuisine at Restaurant Rayhana, which serves traditional Tunisian dishes like couscous and fish.
+Afternoon: Enjoy scenic views at Djerba Explore Park, which showcases traditional Tunisian architecture and a diverse collection of animals.
+Evening: Relax with a massage at Les Jardins de Toumana, a charming hotel with a luxurious spa.
+Night: Experience live entertainment and a luxurious atmosphere at Club Med Djerba, a beachfront hotel with a range of dining options and activities.</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bouchnak is a cafe located in Midoun, Djerba Midun, Tunisia. It is open from 06:00-00:00 and closed on Sundays. Cafe Bouchnak has a rating of 4.6 out of 5 stars on Google and is known for its great coffee and friendly staff.
+Dar Amphora Menzel is a charming guesthouse located in Midoun on the island of Djerba in Tunisia. It is rated 4.6 stars and offers a memorable stay for its guests. With 12 reviews, it is a popular choice for travelers seeking a comfortable and authentic experience.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+Iberostar Mehari Djerba is a 4.7 stars hotel located in midoun, Tunisia. The hotel offers a wide range of services and amenities to its guests, including an outdoor pool, a spa, a fitness center, and a kids' club. The hotel is also conveniently located near the beach, making it a great choice for those who want to enjoy some sun and sand during their stay.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, Tunisia (33.808130, 10.992280). It offers a unique blend of entertainment and education, featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture, including a house, a mill, and a pottery workshop. The park also boasts a diverse collection of animals, including reptiles, turtles, and iguanas. With its focus on heritage and nature, Djerba Explore Park is a popular destination for families and nature enthusiasts alike.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+Lotophages is a popular restaurant in the heart of Midoun, Tunisia. With a rating of 4.0 out of 5 based on 113 reviews, it offers a wide range of dishes and beverages, including pizzas, sandwiches, cocktails, and coffee in a friendly and cozy atmosphere. The restaurant is located at RX5R+R67 in Midoun and is open from 6:00 AM to midnight every day of the week.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7652,15 +11041,65 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out djerba transport midoun djm located at RXCM+7JR djerba transport midoun djm, Unnamed Road, Djerba Midun. 
-This top-rated destination is perfect for Service de transport lovers and offers a range of Service de transport to choose from. 
-With a rating of 4.3, it's a must-visit spot. 
-To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at http://www.jerba-transport.com/ or call them at 26 600 973.</t>
+          <t>Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>Where in Djerba Midoun can you experience top-rated services and choose from a wide selection of services for Service de transport enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins and rich history of Mosquee Fadhloun Djerba Midoun.
+Mid-Morning: Visit Djerba Explore Park for a unique and educational experience with local wildlife and cultural demonstrations.
+Midday: Indulge in the flavors of Tunisia at Restaurant Rayhana, renowned for its authentic couscous and fresh seafood.
+Afternoon: Head to Plage de Sidi Mahrez for some relaxation and swimming, enjoying the sun and stunning views of the Mediterranean Sea.
+Evening: Experience the lively atmosphere of Souk Midoun, browsing traditional crafts, spices, and souvenirs while soaking up the vibrant local culture.
+Night: Savor a delightful dinner at So Yummy, known for its vast selection of sweet and savory crepes, milkshakes, and other delectable treats.</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Virage is a highly-rated cafe located in Midoun, Tunisia, with a convenient location and extended opening hours from 7:00 AM to midnight. Although it lacks a website and phone number, it boasts a 4.3-star rating based on 10 reviews. The cafe's main category is Cafe, showcasing its expertise in coffee and other beverages.
+Dar Amphora Menzel is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 33.8815674, 10.8566779). It offers a serene retreat with 12 cozy rooms and features amenities such as a swimming pool and a traditional hammam (steam bath). The guesthouse is conveniently situated near various attractions and offers easy access to the city's vibrant culture and stunning natural surroundings.
+Nestled in the heart of Midoun, Djerba Midun, Midounia offers charming bed and breakfast accommodations with a 5-star rating. Situated at coordinates (33.80813, 10.99228), this establishment boasts a prime location, making it an ideal base for exploring the city and its surroundings.
+Iberostar Mehari Djerba is a 4.7 stars hotel located in midoun, Tunisia. The hotel offers a wide range of services and amenities to its guests, including an outdoor pool, a spa, a fitness center, and a kids' club. The hotel is also conveniently located near the beach, making it a great choice for those who want to enjoy some sun and sand during their stay.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Restaurant Lella Hadhria is a highly-rated restaurant located in Midoun, Tunisia. It offers a wide range of dishes, including seafood, lamb, and vegetarian options. The restaurant is known for its beautiful views of the lagoon and its friendly service. It is located at (48.4720605, 14.0440465) and is open from 12:00 PM to 11:00 PM daily.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7766,12 +11205,70 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a reliable Service de transport, consider Station louage midoun located at RX5R+WCF Station louage midoun, Djerba Midun. This top-rated destination is perfect for Service de transport lovers and offers a range of categories to choose from. With a rating of 2.7, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at https://www.google.com/maps/place/Station+louage+midoun/data=!4m7!3m6!1s0x13aa97a9cc38ab09:0x667a2cc95e2e24a0!8m2!3d33.8103663!4d10.9905127!16s%2Fg%2F11tsdr02hn!19sChIJCas4zKmXqhMRoCQuXsksemY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 56 561 619.</t>
+          <t>Station louage midoun is a transport service located in midoun. Its coordinates are (33.80813, 10.99228).</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Service de transport in Midoun with a wide selection of categories, available 24/7, and featuring GPS coordinates for easy navigation?</t>
+          <t>Day Plan:
+Morning: Explore Cafe Bouchnak, indulge in its delectable coffee and friendly ambiance.
+Mid-Morning: Visit Dar Amphora Menzel, immerse yourself in its charming atmosphere and enjoy a relaxing stay.
+Midday: Savor authentic Tunisian cuisine at Restaurant Rayhana, known for its flavorful couscous and warm hospitality.
+Afternoon: Explore the lively Souk Midoun, a bustling market brimming with colorful stalls offering spices, souvenirs, and local handicrafts.
+Evening: Take a leisurely stroll along the shores of Les Jardins de Toumana's private beach, marveling at the stunning Mediterranean sunset.
+Night: Experience the vibrant nightlife at DOMINO'S PUB, a lounge offering a vibrant ambiance and refreshing beverages.</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bouchnak is a cafe located in Midoun, Djerba Midun, Tunisia. It is open from 06:00-00:00 and closed on Sundays. Cafe Bouchnak has a rating of 4.6 out of 5 stars on Google and is known for its great coffee and friendly staff.
+Dar Amphora Menzel is a charming guesthouse located in Midoun on the island of Djerba in Tunisia. It is rated 4.6 stars and offers a memorable stay for its guests. With 12 reviews, it is a popular choice for travelers seeking a comfortable and authentic experience.
+Maison Leila is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 47.9183293, 13.7994911). It offers relaxed accommodation featuring a swimming pool, a spa, and a restaurant. The guesthouse specializes in providing comfortable and serene stays with suites equipped with kitchenettes. Maison Leila has received positive reviews for its cleanliness, comfort, and value for money, making it a popular choice for travelers seeking a peaceful and convenient getaway.
+Escape to the serene sanctuary of Calimer Yati Beach, a 5-star hotel situated at the heart of Midoun in Djerba Midun. Located at (33.81005, 10.98997), the hotel offers an idyllic beachfront retreat with breathtaking views of the Mediterranean Sea. As one of the top-rated hotels in the area, Calimer Yati Beach boasts exceptional amenities and services that cater to every need.
+Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, Tunisia (33.808130, 10.992280). It offers a unique blend of entertainment and education, featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture, including a house, a mill, and a pottery workshop. The park also boasts a diverse collection of animals, including reptiles, turtles, and iguanas. With its focus on heritage and nature, Djerba Explore Park is a popular destination for families and nature enthusiasts alike.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.
+Le Petit Navire Restaurant Poissonnerie is located in Midoun, Djerba Midun. It offers a wide range of seafood dishes and has a 4.1-star rating on Google. The restaurant is open daily except Tuesdays and has a friendly atmosphere with good service. The average price is in the middle range. The most popular dishes include: 
+- Fruits de mer (13 reviews)
+- Pates (4 reviews)
+- Gargoulette (3 reviews)
+- Poulpe (4 reviews)
+- Service (4 reviews)
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7873,12 +11370,65 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>Looking for a reliable chauffeur service in midoun? Station Service Djerba, located at RX6P+XF5 Station Service Djerba, Midoun, Djerba Midun, is a top-rated destination. With a rating of 3.3, it's a must-visit spot for those seeking a safe and comfortable ride. For more details, visit their website at https://djerba--hotel.blogspot.com/p/taxi-rank.html.</t>
+          <t>Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>Where in Midoun can you find a highly rated chauffeur service that promises a comfortable and reliable ride?</t>
+          <t>Day Plan:
+Morning: Explore the lively Souk Midoun, browsing its colorful stalls for souvenirs and local handicrafts.
+Mid-Morning: Visit Dar El Kebir, a charming 4.8-rated guest house with a swimming pool and a garden, offering a peaceful retreat.
+Midday: Enjoy a delicious lunch at Restaurant Lella Hadhria, savoring its seafood and lamb dishes while admiring the lagoon views.
+Afternoon: Engage in outdoor activities at Djerba Explore Park, home to a crocodile farm, a museum, and recreations of traditional Tunisian architecture.
+Evening: Experience the vibrant atmosphere and modern amenities at Disco Salsa Djerba, enjoying its music and dance floor.
+Night: Relax with a soothing massage at the spa of Les Jardins de Toumana, a luxurious hotel known for its comfortable accommodations and rejuvenating ambiance.</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Riadh is a cafe situated in the heart of midoun, Tunisia. The cafe is a popular spot for locals and tourists alike, and offers a variety of coffee and tea drinks, as well as a selection of snacks. The cafe is located at 33.80813, 10.99228.
+Dar El Kebir is a 4.8-rated guest house located in Midoun, Djerba. It offers 6 rooms, a swimming pool, a terrace, and a garden. The guest house is located close to the beach and offers a variety of activities, such as swimming, fishing, and hiking.
+Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.
+Sentido Djerba Beach is a four-star hotel located on the beachfront in Midoun, Tunisia (coordinates: 48.4720605, 14.0440465). The hotel offers a private beach, multiple restaurants and bars, swimming pools, and a spa. Guest rooms are described as simple and comfortable. Over 1,400 reviews give the hotel an average rating of 4.2 out of 5. The hotel is particularly praised for its animation, beach chairs, service, and all-inclusive options.
+Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.
+Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.
+Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.
+Djerba Explore Park is a theme park located in Midoun, Tunisia (33.808130, 10.992280). It offers a unique blend of entertainment and education, featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture, including a house, a mill, and a pottery workshop. The park also boasts a diverse collection of animals, including reptiles, turtles, and iguanas. With its focus on heritage and nature, Djerba Explore Park is a popular destination for families and nature enthusiasts alike.
+Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).
+Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.
+Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.
+DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).
+Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.
+Restaurant Lella Hadhria is a highly-rated restaurant located in Midoun, Tunisia. It offers a wide range of dishes, including seafood, lamb, and vegetarian options. The restaurant is known for its beautiful views of the lagoon and its friendly service. It is located at (48.4720605, 14.0440465) and is open from 12:00 PM to 11:00 PM daily.
+So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.
+Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.
+Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).
+Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.
+Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/
+Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
